--- a/BackTest/2020-01-19 BackTest INS.xlsx
+++ b/BackTest/2020-01-19 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M356"/>
+  <dimension ref="A1:M357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>201.8</v>
+        <v>200.2</v>
       </c>
       <c r="C2" t="n">
-        <v>201.8</v>
+        <v>200.2</v>
       </c>
       <c r="D2" t="n">
-        <v>201.8</v>
+        <v>200.2</v>
       </c>
       <c r="E2" t="n">
-        <v>201.8</v>
+        <v>200.2</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>1607.2506</v>
       </c>
       <c r="G2" t="n">
-        <v>201.6333333333334</v>
+        <v>201.6516666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>201.8</v>
       </c>
       <c r="F3" t="n">
-        <v>463.7942</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>201.6150000000001</v>
+        <v>201.6333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>201.5</v>
+        <v>201.8</v>
       </c>
       <c r="C4" t="n">
-        <v>201.5</v>
+        <v>201.8</v>
       </c>
       <c r="D4" t="n">
-        <v>201.5</v>
+        <v>201.8</v>
       </c>
       <c r="E4" t="n">
-        <v>201.5</v>
+        <v>201.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1138.2271</v>
+        <v>463.7942</v>
       </c>
       <c r="G4" t="n">
-        <v>201.5916666666668</v>
+        <v>201.6150000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>201.7</v>
+        <v>201.5</v>
       </c>
       <c r="C5" t="n">
-        <v>201.7</v>
+        <v>201.5</v>
       </c>
       <c r="D5" t="n">
-        <v>201.7</v>
+        <v>201.5</v>
       </c>
       <c r="E5" t="n">
-        <v>201.7</v>
+        <v>201.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4480</v>
+        <v>1138.2271</v>
       </c>
       <c r="G5" t="n">
-        <v>201.5716666666668</v>
+        <v>201.5916666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>201.7</v>
       </c>
       <c r="F6" t="n">
-        <v>185.3818</v>
+        <v>4480</v>
       </c>
       <c r="G6" t="n">
-        <v>201.5550000000001</v>
+        <v>201.5716666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>201.7</v>
       </c>
       <c r="C7" t="n">
-        <v>201.5</v>
+        <v>201.7</v>
       </c>
       <c r="D7" t="n">
         <v>201.7</v>
       </c>
       <c r="E7" t="n">
-        <v>201.5</v>
+        <v>201.7</v>
       </c>
       <c r="F7" t="n">
-        <v>17637.034</v>
+        <v>185.3818</v>
       </c>
       <c r="G7" t="n">
-        <v>201.5466666666668</v>
+        <v>201.5550000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>201.5</v>
+        <v>201.7</v>
       </c>
       <c r="C8" t="n">
         <v>201.5</v>
       </c>
       <c r="D8" t="n">
-        <v>201.5</v>
+        <v>201.7</v>
       </c>
       <c r="E8" t="n">
         <v>201.5</v>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>17637.034</v>
       </c>
       <c r="G8" t="n">
-        <v>201.5383333333334</v>
+        <v>201.5466666666668</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>200.4</v>
+        <v>201.5</v>
       </c>
       <c r="C9" t="n">
-        <v>200.4</v>
+        <v>201.5</v>
       </c>
       <c r="D9" t="n">
-        <v>200.4</v>
+        <v>201.5</v>
       </c>
       <c r="E9" t="n">
-        <v>200.4</v>
+        <v>201.5</v>
       </c>
       <c r="F9" t="n">
-        <v>2746.2633</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="n">
-        <v>201.5116666666668</v>
+        <v>201.5383333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>201.5</v>
+        <v>200.4</v>
       </c>
       <c r="C10" t="n">
-        <v>200.3</v>
+        <v>200.4</v>
       </c>
       <c r="D10" t="n">
-        <v>201.5</v>
+        <v>200.4</v>
       </c>
       <c r="E10" t="n">
-        <v>200.3</v>
+        <v>200.4</v>
       </c>
       <c r="F10" t="n">
-        <v>378.371</v>
+        <v>2746.2633</v>
       </c>
       <c r="G10" t="n">
-        <v>201.4833333333334</v>
+        <v>201.5116666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>201.5</v>
       </c>
       <c r="C11" t="n">
-        <v>201.5</v>
+        <v>200.3</v>
       </c>
       <c r="D11" t="n">
         <v>201.5</v>
       </c>
       <c r="E11" t="n">
-        <v>201.5</v>
+        <v>200.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>378.371</v>
       </c>
       <c r="G11" t="n">
-        <v>201.4750000000001</v>
+        <v>201.4833333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200.3</v>
+        <v>201.5</v>
       </c>
       <c r="C12" t="n">
-        <v>200.2</v>
+        <v>201.5</v>
       </c>
       <c r="D12" t="n">
-        <v>200.3</v>
+        <v>201.5</v>
       </c>
       <c r="E12" t="n">
-        <v>200.2</v>
+        <v>201.5</v>
       </c>
       <c r="F12" t="n">
-        <v>3036.1106</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>201.4316666666668</v>
+        <v>201.4750000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>201.4</v>
+        <v>200.3</v>
       </c>
       <c r="C13" t="n">
-        <v>201.4</v>
+        <v>200.2</v>
       </c>
       <c r="D13" t="n">
-        <v>201.4</v>
+        <v>200.3</v>
       </c>
       <c r="E13" t="n">
-        <v>201.4</v>
+        <v>200.2</v>
       </c>
       <c r="F13" t="n">
-        <v>2.5</v>
+        <v>3036.1106</v>
       </c>
       <c r="G13" t="n">
-        <v>201.4300000000001</v>
+        <v>201.4316666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200.3</v>
+        <v>201.4</v>
       </c>
       <c r="C14" t="n">
-        <v>200.1</v>
+        <v>201.4</v>
       </c>
       <c r="D14" t="n">
-        <v>200.3</v>
+        <v>201.4</v>
       </c>
       <c r="E14" t="n">
-        <v>200.1</v>
+        <v>201.4</v>
       </c>
       <c r="F14" t="n">
-        <v>10055.466</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>201.4033333333334</v>
+        <v>201.4300000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>201.4</v>
+        <v>200.3</v>
       </c>
       <c r="C15" t="n">
-        <v>201.4</v>
+        <v>200.1</v>
       </c>
       <c r="D15" t="n">
-        <v>201.4</v>
+        <v>200.3</v>
       </c>
       <c r="E15" t="n">
-        <v>201.4</v>
+        <v>200.1</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>10055.466</v>
       </c>
       <c r="G15" t="n">
-        <v>201.4016666666668</v>
+        <v>201.4033333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201.8</v>
+        <v>201.4</v>
       </c>
       <c r="C16" t="n">
-        <v>201.8</v>
+        <v>201.4</v>
       </c>
       <c r="D16" t="n">
-        <v>201.8</v>
+        <v>201.4</v>
       </c>
       <c r="E16" t="n">
-        <v>201.8</v>
+        <v>201.4</v>
       </c>
       <c r="F16" t="n">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>201.4066666666668</v>
+        <v>201.4016666666668</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>200.7</v>
+        <v>201.8</v>
       </c>
       <c r="C17" t="n">
-        <v>200.7</v>
+        <v>201.8</v>
       </c>
       <c r="D17" t="n">
-        <v>200.7</v>
+        <v>201.8</v>
       </c>
       <c r="E17" t="n">
-        <v>200.7</v>
+        <v>201.8</v>
       </c>
       <c r="F17" t="n">
-        <v>850.443</v>
+        <v>400</v>
       </c>
       <c r="G17" t="n">
-        <v>201.3816666666667</v>
+        <v>201.4066666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>202.6</v>
+        <v>200.7</v>
       </c>
       <c r="C18" t="n">
-        <v>202.5</v>
+        <v>200.7</v>
       </c>
       <c r="D18" t="n">
-        <v>202.6</v>
+        <v>200.7</v>
       </c>
       <c r="E18" t="n">
-        <v>202.5</v>
+        <v>200.7</v>
       </c>
       <c r="F18" t="n">
-        <v>4291.7965</v>
+        <v>850.443</v>
       </c>
       <c r="G18" t="n">
-        <v>201.3866666666667</v>
+        <v>201.3816666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>202.5</v>
+        <v>202.6</v>
       </c>
       <c r="C19" t="n">
         <v>202.5</v>
       </c>
       <c r="D19" t="n">
-        <v>202.5</v>
+        <v>202.6</v>
       </c>
       <c r="E19" t="n">
         <v>202.5</v>
       </c>
       <c r="F19" t="n">
-        <v>444.248</v>
+        <v>4291.7965</v>
       </c>
       <c r="G19" t="n">
-        <v>201.3833333333334</v>
+        <v>201.3866666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>202.8</v>
+        <v>202.5</v>
       </c>
       <c r="C20" t="n">
-        <v>202.8</v>
+        <v>202.5</v>
       </c>
       <c r="D20" t="n">
-        <v>202.8</v>
+        <v>202.5</v>
       </c>
       <c r="E20" t="n">
-        <v>202.8</v>
+        <v>202.5</v>
       </c>
       <c r="F20" t="n">
-        <v>836.7716</v>
+        <v>444.248</v>
       </c>
       <c r="G20" t="n">
-        <v>201.385</v>
+        <v>201.3833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>203</v>
+        <v>202.8</v>
       </c>
       <c r="C21" t="n">
-        <v>203</v>
+        <v>202.8</v>
       </c>
       <c r="D21" t="n">
-        <v>203</v>
+        <v>202.8</v>
       </c>
       <c r="E21" t="n">
-        <v>203</v>
+        <v>202.8</v>
       </c>
       <c r="F21" t="n">
-        <v>2066.2173</v>
+        <v>836.7716</v>
       </c>
       <c r="G21" t="n">
-        <v>201.41</v>
+        <v>201.385</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>201.4</v>
+        <v>203</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4</v>
+        <v>203</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4</v>
+        <v>203</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4</v>
+        <v>203</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2066.2173</v>
       </c>
       <c r="G22" t="n">
-        <v>201.3833333333334</v>
+        <v>201.41</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>201.4</v>
       </c>
       <c r="C23" t="n">
-        <v>201.3</v>
+        <v>201.4</v>
       </c>
       <c r="D23" t="n">
-        <v>202.8</v>
+        <v>201.4</v>
       </c>
       <c r="E23" t="n">
-        <v>201.3</v>
+        <v>201.4</v>
       </c>
       <c r="F23" t="n">
-        <v>6029.8792</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>201.355</v>
+        <v>201.3833333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="C24" t="n">
         <v>201.3</v>
       </c>
-      <c r="C24" t="n">
-        <v>201.2</v>
-      </c>
       <c r="D24" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="E24" t="n">
         <v>201.3</v>
       </c>
-      <c r="E24" t="n">
-        <v>201.2</v>
-      </c>
       <c r="F24" t="n">
-        <v>7530.7476</v>
+        <v>6029.8792</v>
       </c>
       <c r="G24" t="n">
-        <v>201.3483333333334</v>
+        <v>201.355</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>202.7</v>
+        <v>201.3</v>
       </c>
       <c r="C25" t="n">
-        <v>202.7</v>
+        <v>201.2</v>
       </c>
       <c r="D25" t="n">
-        <v>202.7</v>
+        <v>201.3</v>
       </c>
       <c r="E25" t="n">
-        <v>202.7</v>
+        <v>201.2</v>
       </c>
       <c r="F25" t="n">
-        <v>4.9333991119</v>
+        <v>7530.7476</v>
       </c>
       <c r="G25" t="n">
-        <v>201.3566666666667</v>
+        <v>201.3483333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>201.7</v>
+        <v>202.7</v>
       </c>
       <c r="C26" t="n">
-        <v>201.7</v>
+        <v>202.7</v>
       </c>
       <c r="D26" t="n">
-        <v>201.7</v>
+        <v>202.7</v>
       </c>
       <c r="E26" t="n">
-        <v>201.7</v>
+        <v>202.7</v>
       </c>
       <c r="F26" t="n">
-        <v>588.1572</v>
+        <v>4.9333991119</v>
       </c>
       <c r="G26" t="n">
-        <v>201.35</v>
+        <v>201.3566666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>200.6</v>
+        <v>201.7</v>
       </c>
       <c r="C27" t="n">
-        <v>200.6</v>
+        <v>201.7</v>
       </c>
       <c r="D27" t="n">
-        <v>200.6</v>
+        <v>201.7</v>
       </c>
       <c r="E27" t="n">
-        <v>200.6</v>
+        <v>201.7</v>
       </c>
       <c r="F27" t="n">
-        <v>204.9832</v>
+        <v>588.1572</v>
       </c>
       <c r="G27" t="n">
-        <v>201.325</v>
+        <v>201.35</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>202.8</v>
+        <v>200.6</v>
       </c>
       <c r="C28" t="n">
-        <v>202.8</v>
+        <v>200.6</v>
       </c>
       <c r="D28" t="n">
-        <v>202.8</v>
+        <v>200.6</v>
       </c>
       <c r="E28" t="n">
-        <v>202.8</v>
+        <v>200.6</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>204.9832</v>
       </c>
       <c r="G28" t="n">
-        <v>201.3366666666667</v>
+        <v>201.325</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>200.6</v>
+        <v>202.8</v>
       </c>
       <c r="C29" t="n">
-        <v>200.6</v>
+        <v>202.8</v>
       </c>
       <c r="D29" t="n">
-        <v>200.6</v>
+        <v>202.8</v>
       </c>
       <c r="E29" t="n">
-        <v>200.6</v>
+        <v>202.8</v>
       </c>
       <c r="F29" t="n">
-        <v>10039.911</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>201.3116666666667</v>
+        <v>201.3366666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>202.7</v>
+        <v>200.6</v>
       </c>
       <c r="C30" t="n">
-        <v>203.2</v>
+        <v>200.6</v>
       </c>
       <c r="D30" t="n">
-        <v>203.2</v>
+        <v>200.6</v>
       </c>
       <c r="E30" t="n">
-        <v>202.7</v>
+        <v>200.6</v>
       </c>
       <c r="F30" t="n">
-        <v>9067.1381</v>
+        <v>10039.911</v>
       </c>
       <c r="G30" t="n">
-        <v>201.34</v>
+        <v>201.3116666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>204.1</v>
+        <v>202.7</v>
       </c>
       <c r="C31" t="n">
-        <v>204.1</v>
+        <v>203.2</v>
       </c>
       <c r="D31" t="n">
-        <v>204.1</v>
+        <v>203.2</v>
       </c>
       <c r="E31" t="n">
-        <v>204.1</v>
+        <v>202.7</v>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>9067.1381</v>
       </c>
       <c r="G31" t="n">
-        <v>201.3833333333334</v>
+        <v>201.34</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>203.2</v>
+        <v>204.1</v>
       </c>
       <c r="C32" t="n">
-        <v>203.2</v>
+        <v>204.1</v>
       </c>
       <c r="D32" t="n">
-        <v>203.2</v>
+        <v>204.1</v>
       </c>
       <c r="E32" t="n">
-        <v>203.2</v>
+        <v>204.1</v>
       </c>
       <c r="F32" t="n">
-        <v>1557</v>
+        <v>30</v>
       </c>
       <c r="G32" t="n">
-        <v>201.4050000000001</v>
+        <v>201.3833333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>203.2</v>
       </c>
       <c r="F33" t="n">
-        <v>669</v>
+        <v>1557</v>
       </c>
       <c r="G33" t="n">
-        <v>201.4266666666667</v>
+        <v>201.4050000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>203.2</v>
       </c>
       <c r="C34" t="n">
-        <v>201.2</v>
+        <v>203.2</v>
       </c>
       <c r="D34" t="n">
         <v>203.2</v>
       </c>
       <c r="E34" t="n">
-        <v>201.2</v>
+        <v>203.2</v>
       </c>
       <c r="F34" t="n">
-        <v>601.8</v>
+        <v>669</v>
       </c>
       <c r="G34" t="n">
-        <v>201.4283333333334</v>
+        <v>201.4266666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>201.7</v>
+        <v>203.2</v>
       </c>
       <c r="C35" t="n">
-        <v>201.7</v>
+        <v>201.2</v>
       </c>
       <c r="D35" t="n">
-        <v>201.7</v>
+        <v>203.2</v>
       </c>
       <c r="E35" t="n">
-        <v>201.7</v>
+        <v>201.2</v>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>601.8</v>
       </c>
       <c r="G35" t="n">
-        <v>201.4400000000001</v>
+        <v>201.4283333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>201.7</v>
       </c>
       <c r="F36" t="n">
-        <v>12441.0789</v>
+        <v>4000</v>
       </c>
       <c r="G36" t="n">
-        <v>201.4533333333334</v>
+        <v>201.4400000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>203.5</v>
+        <v>201.7</v>
       </c>
       <c r="C37" t="n">
-        <v>203.5</v>
+        <v>201.7</v>
       </c>
       <c r="D37" t="n">
-        <v>203.5</v>
+        <v>201.7</v>
       </c>
       <c r="E37" t="n">
-        <v>203.5</v>
+        <v>201.7</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>12441.0789</v>
       </c>
       <c r="G37" t="n">
-        <v>201.5083333333334</v>
+        <v>201.4533333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,19 +1693,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>202.1</v>
+        <v>203.5</v>
       </c>
       <c r="C38" t="n">
-        <v>202.1</v>
+        <v>203.5</v>
       </c>
       <c r="D38" t="n">
-        <v>202.1</v>
+        <v>203.5</v>
       </c>
       <c r="E38" t="n">
-        <v>202.1</v>
+        <v>203.5</v>
       </c>
       <c r="F38" t="n">
-        <v>170.7183</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
         <v>201.5083333333334</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>202.2</v>
+        <v>202.1</v>
       </c>
       <c r="C39" t="n">
-        <v>202.2</v>
+        <v>202.1</v>
       </c>
       <c r="D39" t="n">
-        <v>202.2</v>
+        <v>202.1</v>
       </c>
       <c r="E39" t="n">
-        <v>202.2</v>
+        <v>202.1</v>
       </c>
       <c r="F39" t="n">
-        <v>181</v>
+        <v>170.7183</v>
       </c>
       <c r="G39" t="n">
-        <v>201.5100000000001</v>
+        <v>201.5083333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>202.8</v>
+        <v>202.2</v>
       </c>
       <c r="C40" t="n">
-        <v>202.8</v>
+        <v>202.2</v>
       </c>
       <c r="D40" t="n">
-        <v>202.8</v>
+        <v>202.2</v>
       </c>
       <c r="E40" t="n">
-        <v>202.8</v>
+        <v>202.2</v>
       </c>
       <c r="F40" t="n">
-        <v>436.1345</v>
+        <v>181</v>
       </c>
       <c r="G40" t="n">
-        <v>201.5216666666667</v>
+        <v>201.5100000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>202.8</v>
       </c>
       <c r="F41" t="n">
-        <v>7120.5082</v>
+        <v>436.1345</v>
       </c>
       <c r="G41" t="n">
-        <v>201.5116666666667</v>
+        <v>201.5216666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>202.7</v>
+        <v>202.8</v>
       </c>
       <c r="C42" t="n">
-        <v>202.7</v>
+        <v>202.8</v>
       </c>
       <c r="D42" t="n">
-        <v>202.7</v>
+        <v>202.8</v>
       </c>
       <c r="E42" t="n">
-        <v>202.7</v>
+        <v>202.8</v>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>7120.5082</v>
       </c>
       <c r="G42" t="n">
-        <v>201.5050000000001</v>
+        <v>201.5116666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>202.7</v>
       </c>
       <c r="F43" t="n">
-        <v>74.91</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="n">
-        <v>201.5000000000001</v>
+        <v>201.5050000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>202.8</v>
+        <v>202.7</v>
       </c>
       <c r="C44" t="n">
         <v>202.7</v>
       </c>
       <c r="D44" t="n">
-        <v>202.8</v>
+        <v>202.7</v>
       </c>
       <c r="E44" t="n">
         <v>202.7</v>
       </c>
       <c r="F44" t="n">
-        <v>3897.7382</v>
+        <v>74.91</v>
       </c>
       <c r="G44" t="n">
-        <v>201.5283333333334</v>
+        <v>201.5000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>202.2</v>
+        <v>202.8</v>
       </c>
       <c r="C45" t="n">
-        <v>202.2</v>
+        <v>202.7</v>
       </c>
       <c r="D45" t="n">
-        <v>202.2</v>
+        <v>202.8</v>
       </c>
       <c r="E45" t="n">
-        <v>202.2</v>
+        <v>202.7</v>
       </c>
       <c r="F45" t="n">
-        <v>7997.8726</v>
+        <v>3897.7382</v>
       </c>
       <c r="G45" t="n">
-        <v>201.5483333333335</v>
+        <v>201.5283333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>202.4</v>
+        <v>202.2</v>
       </c>
       <c r="C46" t="n">
         <v>202.2</v>
       </c>
       <c r="D46" t="n">
-        <v>202.4</v>
+        <v>202.2</v>
       </c>
       <c r="E46" t="n">
         <v>202.2</v>
       </c>
       <c r="F46" t="n">
-        <v>4416.6117</v>
+        <v>7997.8726</v>
       </c>
       <c r="G46" t="n">
-        <v>201.5683333333335</v>
+        <v>201.5483333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>202</v>
+        <v>202.4</v>
       </c>
       <c r="C47" t="n">
-        <v>202</v>
+        <v>202.2</v>
       </c>
       <c r="D47" t="n">
-        <v>202</v>
+        <v>202.4</v>
       </c>
       <c r="E47" t="n">
-        <v>202</v>
+        <v>202.2</v>
       </c>
       <c r="F47" t="n">
-        <v>3654.7556</v>
+        <v>4416.6117</v>
       </c>
       <c r="G47" t="n">
-        <v>201.6000000000001</v>
+        <v>201.5683333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>202</v>
       </c>
       <c r="C48" t="n">
-        <v>201.6</v>
+        <v>202</v>
       </c>
       <c r="D48" t="n">
         <v>202</v>
       </c>
       <c r="E48" t="n">
-        <v>201.6</v>
+        <v>202</v>
       </c>
       <c r="F48" t="n">
-        <v>2660.16</v>
+        <v>3654.7556</v>
       </c>
       <c r="G48" t="n">
-        <v>201.5950000000001</v>
+        <v>201.6000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>202</v>
+      </c>
+      <c r="C49" t="n">
         <v>201.6</v>
       </c>
-      <c r="C49" t="n">
-        <v>201.5</v>
-      </c>
       <c r="D49" t="n">
+        <v>202</v>
+      </c>
+      <c r="E49" t="n">
         <v>201.6</v>
       </c>
-      <c r="E49" t="n">
-        <v>201.5</v>
-      </c>
       <c r="F49" t="n">
-        <v>8315.3691</v>
+        <v>2660.16</v>
       </c>
       <c r="G49" t="n">
-        <v>201.5866666666668</v>
+        <v>201.5950000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="C50" t="n">
         <v>201.5</v>
       </c>
-      <c r="C50" t="n">
-        <v>201.3</v>
-      </c>
       <c r="D50" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="E50" t="n">
         <v>201.5</v>
       </c>
-      <c r="E50" t="n">
-        <v>200.5</v>
-      </c>
       <c r="F50" t="n">
-        <v>6923.9548</v>
+        <v>8315.3691</v>
       </c>
       <c r="G50" t="n">
-        <v>201.6066666666668</v>
+        <v>201.5866666666668</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>201.4</v>
+        <v>201.5</v>
       </c>
       <c r="C51" t="n">
-        <v>200</v>
+        <v>201.3</v>
       </c>
       <c r="D51" t="n">
-        <v>201.4</v>
+        <v>201.5</v>
       </c>
       <c r="E51" t="n">
-        <v>200</v>
+        <v>200.5</v>
       </c>
       <c r="F51" t="n">
-        <v>75692.5416</v>
+        <v>6923.9548</v>
       </c>
       <c r="G51" t="n">
-        <v>201.6050000000001</v>
+        <v>201.6066666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="C52" t="n">
         <v>200</v>
       </c>
-      <c r="C52" t="n">
-        <v>199.9</v>
-      </c>
       <c r="D52" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="E52" t="n">
         <v>200</v>
       </c>
-      <c r="E52" t="n">
-        <v>199.9</v>
-      </c>
       <c r="F52" t="n">
-        <v>35415.0641</v>
+        <v>75692.5416</v>
       </c>
       <c r="G52" t="n">
-        <v>201.6016666666668</v>
+        <v>201.6050000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,16 +2221,16 @@
         <v>200</v>
       </c>
       <c r="C53" t="n">
-        <v>200</v>
+        <v>199.9</v>
       </c>
       <c r="D53" t="n">
         <v>200</v>
       </c>
       <c r="E53" t="n">
-        <v>200</v>
+        <v>199.9</v>
       </c>
       <c r="F53" t="n">
-        <v>7199.0072</v>
+        <v>35415.0641</v>
       </c>
       <c r="G53" t="n">
         <v>201.6016666666668</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>200.1</v>
+        <v>200</v>
       </c>
       <c r="C54" t="n">
-        <v>202.2</v>
+        <v>200</v>
       </c>
       <c r="D54" t="n">
-        <v>202.2</v>
+        <v>200</v>
       </c>
       <c r="E54" t="n">
-        <v>200.1</v>
+        <v>200</v>
       </c>
       <c r="F54" t="n">
-        <v>2328.8144</v>
+        <v>7199.0072</v>
       </c>
       <c r="G54" t="n">
-        <v>201.6083333333335</v>
+        <v>201.6016666666668</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>200.4</v>
+        <v>200.1</v>
       </c>
       <c r="C55" t="n">
-        <v>202.3</v>
+        <v>202.2</v>
       </c>
       <c r="D55" t="n">
-        <v>202.3</v>
+        <v>202.2</v>
       </c>
       <c r="E55" t="n">
-        <v>200.4</v>
+        <v>200.1</v>
       </c>
       <c r="F55" t="n">
-        <v>6</v>
+        <v>2328.8144</v>
       </c>
       <c r="G55" t="n">
-        <v>201.6433333333334</v>
+        <v>201.6083333333335</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>200.6</v>
+        <v>200.4</v>
       </c>
       <c r="C56" t="n">
-        <v>200.6</v>
+        <v>202.3</v>
       </c>
       <c r="D56" t="n">
-        <v>200.6</v>
+        <v>202.3</v>
       </c>
       <c r="E56" t="n">
-        <v>200.6</v>
+        <v>200.4</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>201.6500000000001</v>
+        <v>201.6433333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>201.4</v>
+        <v>200.6</v>
       </c>
       <c r="C57" t="n">
-        <v>202.2</v>
+        <v>200.6</v>
       </c>
       <c r="D57" t="n">
-        <v>202.2</v>
+        <v>200.6</v>
       </c>
       <c r="E57" t="n">
-        <v>201.4</v>
+        <v>200.6</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>201.6833333333334</v>
+        <v>201.6500000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>201.5</v>
+        <v>201.4</v>
       </c>
       <c r="C58" t="n">
-        <v>201.6</v>
+        <v>202.2</v>
       </c>
       <c r="D58" t="n">
-        <v>201.6</v>
+        <v>202.2</v>
       </c>
       <c r="E58" t="n">
-        <v>201.5</v>
+        <v>201.4</v>
       </c>
       <c r="F58" t="n">
         <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>201.7066666666668</v>
+        <v>201.6833333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>201.7</v>
+        <v>201.5</v>
       </c>
       <c r="C59" t="n">
-        <v>201.8</v>
+        <v>201.6</v>
       </c>
       <c r="D59" t="n">
-        <v>201.8</v>
+        <v>201.6</v>
       </c>
       <c r="E59" t="n">
-        <v>201.7</v>
+        <v>201.5</v>
       </c>
       <c r="F59" t="n">
         <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>201.7333333333334</v>
+        <v>201.7066666666668</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>201.9</v>
+        <v>201.7</v>
       </c>
       <c r="C60" t="n">
-        <v>201.9</v>
+        <v>201.8</v>
       </c>
       <c r="D60" t="n">
-        <v>201.9</v>
+        <v>201.8</v>
       </c>
       <c r="E60" t="n">
-        <v>201.9</v>
+        <v>201.7</v>
       </c>
       <c r="F60" t="n">
-        <v>1051.6365</v>
+        <v>6</v>
       </c>
       <c r="G60" t="n">
-        <v>201.7616666666667</v>
+        <v>201.7333333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>201.9</v>
       </c>
       <c r="F61" t="n">
-        <v>1624.8546</v>
+        <v>1051.6365</v>
       </c>
       <c r="G61" t="n">
-        <v>201.79</v>
+        <v>201.7616666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>202</v>
+        <v>201.9</v>
       </c>
       <c r="C62" t="n">
-        <v>202</v>
+        <v>201.9</v>
       </c>
       <c r="D62" t="n">
-        <v>202</v>
+        <v>201.9</v>
       </c>
       <c r="E62" t="n">
-        <v>202</v>
+        <v>201.9</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>1624.8546</v>
       </c>
       <c r="G62" t="n">
-        <v>201.7933333333334</v>
+        <v>201.79</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>202.9</v>
+        <v>202</v>
       </c>
       <c r="C63" t="n">
-        <v>202.9</v>
+        <v>202</v>
       </c>
       <c r="D63" t="n">
-        <v>202.9</v>
+        <v>202</v>
       </c>
       <c r="E63" t="n">
-        <v>202.9</v>
+        <v>202</v>
       </c>
       <c r="F63" t="n">
-        <v>831.855</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>201.8116666666667</v>
+        <v>201.7933333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="C64" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="D64" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="E64" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="F64" t="n">
-        <v>3517.3461</v>
+        <v>831.855</v>
       </c>
       <c r="G64" t="n">
-        <v>201.8200000000001</v>
+        <v>201.8116666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>201.9</v>
+        <v>202</v>
       </c>
       <c r="C65" t="n">
-        <v>201.8</v>
+        <v>202</v>
       </c>
       <c r="D65" t="n">
-        <v>201.9</v>
+        <v>202</v>
       </c>
       <c r="E65" t="n">
-        <v>201.8</v>
+        <v>202</v>
       </c>
       <c r="F65" t="n">
-        <v>11916.5727</v>
+        <v>3517.3461</v>
       </c>
       <c r="G65" t="n">
-        <v>201.8216666666667</v>
+        <v>201.8200000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>203.1</v>
+        <v>201.9</v>
       </c>
       <c r="C66" t="n">
-        <v>203.1</v>
+        <v>201.8</v>
       </c>
       <c r="D66" t="n">
-        <v>203.1</v>
+        <v>201.9</v>
       </c>
       <c r="E66" t="n">
-        <v>203.1</v>
+        <v>201.8</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>11916.5727</v>
       </c>
       <c r="G66" t="n">
-        <v>201.845</v>
+        <v>201.8216666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>203.5</v>
+        <v>203.1</v>
       </c>
       <c r="C67" t="n">
-        <v>203.5</v>
+        <v>203.1</v>
       </c>
       <c r="D67" t="n">
-        <v>203.5</v>
+        <v>203.1</v>
       </c>
       <c r="E67" t="n">
-        <v>203.5</v>
+        <v>203.1</v>
       </c>
       <c r="F67" t="n">
-        <v>1286.408</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>201.8783333333334</v>
+        <v>201.845</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>203.1</v>
+        <v>203.5</v>
       </c>
       <c r="C68" t="n">
-        <v>203.1</v>
+        <v>203.5</v>
       </c>
       <c r="D68" t="n">
-        <v>203.1</v>
+        <v>203.5</v>
       </c>
       <c r="E68" t="n">
-        <v>203.1</v>
+        <v>203.5</v>
       </c>
       <c r="F68" t="n">
-        <v>7.99</v>
+        <v>1286.408</v>
       </c>
       <c r="G68" t="n">
-        <v>201.905</v>
+        <v>201.8783333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>203.1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9307</v>
+        <v>7.99</v>
       </c>
       <c r="G69" t="n">
-        <v>201.95</v>
+        <v>201.905</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>202.9</v>
+        <v>203.1</v>
       </c>
       <c r="C70" t="n">
-        <v>202.9</v>
+        <v>203.1</v>
       </c>
       <c r="D70" t="n">
-        <v>202.9</v>
+        <v>203.1</v>
       </c>
       <c r="E70" t="n">
-        <v>202.9</v>
+        <v>203.1</v>
       </c>
       <c r="F70" t="n">
-        <v>8.2121</v>
+        <v>0.9307</v>
       </c>
       <c r="G70" t="n">
-        <v>201.9933333333334</v>
+        <v>201.95</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="C71" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="D71" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="E71" t="n">
-        <v>202</v>
+        <v>202.9</v>
       </c>
       <c r="F71" t="n">
-        <v>2751.4258</v>
+        <v>8.2121</v>
       </c>
       <c r="G71" t="n">
-        <v>202.0016666666667</v>
+        <v>201.9933333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>202</v>
       </c>
       <c r="F72" t="n">
-        <v>3223.0477</v>
+        <v>2751.4258</v>
       </c>
       <c r="G72" t="n">
-        <v>202.0316666666667</v>
+        <v>202.0016666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>202</v>
       </c>
       <c r="F73" t="n">
-        <v>960.288</v>
+        <v>3223.0477</v>
       </c>
       <c r="G73" t="n">
-        <v>202.0416666666667</v>
+        <v>202.0316666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>202</v>
       </c>
       <c r="C74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" t="n">
         <v>202</v>
       </c>
       <c r="F74" t="n">
-        <v>17785.3906</v>
+        <v>960.288</v>
       </c>
       <c r="G74" t="n">
-        <v>202.09</v>
+        <v>202.0416666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>203.2</v>
+        <v>202</v>
       </c>
       <c r="C75" t="n">
-        <v>203.4</v>
+        <v>203</v>
       </c>
       <c r="D75" t="n">
-        <v>203.4</v>
+        <v>203</v>
       </c>
       <c r="E75" t="n">
-        <v>203.2</v>
+        <v>202</v>
       </c>
       <c r="F75" t="n">
-        <v>2900.7024</v>
+        <v>17785.3906</v>
       </c>
       <c r="G75" t="n">
-        <v>202.1233333333334</v>
+        <v>202.09</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>203.5</v>
+        <v>203.2</v>
       </c>
       <c r="C76" t="n">
-        <v>203.5</v>
+        <v>203.4</v>
       </c>
       <c r="D76" t="n">
-        <v>203.5</v>
+        <v>203.4</v>
       </c>
       <c r="E76" t="n">
-        <v>203.5</v>
+        <v>203.2</v>
       </c>
       <c r="F76" t="n">
-        <v>223.8401</v>
+        <v>2900.7024</v>
       </c>
       <c r="G76" t="n">
-        <v>202.1516666666667</v>
+        <v>202.1233333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>203.6</v>
+        <v>203.5</v>
       </c>
       <c r="C77" t="n">
-        <v>203.6</v>
+        <v>203.5</v>
       </c>
       <c r="D77" t="n">
-        <v>203.6</v>
+        <v>203.5</v>
       </c>
       <c r="E77" t="n">
-        <v>203.6</v>
+        <v>203.5</v>
       </c>
       <c r="F77" t="n">
-        <v>103.125</v>
+        <v>223.8401</v>
       </c>
       <c r="G77" t="n">
-        <v>202.2</v>
+        <v>202.1516666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>202.7</v>
+        <v>203.6</v>
       </c>
       <c r="C78" t="n">
-        <v>202.7</v>
+        <v>203.6</v>
       </c>
       <c r="D78" t="n">
-        <v>202.7</v>
+        <v>203.6</v>
       </c>
       <c r="E78" t="n">
-        <v>202.7</v>
+        <v>203.6</v>
       </c>
       <c r="F78" t="n">
-        <v>895.8506</v>
+        <v>103.125</v>
       </c>
       <c r="G78" t="n">
-        <v>202.2033333333334</v>
+        <v>202.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>202.7</v>
       </c>
       <c r="F79" t="n">
-        <v>24.4199</v>
+        <v>895.8506</v>
       </c>
       <c r="G79" t="n">
-        <v>202.2066666666667</v>
+        <v>202.2033333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>202.7</v>
       </c>
       <c r="F80" t="n">
-        <v>2011.8318</v>
+        <v>24.4199</v>
       </c>
       <c r="G80" t="n">
-        <v>202.2050000000001</v>
+        <v>202.2066666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>202.7</v>
       </c>
       <c r="F81" t="n">
-        <v>3376.6946</v>
+        <v>2011.8318</v>
       </c>
       <c r="G81" t="n">
-        <v>202.2000000000001</v>
+        <v>202.2050000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>202.7</v>
       </c>
       <c r="C82" t="n">
-        <v>202.6</v>
+        <v>202.7</v>
       </c>
       <c r="D82" t="n">
         <v>202.7</v>
       </c>
       <c r="E82" t="n">
-        <v>202.6</v>
+        <v>202.7</v>
       </c>
       <c r="F82" t="n">
-        <v>496.2902</v>
+        <v>3376.6946</v>
       </c>
       <c r="G82" t="n">
-        <v>202.2200000000001</v>
+        <v>202.2000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>202.7</v>
       </c>
       <c r="C83" t="n">
-        <v>202.7</v>
+        <v>202.6</v>
       </c>
       <c r="D83" t="n">
         <v>202.7</v>
       </c>
       <c r="E83" t="n">
-        <v>202.7</v>
+        <v>202.6</v>
       </c>
       <c r="F83" t="n">
-        <v>8.014699999999999</v>
+        <v>496.2902</v>
       </c>
       <c r="G83" t="n">
-        <v>202.2433333333335</v>
+        <v>202.2200000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>202.7</v>
       </c>
       <c r="F84" t="n">
-        <v>4226.339</v>
+        <v>8.014699999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>202.2683333333335</v>
+        <v>202.2433333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>203.3</v>
+        <v>202.7</v>
       </c>
       <c r="C85" t="n">
-        <v>203.3</v>
+        <v>202.7</v>
       </c>
       <c r="D85" t="n">
-        <v>203.3</v>
+        <v>202.7</v>
       </c>
       <c r="E85" t="n">
-        <v>203.3</v>
+        <v>202.7</v>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>4226.339</v>
       </c>
       <c r="G85" t="n">
-        <v>202.2783333333334</v>
+        <v>202.2683333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>203.3</v>
       </c>
       <c r="C86" t="n">
-        <v>202.7</v>
+        <v>203.3</v>
       </c>
       <c r="D86" t="n">
         <v>203.3</v>
       </c>
       <c r="E86" t="n">
-        <v>202.7</v>
+        <v>203.3</v>
       </c>
       <c r="F86" t="n">
-        <v>1226.8249</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="n">
-        <v>202.2950000000001</v>
+        <v>202.2783333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>202.8</v>
+        <v>203.3</v>
       </c>
       <c r="C87" t="n">
-        <v>202.8</v>
+        <v>202.7</v>
       </c>
       <c r="D87" t="n">
-        <v>202.8</v>
+        <v>203.3</v>
       </c>
       <c r="E87" t="n">
-        <v>202.8</v>
+        <v>202.7</v>
       </c>
       <c r="F87" t="n">
-        <v>4406.97</v>
+        <v>1226.8249</v>
       </c>
       <c r="G87" t="n">
-        <v>202.3316666666668</v>
+        <v>202.2950000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>203.2</v>
+        <v>202.8</v>
       </c>
       <c r="C88" t="n">
-        <v>203.2</v>
+        <v>202.8</v>
       </c>
       <c r="D88" t="n">
-        <v>203.2</v>
+        <v>202.8</v>
       </c>
       <c r="E88" t="n">
-        <v>203.2</v>
+        <v>202.8</v>
       </c>
       <c r="F88" t="n">
-        <v>1563.8166</v>
+        <v>4406.97</v>
       </c>
       <c r="G88" t="n">
-        <v>202.3383333333335</v>
+        <v>202.3316666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>203.6</v>
+        <v>203.2</v>
       </c>
       <c r="C89" t="n">
-        <v>203.7</v>
+        <v>203.2</v>
       </c>
       <c r="D89" t="n">
-        <v>203.7</v>
+        <v>203.2</v>
       </c>
       <c r="E89" t="n">
-        <v>203.6</v>
+        <v>203.2</v>
       </c>
       <c r="F89" t="n">
-        <v>12098.0184</v>
+        <v>1563.8166</v>
       </c>
       <c r="G89" t="n">
-        <v>202.3900000000001</v>
+        <v>202.3383333333335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>203.6</v>
       </c>
       <c r="F90" t="n">
-        <v>1732.4745</v>
+        <v>12098.0184</v>
       </c>
       <c r="G90" t="n">
-        <v>202.3983333333335</v>
+        <v>202.3900000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>203.6</v>
+      </c>
+      <c r="C91" t="n">
         <v>203.7</v>
       </c>
-      <c r="C91" t="n">
-        <v>203.8</v>
-      </c>
       <c r="D91" t="n">
-        <v>203.8</v>
+        <v>203.7</v>
       </c>
       <c r="E91" t="n">
-        <v>203.7</v>
+        <v>203.6</v>
       </c>
       <c r="F91" t="n">
-        <v>685.3724999999999</v>
+        <v>1732.4745</v>
       </c>
       <c r="G91" t="n">
-        <v>202.3933333333334</v>
+        <v>202.3983333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>203.8</v>
+        <v>203.7</v>
       </c>
       <c r="C92" t="n">
         <v>203.8</v>
@@ -3592,13 +3592,13 @@
         <v>203.8</v>
       </c>
       <c r="E92" t="n">
-        <v>202.8</v>
+        <v>203.7</v>
       </c>
       <c r="F92" t="n">
-        <v>1885.2834</v>
+        <v>685.3724999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>202.4033333333334</v>
+        <v>202.3933333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>203.8</v>
       </c>
       <c r="E93" t="n">
-        <v>203.8</v>
+        <v>202.8</v>
       </c>
       <c r="F93" t="n">
-        <v>1150.4925</v>
+        <v>1885.2834</v>
       </c>
       <c r="G93" t="n">
-        <v>202.4133333333334</v>
+        <v>202.4033333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>203.8</v>
       </c>
       <c r="F94" t="n">
-        <v>4194.9794</v>
+        <v>1150.4925</v>
       </c>
       <c r="G94" t="n">
-        <v>202.4566666666667</v>
+        <v>202.4133333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>203.8</v>
       </c>
       <c r="F95" t="n">
-        <v>2457</v>
+        <v>4194.9794</v>
       </c>
       <c r="G95" t="n">
-        <v>202.4916666666667</v>
+        <v>202.4566666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3729,16 +3729,16 @@
         <v>203.8</v>
       </c>
       <c r="D96" t="n">
-        <v>204</v>
+        <v>203.8</v>
       </c>
       <c r="E96" t="n">
         <v>203.8</v>
       </c>
       <c r="F96" t="n">
-        <v>4454.5103157843</v>
+        <v>2457</v>
       </c>
       <c r="G96" t="n">
-        <v>202.5266666666666</v>
+        <v>202.4916666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3764,16 +3764,16 @@
         <v>203.8</v>
       </c>
       <c r="D97" t="n">
-        <v>203.8</v>
+        <v>204</v>
       </c>
       <c r="E97" t="n">
         <v>203.8</v>
       </c>
       <c r="F97" t="n">
-        <v>1647</v>
+        <v>4454.5103157843</v>
       </c>
       <c r="G97" t="n">
-        <v>202.5316666666666</v>
+        <v>202.5266666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>202.9</v>
+        <v>203.8</v>
       </c>
       <c r="C98" t="n">
-        <v>202.9</v>
+        <v>203.8</v>
       </c>
       <c r="D98" t="n">
-        <v>202.9</v>
+        <v>203.8</v>
       </c>
       <c r="E98" t="n">
-        <v>202.9</v>
+        <v>203.8</v>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>1647</v>
       </c>
       <c r="G98" t="n">
-        <v>202.545</v>
+        <v>202.5316666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>202.9</v>
       </c>
       <c r="F99" t="n">
-        <v>4165.9473</v>
+        <v>2000</v>
       </c>
       <c r="G99" t="n">
-        <v>202.5566666666666</v>
+        <v>202.545</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>202.9</v>
       </c>
       <c r="F100" t="n">
-        <v>70.70650000000001</v>
+        <v>4165.9473</v>
       </c>
       <c r="G100" t="n">
-        <v>202.5583333333333</v>
+        <v>202.5566666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>202.9</v>
       </c>
       <c r="F101" t="n">
-        <v>339.2935</v>
+        <v>70.70650000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>202.5599999999999</v>
+        <v>202.5583333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>204.1</v>
+        <v>202.9</v>
       </c>
       <c r="C102" t="n">
-        <v>204.1</v>
+        <v>202.9</v>
       </c>
       <c r="D102" t="n">
-        <v>204.1</v>
+        <v>202.9</v>
       </c>
       <c r="E102" t="n">
-        <v>204.1</v>
+        <v>202.9</v>
       </c>
       <c r="F102" t="n">
-        <v>2510.4743</v>
+        <v>339.2935</v>
       </c>
       <c r="G102" t="n">
-        <v>202.5833333333333</v>
+        <v>202.5599999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,19 +3968,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>203</v>
+        <v>204.1</v>
       </c>
       <c r="C103" t="n">
-        <v>202.7</v>
+        <v>204.1</v>
       </c>
       <c r="D103" t="n">
-        <v>203</v>
+        <v>204.1</v>
       </c>
       <c r="E103" t="n">
-        <v>202.7</v>
+        <v>204.1</v>
       </c>
       <c r="F103" t="n">
-        <v>13081.2958</v>
+        <v>2510.4743</v>
       </c>
       <c r="G103" t="n">
         <v>202.5833333333333</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>203.1</v>
+        <v>203</v>
       </c>
       <c r="C104" t="n">
-        <v>203.1</v>
+        <v>202.7</v>
       </c>
       <c r="D104" t="n">
-        <v>203.1</v>
+        <v>203</v>
       </c>
       <c r="E104" t="n">
-        <v>203.1</v>
+        <v>202.7</v>
       </c>
       <c r="F104" t="n">
-        <v>1392.0534</v>
+        <v>13081.2958</v>
       </c>
       <c r="G104" t="n">
-        <v>202.5899999999999</v>
+        <v>202.5833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>203.1</v>
       </c>
       <c r="F105" t="n">
-        <v>24.6184145741</v>
+        <v>1392.0534</v>
       </c>
       <c r="G105" t="n">
-        <v>202.6049999999999</v>
+        <v>202.5899999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>203.1</v>
       </c>
       <c r="F106" t="n">
-        <v>19.2148</v>
+        <v>24.6184145741</v>
       </c>
       <c r="G106" t="n">
-        <v>202.6199999999999</v>
+        <v>202.6049999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>203.1</v>
       </c>
       <c r="F107" t="n">
-        <v>1035.8711</v>
+        <v>19.2148</v>
       </c>
       <c r="G107" t="n">
-        <v>202.6383333333333</v>
+        <v>202.6199999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>203.1</v>
       </c>
       <c r="F108" t="n">
-        <v>8.54259e-05</v>
+        <v>1035.8711</v>
       </c>
       <c r="G108" t="n">
-        <v>202.6633333333333</v>
+        <v>202.6383333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>203</v>
+        <v>203.1</v>
       </c>
       <c r="C109" t="n">
-        <v>203</v>
+        <v>203.1</v>
       </c>
       <c r="D109" t="n">
-        <v>203</v>
+        <v>203.1</v>
       </c>
       <c r="E109" t="n">
-        <v>203</v>
+        <v>203.1</v>
       </c>
       <c r="F109" t="n">
-        <v>640.4499</v>
+        <v>8.54259e-05</v>
       </c>
       <c r="G109" t="n">
-        <v>202.6883333333332</v>
+        <v>202.6633333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>203</v>
       </c>
       <c r="F110" t="n">
-        <v>15553.6115</v>
+        <v>640.4499</v>
       </c>
       <c r="G110" t="n">
-        <v>202.7166666666666</v>
+        <v>202.6883333333332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>203.1</v>
+        <v>203</v>
       </c>
       <c r="C111" t="n">
-        <v>203.1</v>
+        <v>203</v>
       </c>
       <c r="D111" t="n">
-        <v>203.1</v>
+        <v>203</v>
       </c>
       <c r="E111" t="n">
-        <v>203.1</v>
+        <v>203</v>
       </c>
       <c r="F111" t="n">
-        <v>519</v>
+        <v>15553.6115</v>
       </c>
       <c r="G111" t="n">
-        <v>202.7683333333333</v>
+        <v>202.7166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,19 +4286,19 @@
         <v>203.1</v>
       </c>
       <c r="C112" t="n">
-        <v>203</v>
+        <v>203.1</v>
       </c>
       <c r="D112" t="n">
         <v>203.1</v>
       </c>
       <c r="E112" t="n">
-        <v>203</v>
+        <v>203.1</v>
       </c>
       <c r="F112" t="n">
-        <v>4684.0669</v>
+        <v>519</v>
       </c>
       <c r="G112" t="n">
-        <v>202.82</v>
+        <v>202.7683333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>203</v>
+        <v>203.1</v>
       </c>
       <c r="C113" t="n">
         <v>203</v>
       </c>
       <c r="D113" t="n">
-        <v>203</v>
+        <v>203.1</v>
       </c>
       <c r="E113" t="n">
         <v>203</v>
       </c>
       <c r="F113" t="n">
-        <v>14811.7025</v>
+        <v>4684.0669</v>
       </c>
       <c r="G113" t="n">
-        <v>202.8699999999999</v>
+        <v>202.82</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>203</v>
       </c>
       <c r="F114" t="n">
-        <v>2842.2528</v>
+        <v>14811.7025</v>
       </c>
       <c r="G114" t="n">
-        <v>202.8833333333333</v>
+        <v>202.8699999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>203</v>
       </c>
       <c r="F115" t="n">
-        <v>10157.2872</v>
+        <v>2842.2528</v>
       </c>
       <c r="G115" t="n">
-        <v>202.895</v>
+        <v>202.8833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>202.9</v>
+        <v>203</v>
       </c>
       <c r="C116" t="n">
-        <v>202.9</v>
+        <v>203</v>
       </c>
       <c r="D116" t="n">
-        <v>202.9</v>
+        <v>203</v>
       </c>
       <c r="E116" t="n">
-        <v>202.9</v>
+        <v>203</v>
       </c>
       <c r="F116" t="n">
-        <v>107.68</v>
+        <v>10157.2872</v>
       </c>
       <c r="G116" t="n">
-        <v>202.9333333333333</v>
+        <v>202.895</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4461,19 @@
         <v>202.9</v>
       </c>
       <c r="C117" t="n">
-        <v>202.6</v>
+        <v>202.9</v>
       </c>
       <c r="D117" t="n">
         <v>202.9</v>
       </c>
       <c r="E117" t="n">
-        <v>202.6</v>
+        <v>202.9</v>
       </c>
       <c r="F117" t="n">
-        <v>28143</v>
+        <v>107.68</v>
       </c>
       <c r="G117" t="n">
-        <v>202.9399999999999</v>
+        <v>202.9333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>202.6</v>
+        <v>202.9</v>
       </c>
       <c r="C118" t="n">
         <v>202.6</v>
       </c>
       <c r="D118" t="n">
-        <v>202.6</v>
+        <v>202.9</v>
       </c>
       <c r="E118" t="n">
         <v>202.6</v>
       </c>
       <c r="F118" t="n">
-        <v>529.5026</v>
+        <v>28143</v>
       </c>
       <c r="G118" t="n">
-        <v>202.9566666666666</v>
+        <v>202.9399999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>202.6</v>
       </c>
       <c r="F119" t="n">
-        <v>1027.1369</v>
+        <v>529.5026</v>
       </c>
       <c r="G119" t="n">
-        <v>202.9699999999999</v>
+        <v>202.9566666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>202.6</v>
       </c>
       <c r="F120" t="n">
-        <v>5000</v>
+        <v>1027.1369</v>
       </c>
       <c r="G120" t="n">
-        <v>202.9816666666666</v>
+        <v>202.9699999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>202.6</v>
       </c>
       <c r="F121" t="n">
-        <v>25.96</v>
+        <v>5000</v>
       </c>
       <c r="G121" t="n">
-        <v>202.9933333333333</v>
+        <v>202.9816666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>202.6</v>
       </c>
       <c r="F122" t="n">
-        <v>14.98</v>
+        <v>25.96</v>
       </c>
       <c r="G122" t="n">
-        <v>203.0033333333333</v>
+        <v>202.9933333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>203</v>
+        <v>202.6</v>
       </c>
       <c r="C123" t="n">
-        <v>203</v>
+        <v>202.6</v>
       </c>
       <c r="D123" t="n">
-        <v>203</v>
+        <v>202.6</v>
       </c>
       <c r="E123" t="n">
-        <v>203</v>
+        <v>202.6</v>
       </c>
       <c r="F123" t="n">
-        <v>2.45</v>
+        <v>14.98</v>
       </c>
       <c r="G123" t="n">
-        <v>203.005</v>
+        <v>203.0033333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>202.6</v>
+        <v>203</v>
       </c>
       <c r="C124" t="n">
-        <v>202.6</v>
+        <v>203</v>
       </c>
       <c r="D124" t="n">
-        <v>202.6</v>
+        <v>203</v>
       </c>
       <c r="E124" t="n">
-        <v>202.6</v>
+        <v>203</v>
       </c>
       <c r="F124" t="n">
-        <v>923.1183</v>
+        <v>2.45</v>
       </c>
       <c r="G124" t="n">
-        <v>203.015</v>
+        <v>203.005</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>202.5</v>
+        <v>202.6</v>
       </c>
       <c r="C125" t="n">
-        <v>202.5</v>
+        <v>202.6</v>
       </c>
       <c r="D125" t="n">
-        <v>202.5</v>
+        <v>202.6</v>
       </c>
       <c r="E125" t="n">
-        <v>202.5</v>
+        <v>202.6</v>
       </c>
       <c r="F125" t="n">
-        <v>1000</v>
+        <v>923.1183</v>
       </c>
       <c r="G125" t="n">
-        <v>203.0266666666667</v>
+        <v>203.015</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>202</v>
+        <v>202.5</v>
       </c>
       <c r="C126" t="n">
-        <v>201.3</v>
+        <v>202.5</v>
       </c>
       <c r="D126" t="n">
-        <v>202</v>
+        <v>202.5</v>
       </c>
       <c r="E126" t="n">
-        <v>201.3</v>
+        <v>202.5</v>
       </c>
       <c r="F126" t="n">
-        <v>8534</v>
+        <v>1000</v>
       </c>
       <c r="G126" t="n">
-        <v>202.9966666666666</v>
+        <v>203.0266666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>201.9</v>
+        <v>202</v>
       </c>
       <c r="C127" t="n">
-        <v>201.9</v>
+        <v>201.3</v>
       </c>
       <c r="D127" t="n">
-        <v>201.9</v>
+        <v>202</v>
       </c>
       <c r="E127" t="n">
-        <v>201.9</v>
+        <v>201.3</v>
       </c>
       <c r="F127" t="n">
-        <v>2626.0202</v>
+        <v>8534</v>
       </c>
       <c r="G127" t="n">
-        <v>202.97</v>
+        <v>202.9966666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>201.9</v>
       </c>
       <c r="F128" t="n">
-        <v>4.911</v>
+        <v>2626.0202</v>
       </c>
       <c r="G128" t="n">
-        <v>202.95</v>
+        <v>202.97</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>201.9</v>
       </c>
       <c r="F129" t="n">
-        <v>979.4626</v>
+        <v>4.911</v>
       </c>
       <c r="G129" t="n">
-        <v>202.9299999999999</v>
+        <v>202.95</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>201.3</v>
+        <v>201.9</v>
       </c>
       <c r="C130" t="n">
-        <v>201.3</v>
+        <v>201.9</v>
       </c>
       <c r="D130" t="n">
-        <v>201.3</v>
+        <v>201.9</v>
       </c>
       <c r="E130" t="n">
-        <v>201.3</v>
+        <v>201.9</v>
       </c>
       <c r="F130" t="n">
-        <v>4511.8785</v>
+        <v>979.4626</v>
       </c>
       <c r="G130" t="n">
-        <v>202.9033333333333</v>
+        <v>202.9299999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>201.3</v>
       </c>
       <c r="F131" t="n">
-        <v>3786.9952</v>
+        <v>4511.8785</v>
       </c>
       <c r="G131" t="n">
-        <v>202.8916666666666</v>
+        <v>202.9033333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>201.9</v>
+        <v>201.3</v>
       </c>
       <c r="C132" t="n">
-        <v>201.9</v>
+        <v>201.3</v>
       </c>
       <c r="D132" t="n">
-        <v>201.9</v>
+        <v>201.3</v>
       </c>
       <c r="E132" t="n">
-        <v>201.9</v>
+        <v>201.3</v>
       </c>
       <c r="F132" t="n">
-        <v>2.5</v>
+        <v>3786.9952</v>
       </c>
       <c r="G132" t="n">
-        <v>202.8899999999999</v>
+        <v>202.8916666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>201.9</v>
       </c>
       <c r="F133" t="n">
-        <v>49.2802</v>
+        <v>2.5</v>
       </c>
       <c r="G133" t="n">
-        <v>202.8883333333333</v>
+        <v>202.8899999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>202.5</v>
+        <v>201.9</v>
       </c>
       <c r="C134" t="n">
-        <v>202.5</v>
+        <v>201.9</v>
       </c>
       <c r="D134" t="n">
-        <v>202.5</v>
+        <v>201.9</v>
       </c>
       <c r="E134" t="n">
-        <v>202.5</v>
+        <v>201.9</v>
       </c>
       <c r="F134" t="n">
-        <v>2.5</v>
+        <v>49.2802</v>
       </c>
       <c r="G134" t="n">
-        <v>202.8799999999999</v>
+        <v>202.8883333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>202.6</v>
+        <v>202.5</v>
       </c>
       <c r="C135" t="n">
-        <v>202.6</v>
+        <v>202.5</v>
       </c>
       <c r="D135" t="n">
-        <v>202.6</v>
+        <v>202.5</v>
       </c>
       <c r="E135" t="n">
-        <v>202.6</v>
+        <v>202.5</v>
       </c>
       <c r="F135" t="n">
-        <v>2000</v>
+        <v>2.5</v>
       </c>
       <c r="G135" t="n">
-        <v>202.8666666666666</v>
+        <v>202.8799999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>202.6</v>
       </c>
       <c r="F136" t="n">
-        <v>407.4811</v>
+        <v>2000</v>
       </c>
       <c r="G136" t="n">
-        <v>202.8516666666666</v>
+        <v>202.8666666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>202.6</v>
       </c>
       <c r="F137" t="n">
-        <v>92.5189</v>
+        <v>407.4811</v>
       </c>
       <c r="G137" t="n">
-        <v>202.835</v>
+        <v>202.8516666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>202</v>
+        <v>202.6</v>
       </c>
       <c r="C138" t="n">
-        <v>202</v>
+        <v>202.6</v>
       </c>
       <c r="D138" t="n">
-        <v>202</v>
+        <v>202.6</v>
       </c>
       <c r="E138" t="n">
-        <v>202</v>
+        <v>202.6</v>
       </c>
       <c r="F138" t="n">
-        <v>848.016</v>
+        <v>92.5189</v>
       </c>
       <c r="G138" t="n">
-        <v>202.8233333333333</v>
+        <v>202.835</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>202.6</v>
+        <v>202</v>
       </c>
       <c r="C139" t="n">
-        <v>202.6</v>
+        <v>202</v>
       </c>
       <c r="D139" t="n">
-        <v>202.6</v>
+        <v>202</v>
       </c>
       <c r="E139" t="n">
-        <v>202.6</v>
+        <v>202</v>
       </c>
       <c r="F139" t="n">
-        <v>3465.5714</v>
+        <v>848.016</v>
       </c>
       <c r="G139" t="n">
-        <v>202.8216666666666</v>
+        <v>202.8233333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>202.6</v>
       </c>
       <c r="F140" t="n">
-        <v>688.6672</v>
+        <v>3465.5714</v>
       </c>
       <c r="G140" t="n">
-        <v>202.8199999999999</v>
+        <v>202.8216666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,19 +5298,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>202.7</v>
+        <v>202.6</v>
       </c>
       <c r="C141" t="n">
-        <v>202.7</v>
+        <v>202.6</v>
       </c>
       <c r="D141" t="n">
-        <v>202.7</v>
+        <v>202.6</v>
       </c>
       <c r="E141" t="n">
-        <v>202.7</v>
+        <v>202.6</v>
       </c>
       <c r="F141" t="n">
-        <v>2.5</v>
+        <v>688.6672</v>
       </c>
       <c r="G141" t="n">
         <v>202.8199999999999</v>
@@ -5345,10 +5345,10 @@
         <v>202.7</v>
       </c>
       <c r="F142" t="n">
-        <v>5693.6602</v>
+        <v>2.5</v>
       </c>
       <c r="G142" t="n">
-        <v>202.8216666666666</v>
+        <v>202.8199999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,19 +5371,19 @@
         <v>202.7</v>
       </c>
       <c r="C143" t="n">
-        <v>202.9</v>
+        <v>202.7</v>
       </c>
       <c r="D143" t="n">
-        <v>202.9</v>
+        <v>202.7</v>
       </c>
       <c r="E143" t="n">
         <v>202.7</v>
       </c>
       <c r="F143" t="n">
-        <v>3383.2315</v>
+        <v>5693.6602</v>
       </c>
       <c r="G143" t="n">
-        <v>202.8249999999999</v>
+        <v>202.8216666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5406,16 +5406,16 @@
         <v>202.7</v>
       </c>
       <c r="C144" t="n">
-        <v>202.7</v>
+        <v>202.9</v>
       </c>
       <c r="D144" t="n">
-        <v>202.7</v>
+        <v>202.9</v>
       </c>
       <c r="E144" t="n">
         <v>202.7</v>
       </c>
       <c r="F144" t="n">
-        <v>623.0830999999999</v>
+        <v>3383.2315</v>
       </c>
       <c r="G144" t="n">
         <v>202.8249999999999</v>
@@ -5450,10 +5450,10 @@
         <v>202.7</v>
       </c>
       <c r="F145" t="n">
-        <v>465.9914</v>
+        <v>623.0830999999999</v>
       </c>
       <c r="G145" t="n">
-        <v>202.8149999999999</v>
+        <v>202.8249999999999</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>202.1</v>
+        <v>202.7</v>
       </c>
       <c r="C146" t="n">
-        <v>201.3</v>
+        <v>202.7</v>
       </c>
       <c r="D146" t="n">
-        <v>202.1</v>
+        <v>202.7</v>
       </c>
       <c r="E146" t="n">
-        <v>201.3</v>
+        <v>202.7</v>
       </c>
       <c r="F146" t="n">
-        <v>31764.3654</v>
+        <v>465.9914</v>
       </c>
       <c r="G146" t="n">
-        <v>202.7916666666666</v>
+        <v>202.8149999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>201.3</v>
+        <v>202.1</v>
       </c>
       <c r="C147" t="n">
         <v>201.3</v>
       </c>
       <c r="D147" t="n">
-        <v>201.3</v>
+        <v>202.1</v>
       </c>
       <c r="E147" t="n">
         <v>201.3</v>
       </c>
       <c r="F147" t="n">
-        <v>3003.8274</v>
+        <v>31764.3654</v>
       </c>
       <c r="G147" t="n">
-        <v>202.7666666666666</v>
+        <v>202.7916666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>202.7</v>
+        <v>201.3</v>
       </c>
       <c r="C148" t="n">
-        <v>202.7</v>
+        <v>201.3</v>
       </c>
       <c r="D148" t="n">
-        <v>202.7</v>
+        <v>201.3</v>
       </c>
       <c r="E148" t="n">
-        <v>202.7</v>
+        <v>201.3</v>
       </c>
       <c r="F148" t="n">
-        <v>2.47</v>
+        <v>3003.8274</v>
       </c>
       <c r="G148" t="n">
-        <v>202.7583333333332</v>
+        <v>202.7666666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>203</v>
+        <v>202.7</v>
       </c>
       <c r="C149" t="n">
-        <v>203</v>
+        <v>202.7</v>
       </c>
       <c r="D149" t="n">
-        <v>203</v>
+        <v>202.7</v>
       </c>
       <c r="E149" t="n">
-        <v>203</v>
+        <v>202.7</v>
       </c>
       <c r="F149" t="n">
-        <v>2795.2433</v>
+        <v>2.47</v>
       </c>
       <c r="G149" t="n">
-        <v>202.7466666666666</v>
+        <v>202.7583333333332</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>201.3</v>
+        <v>203</v>
       </c>
       <c r="C150" t="n">
-        <v>201.2</v>
+        <v>203</v>
       </c>
       <c r="D150" t="n">
-        <v>201.3</v>
+        <v>203</v>
       </c>
       <c r="E150" t="n">
-        <v>201.2</v>
+        <v>203</v>
       </c>
       <c r="F150" t="n">
-        <v>7350.5531</v>
+        <v>2795.2433</v>
       </c>
       <c r="G150" t="n">
-        <v>202.7049999999999</v>
+        <v>202.7466666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>201.1</v>
+        <v>201.3</v>
       </c>
       <c r="C151" t="n">
-        <v>200.6</v>
+        <v>201.2</v>
       </c>
       <c r="D151" t="n">
-        <v>201.1</v>
+        <v>201.3</v>
       </c>
       <c r="E151" t="n">
-        <v>200.6</v>
+        <v>201.2</v>
       </c>
       <c r="F151" t="n">
-        <v>2348</v>
+        <v>7350.5531</v>
       </c>
       <c r="G151" t="n">
-        <v>202.6516666666666</v>
+        <v>202.7049999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>201.1</v>
+      </c>
+      <c r="C152" t="n">
         <v>200.6</v>
       </c>
-      <c r="C152" t="n">
-        <v>200.4</v>
-      </c>
       <c r="D152" t="n">
+        <v>201.1</v>
+      </c>
+      <c r="E152" t="n">
         <v>200.6</v>
       </c>
-      <c r="E152" t="n">
-        <v>200.4</v>
-      </c>
       <c r="F152" t="n">
-        <v>4705</v>
+        <v>2348</v>
       </c>
       <c r="G152" t="n">
-        <v>202.5949999999999</v>
+        <v>202.6516666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="C153" t="n">
         <v>200.4</v>
       </c>
-      <c r="C153" t="n">
-        <v>200.2</v>
-      </c>
       <c r="D153" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="E153" t="n">
         <v>200.4</v>
       </c>
-      <c r="E153" t="n">
-        <v>200.2</v>
-      </c>
       <c r="F153" t="n">
-        <v>6325.627</v>
+        <v>4705</v>
       </c>
       <c r="G153" t="n">
-        <v>202.5349999999999</v>
+        <v>202.5949999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>200.3</v>
+        <v>200.4</v>
       </c>
       <c r="C154" t="n">
-        <v>200</v>
+        <v>200.2</v>
       </c>
       <c r="D154" t="n">
-        <v>200.3</v>
+        <v>200.4</v>
       </c>
       <c r="E154" t="n">
-        <v>200</v>
+        <v>200.2</v>
       </c>
       <c r="F154" t="n">
-        <v>18461.3061</v>
+        <v>6325.627</v>
       </c>
       <c r="G154" t="n">
-        <v>202.4716666666666</v>
+        <v>202.5349999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>200</v>
+        <v>200.3</v>
       </c>
       <c r="C155" t="n">
         <v>200</v>
       </c>
       <c r="D155" t="n">
-        <v>200</v>
+        <v>200.3</v>
       </c>
       <c r="E155" t="n">
         <v>200</v>
       </c>
       <c r="F155" t="n">
-        <v>1898.1287</v>
+        <v>18461.3061</v>
       </c>
       <c r="G155" t="n">
-        <v>202.4083333333333</v>
+        <v>202.4716666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>200</v>
       </c>
       <c r="F156" t="n">
-        <v>4409.1817</v>
+        <v>1898.1287</v>
       </c>
       <c r="G156" t="n">
-        <v>202.345</v>
+        <v>202.4083333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>200</v>
       </c>
       <c r="F157" t="n">
-        <v>16018.0792</v>
+        <v>4409.1817</v>
       </c>
       <c r="G157" t="n">
-        <v>202.2816666666667</v>
+        <v>202.345</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>200</v>
       </c>
       <c r="F158" t="n">
-        <v>299.2489</v>
+        <v>16018.0792</v>
       </c>
       <c r="G158" t="n">
-        <v>202.2333333333333</v>
+        <v>202.2816666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>199.8</v>
+        <v>200</v>
       </c>
       <c r="C159" t="n">
-        <v>199.5</v>
+        <v>200</v>
       </c>
       <c r="D159" t="n">
-        <v>199.8</v>
+        <v>200</v>
       </c>
       <c r="E159" t="n">
-        <v>199.5</v>
+        <v>200</v>
       </c>
       <c r="F159" t="n">
-        <v>1943.6565</v>
+        <v>299.2489</v>
       </c>
       <c r="G159" t="n">
-        <v>202.1766666666667</v>
+        <v>202.2333333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="C160" t="n">
         <v>199.5</v>
       </c>
-      <c r="C160" t="n">
-        <v>199.3</v>
-      </c>
       <c r="D160" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="E160" t="n">
         <v>199.5</v>
       </c>
-      <c r="E160" t="n">
-        <v>199.3</v>
-      </c>
       <c r="F160" t="n">
-        <v>4295.0389</v>
+        <v>1943.6565</v>
       </c>
       <c r="G160" t="n">
-        <v>202.1166666666667</v>
+        <v>202.1766666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>199.2</v>
+        <v>199.5</v>
       </c>
       <c r="C161" t="n">
-        <v>199.1</v>
+        <v>199.3</v>
       </c>
       <c r="D161" t="n">
-        <v>199.2</v>
+        <v>199.5</v>
       </c>
       <c r="E161" t="n">
-        <v>199.1</v>
+        <v>199.3</v>
       </c>
       <c r="F161" t="n">
-        <v>2206.3638</v>
+        <v>4295.0389</v>
       </c>
       <c r="G161" t="n">
-        <v>202.0533333333333</v>
+        <v>202.1166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C162" t="n">
         <v>199.1</v>
       </c>
-      <c r="C162" t="n">
-        <v>198.8</v>
-      </c>
       <c r="D162" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="E162" t="n">
         <v>199.1</v>
       </c>
-      <c r="E162" t="n">
-        <v>198.8</v>
-      </c>
       <c r="F162" t="n">
-        <v>22323.5309</v>
+        <v>2206.3638</v>
       </c>
       <c r="G162" t="n">
-        <v>201.965</v>
+        <v>202.0533333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>198.9</v>
+        <v>199.1</v>
       </c>
       <c r="C163" t="n">
-        <v>198.9</v>
+        <v>198.8</v>
       </c>
       <c r="D163" t="n">
-        <v>198.9</v>
+        <v>199.1</v>
       </c>
       <c r="E163" t="n">
-        <v>198.9</v>
+        <v>198.8</v>
       </c>
       <c r="F163" t="n">
-        <v>3652.7012</v>
+        <v>22323.5309</v>
       </c>
       <c r="G163" t="n">
-        <v>201.9016666666666</v>
+        <v>201.965</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>199.1</v>
+        <v>198.9</v>
       </c>
       <c r="C164" t="n">
-        <v>199</v>
+        <v>198.9</v>
       </c>
       <c r="D164" t="n">
-        <v>199.1</v>
+        <v>198.9</v>
       </c>
       <c r="E164" t="n">
-        <v>199</v>
+        <v>198.9</v>
       </c>
       <c r="F164" t="n">
-        <v>4511.2423</v>
+        <v>3652.7012</v>
       </c>
       <c r="G164" t="n">
-        <v>201.8333333333333</v>
+        <v>201.9016666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>200.6</v>
+        <v>199.1</v>
       </c>
       <c r="C165" t="n">
-        <v>200.6</v>
+        <v>199</v>
       </c>
       <c r="D165" t="n">
-        <v>200.6</v>
+        <v>199.1</v>
       </c>
       <c r="E165" t="n">
-        <v>200.6</v>
+        <v>199</v>
       </c>
       <c r="F165" t="n">
-        <v>4000</v>
+        <v>4511.2423</v>
       </c>
       <c r="G165" t="n">
-        <v>201.7916666666666</v>
+        <v>201.8333333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="C166" t="n">
-        <v>199.3</v>
+        <v>200.6</v>
       </c>
       <c r="D166" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="E166" t="n">
-        <v>199.3</v>
+        <v>200.6</v>
       </c>
       <c r="F166" t="n">
-        <v>1997.0116</v>
+        <v>4000</v>
       </c>
       <c r="G166" t="n">
-        <v>201.7283333333333</v>
+        <v>201.7916666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6211,19 +6211,19 @@
         <v>200.8</v>
       </c>
       <c r="C167" t="n">
-        <v>200.8</v>
+        <v>199.3</v>
       </c>
       <c r="D167" t="n">
         <v>200.8</v>
       </c>
       <c r="E167" t="n">
-        <v>200.8</v>
+        <v>199.3</v>
       </c>
       <c r="F167" t="n">
-        <v>933.5496000000001</v>
+        <v>1997.0116</v>
       </c>
       <c r="G167" t="n">
-        <v>201.6899999999999</v>
+        <v>201.7283333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>199.3</v>
+        <v>200.8</v>
       </c>
       <c r="C168" t="n">
-        <v>199.3</v>
+        <v>200.8</v>
       </c>
       <c r="D168" t="n">
-        <v>199.3</v>
+        <v>200.8</v>
       </c>
       <c r="E168" t="n">
-        <v>199.3</v>
+        <v>200.8</v>
       </c>
       <c r="F168" t="n">
-        <v>917.62</v>
+        <v>933.5496000000001</v>
       </c>
       <c r="G168" t="n">
-        <v>201.6266666666666</v>
+        <v>201.6899999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6281,19 +6281,19 @@
         <v>199.3</v>
       </c>
       <c r="C169" t="n">
-        <v>198.8</v>
+        <v>199.3</v>
       </c>
       <c r="D169" t="n">
         <v>199.3</v>
       </c>
       <c r="E169" t="n">
-        <v>198.8</v>
+        <v>199.3</v>
       </c>
       <c r="F169" t="n">
-        <v>36945.0098</v>
+        <v>917.62</v>
       </c>
       <c r="G169" t="n">
-        <v>201.5566666666666</v>
+        <v>201.6266666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="C170" t="n">
         <v>198.8</v>
       </c>
-      <c r="C170" t="n">
-        <v>198.7</v>
-      </c>
       <c r="D170" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="E170" t="n">
         <v>198.8</v>
       </c>
-      <c r="E170" t="n">
-        <v>198.7</v>
-      </c>
       <c r="F170" t="n">
-        <v>623.0973</v>
+        <v>36945.0098</v>
       </c>
       <c r="G170" t="n">
-        <v>201.4849999999999</v>
+        <v>201.5566666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="C171" t="n">
         <v>198.7</v>
       </c>
-      <c r="C171" t="n">
-        <v>198</v>
-      </c>
       <c r="D171" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="E171" t="n">
         <v>198.7</v>
       </c>
-      <c r="E171" t="n">
-        <v>198</v>
-      </c>
       <c r="F171" t="n">
-        <v>61094.9034</v>
+        <v>623.0973</v>
       </c>
       <c r="G171" t="n">
-        <v>201.3999999999999</v>
+        <v>201.4849999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="C172" t="n">
         <v>198</v>
       </c>
-      <c r="C172" t="n">
-        <v>197.6</v>
-      </c>
       <c r="D172" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="E172" t="n">
         <v>198</v>
       </c>
-      <c r="E172" t="n">
-        <v>197.6</v>
-      </c>
       <c r="F172" t="n">
-        <v>3517.8031</v>
+        <v>61094.9034</v>
       </c>
       <c r="G172" t="n">
-        <v>201.3099999999999</v>
+        <v>201.3999999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>197.7</v>
+        <v>198</v>
       </c>
       <c r="C173" t="n">
-        <v>197.7</v>
+        <v>197.6</v>
       </c>
       <c r="D173" t="n">
-        <v>197.7</v>
+        <v>198</v>
       </c>
       <c r="E173" t="n">
-        <v>197.7</v>
+        <v>197.6</v>
       </c>
       <c r="F173" t="n">
-        <v>3938.9642</v>
+        <v>3517.8031</v>
       </c>
       <c r="G173" t="n">
-        <v>201.2216666666666</v>
+        <v>201.3099999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6456,19 @@
         <v>197.7</v>
       </c>
       <c r="C174" t="n">
-        <v>197.1</v>
+        <v>197.7</v>
       </c>
       <c r="D174" t="n">
         <v>197.7</v>
       </c>
       <c r="E174" t="n">
-        <v>197.1</v>
+        <v>197.7</v>
       </c>
       <c r="F174" t="n">
-        <v>47723.2356</v>
+        <v>3938.9642</v>
       </c>
       <c r="G174" t="n">
-        <v>201.1233333333333</v>
+        <v>201.2216666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>197.1</v>
+        <v>197.7</v>
       </c>
       <c r="C175" t="n">
         <v>197.1</v>
       </c>
       <c r="D175" t="n">
-        <v>197.1</v>
+        <v>197.7</v>
       </c>
       <c r="E175" t="n">
         <v>197.1</v>
       </c>
       <c r="F175" t="n">
-        <v>2593.9896</v>
+        <v>47723.2356</v>
       </c>
       <c r="G175" t="n">
-        <v>201.0249999999999</v>
+        <v>201.1233333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6526,19 +6526,19 @@
         <v>197.1</v>
       </c>
       <c r="C176" t="n">
-        <v>197</v>
+        <v>197.1</v>
       </c>
       <c r="D176" t="n">
         <v>197.1</v>
       </c>
       <c r="E176" t="n">
-        <v>197</v>
+        <v>197.1</v>
       </c>
       <c r="F176" t="n">
-        <v>7430.1499</v>
+        <v>2593.9896</v>
       </c>
       <c r="G176" t="n">
-        <v>200.9266666666666</v>
+        <v>201.0249999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>197</v>
+        <v>197.1</v>
       </c>
       <c r="C177" t="n">
         <v>197</v>
       </c>
       <c r="D177" t="n">
-        <v>197</v>
+        <v>197.1</v>
       </c>
       <c r="E177" t="n">
         <v>197</v>
       </c>
       <c r="F177" t="n">
-        <v>6000</v>
+        <v>7430.1499</v>
       </c>
       <c r="G177" t="n">
-        <v>200.8333333333333</v>
+        <v>200.9266666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +6605,10 @@
         <v>197</v>
       </c>
       <c r="F178" t="n">
-        <v>9869.3835</v>
+        <v>6000</v>
       </c>
       <c r="G178" t="n">
-        <v>200.7399999999999</v>
+        <v>200.8333333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>197.7</v>
+        <v>197</v>
       </c>
       <c r="C179" t="n">
-        <v>197.7</v>
+        <v>197</v>
       </c>
       <c r="D179" t="n">
-        <v>197.7</v>
+        <v>197</v>
       </c>
       <c r="E179" t="n">
-        <v>197.7</v>
+        <v>197</v>
       </c>
       <c r="F179" t="n">
-        <v>1357.9948</v>
+        <v>9869.3835</v>
       </c>
       <c r="G179" t="n">
-        <v>200.6583333333333</v>
+        <v>200.7399999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>197.3</v>
+        <v>197.7</v>
       </c>
       <c r="C180" t="n">
-        <v>197.3</v>
+        <v>197.7</v>
       </c>
       <c r="D180" t="n">
-        <v>197.3</v>
+        <v>197.7</v>
       </c>
       <c r="E180" t="n">
-        <v>197.3</v>
+        <v>197.7</v>
       </c>
       <c r="F180" t="n">
-        <v>1905.3767</v>
+        <v>1357.9948</v>
       </c>
       <c r="G180" t="n">
-        <v>200.5699999999999</v>
+        <v>200.6583333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,35 +6698,31 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>197.5</v>
+        <v>197.3</v>
       </c>
       <c r="C181" t="n">
-        <v>197.5</v>
+        <v>197.3</v>
       </c>
       <c r="D181" t="n">
-        <v>197.5</v>
+        <v>197.3</v>
       </c>
       <c r="E181" t="n">
-        <v>197.5</v>
+        <v>197.3</v>
       </c>
       <c r="F181" t="n">
-        <v>9.9</v>
+        <v>1905.3767</v>
       </c>
       <c r="G181" t="n">
-        <v>200.4849999999999</v>
+        <v>200.5699999999999</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>197.3</v>
-      </c>
-      <c r="K181" t="n">
-        <v>197.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
@@ -6737,40 +6733,32 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>197.9</v>
+        <v>197.5</v>
       </c>
       <c r="C182" t="n">
-        <v>197.9</v>
+        <v>197.5</v>
       </c>
       <c r="D182" t="n">
-        <v>197.9</v>
+        <v>197.5</v>
       </c>
       <c r="E182" t="n">
-        <v>197.9</v>
+        <v>197.5</v>
       </c>
       <c r="F182" t="n">
-        <v>709.4193</v>
+        <v>9.9</v>
       </c>
       <c r="G182" t="n">
-        <v>200.4066666666666</v>
+        <v>200.4849999999999</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="K182" t="n">
-        <v>197.3</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6780,40 +6768,32 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>197.4</v>
+        <v>197.9</v>
       </c>
       <c r="C183" t="n">
-        <v>197.4</v>
+        <v>197.9</v>
       </c>
       <c r="D183" t="n">
-        <v>197.4</v>
+        <v>197.9</v>
       </c>
       <c r="E183" t="n">
-        <v>197.4</v>
+        <v>197.9</v>
       </c>
       <c r="F183" t="n">
-        <v>67.3998</v>
+        <v>709.4193</v>
       </c>
       <c r="G183" t="n">
-        <v>200.3133333333332</v>
+        <v>200.4066666666666</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>197.9</v>
-      </c>
-      <c r="K183" t="n">
-        <v>197.3</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6835,10 +6815,10 @@
         <v>197.4</v>
       </c>
       <c r="F184" t="n">
-        <v>245.3381</v>
+        <v>67.3998</v>
       </c>
       <c r="G184" t="n">
-        <v>200.2266666666665</v>
+        <v>200.3133333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6858,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>197.3</v>
+        <v>197.4</v>
       </c>
       <c r="C185" t="n">
-        <v>197.3</v>
+        <v>197.4</v>
       </c>
       <c r="D185" t="n">
-        <v>197.3</v>
+        <v>197.4</v>
       </c>
       <c r="E185" t="n">
-        <v>197.3</v>
+        <v>197.4</v>
       </c>
       <c r="F185" t="n">
-        <v>4263.2462</v>
+        <v>245.3381</v>
       </c>
       <c r="G185" t="n">
-        <v>200.1399999999999</v>
+        <v>200.2266666666665</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6896,19 +6876,19 @@
         <v>197.3</v>
       </c>
       <c r="C186" t="n">
-        <v>197.5</v>
+        <v>197.3</v>
       </c>
       <c r="D186" t="n">
-        <v>197.5</v>
+        <v>197.3</v>
       </c>
       <c r="E186" t="n">
         <v>197.3</v>
       </c>
       <c r="F186" t="n">
-        <v>6103.1897</v>
+        <v>4263.2462</v>
       </c>
       <c r="G186" t="n">
-        <v>200.0766666666665</v>
+        <v>200.1399999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6928,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>197.6</v>
+        <v>197.3</v>
       </c>
       <c r="C187" t="n">
-        <v>197.4</v>
+        <v>197.5</v>
       </c>
       <c r="D187" t="n">
-        <v>197.6</v>
+        <v>197.5</v>
       </c>
       <c r="E187" t="n">
-        <v>197.4</v>
+        <v>197.3</v>
       </c>
       <c r="F187" t="n">
-        <v>10900</v>
+        <v>6103.1897</v>
       </c>
       <c r="G187" t="n">
-        <v>200.0016666666666</v>
+        <v>200.0766666666665</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6963,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>197.5</v>
+        <v>197.6</v>
       </c>
       <c r="C188" t="n">
         <v>197.4</v>
       </c>
       <c r="D188" t="n">
-        <v>198</v>
+        <v>197.6</v>
       </c>
       <c r="E188" t="n">
         <v>197.4</v>
       </c>
       <c r="F188" t="n">
-        <v>515.36</v>
+        <v>10900</v>
       </c>
       <c r="G188" t="n">
-        <v>199.9266666666666</v>
+        <v>200.0016666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6998,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>198</v>
+        <v>197.5</v>
       </c>
       <c r="C189" t="n">
-        <v>198</v>
+        <v>197.4</v>
       </c>
       <c r="D189" t="n">
         <v>198</v>
       </c>
       <c r="E189" t="n">
-        <v>198</v>
+        <v>197.4</v>
       </c>
       <c r="F189" t="n">
-        <v>2.5402</v>
+        <v>515.36</v>
       </c>
       <c r="G189" t="n">
-        <v>199.8616666666666</v>
+        <v>199.9266666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7033,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>197.7</v>
+        <v>198</v>
       </c>
       <c r="C190" t="n">
-        <v>197.7</v>
+        <v>198</v>
       </c>
       <c r="D190" t="n">
-        <v>197.7</v>
+        <v>198</v>
       </c>
       <c r="E190" t="n">
-        <v>197.7</v>
+        <v>198</v>
       </c>
       <c r="F190" t="n">
-        <v>3358.1466</v>
+        <v>2.5402</v>
       </c>
       <c r="G190" t="n">
-        <v>199.8016666666666</v>
+        <v>199.8616666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7068,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>199</v>
+        <v>197.7</v>
       </c>
       <c r="C191" t="n">
-        <v>198.4</v>
+        <v>197.7</v>
       </c>
       <c r="D191" t="n">
-        <v>200.1</v>
+        <v>197.7</v>
       </c>
       <c r="E191" t="n">
-        <v>198.4</v>
+        <v>197.7</v>
       </c>
       <c r="F191" t="n">
-        <v>10038.8389</v>
+        <v>3358.1466</v>
       </c>
       <c r="G191" t="n">
-        <v>199.7533333333332</v>
+        <v>199.8016666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7103,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>198.3</v>
+        <v>199</v>
       </c>
       <c r="C192" t="n">
-        <v>198.3</v>
+        <v>198.4</v>
       </c>
       <c r="D192" t="n">
-        <v>198.3</v>
+        <v>200.1</v>
       </c>
       <c r="E192" t="n">
-        <v>198.3</v>
+        <v>198.4</v>
       </c>
       <c r="F192" t="n">
-        <v>5037.22</v>
+        <v>10038.8389</v>
       </c>
       <c r="G192" t="n">
-        <v>199.6933333333332</v>
+        <v>199.7533333333332</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7150,10 +7130,10 @@
         <v>198.3</v>
       </c>
       <c r="F193" t="n">
-        <v>2518.61</v>
+        <v>5037.22</v>
       </c>
       <c r="G193" t="n">
-        <v>199.6333333333332</v>
+        <v>199.6933333333332</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7173,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>199.4</v>
+        <v>198.3</v>
       </c>
       <c r="C194" t="n">
-        <v>199.4</v>
+        <v>198.3</v>
       </c>
       <c r="D194" t="n">
-        <v>199.4</v>
+        <v>198.3</v>
       </c>
       <c r="E194" t="n">
-        <v>199.4</v>
+        <v>198.3</v>
       </c>
       <c r="F194" t="n">
-        <v>13.2316</v>
+        <v>2518.61</v>
       </c>
       <c r="G194" t="n">
-        <v>199.5816666666666</v>
+        <v>199.6333333333332</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7208,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>198.9</v>
+        <v>199.4</v>
       </c>
       <c r="C195" t="n">
-        <v>198.9</v>
+        <v>199.4</v>
       </c>
       <c r="D195" t="n">
-        <v>198.9</v>
+        <v>199.4</v>
       </c>
       <c r="E195" t="n">
-        <v>198.9</v>
+        <v>199.4</v>
       </c>
       <c r="F195" t="n">
-        <v>594.4627</v>
+        <v>13.2316</v>
       </c>
       <c r="G195" t="n">
-        <v>199.5199999999999</v>
+        <v>199.5816666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7255,10 +7235,10 @@
         <v>198.9</v>
       </c>
       <c r="F196" t="n">
-        <v>2052.3833</v>
+        <v>594.4627</v>
       </c>
       <c r="G196" t="n">
-        <v>199.4583333333332</v>
+        <v>199.5199999999999</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7290,10 +7270,10 @@
         <v>198.9</v>
       </c>
       <c r="F197" t="n">
-        <v>537.22</v>
+        <v>2052.3833</v>
       </c>
       <c r="G197" t="n">
-        <v>199.3966666666665</v>
+        <v>199.4583333333332</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7313,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>199</v>
+        <v>198.9</v>
       </c>
       <c r="C198" t="n">
-        <v>199</v>
+        <v>198.9</v>
       </c>
       <c r="D198" t="n">
-        <v>199</v>
+        <v>198.9</v>
       </c>
       <c r="E198" t="n">
-        <v>199</v>
+        <v>198.9</v>
       </c>
       <c r="F198" t="n">
-        <v>2518.61</v>
+        <v>537.22</v>
       </c>
       <c r="G198" t="n">
-        <v>199.3466666666665</v>
+        <v>199.3966666666665</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7348,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>199.5</v>
+        <v>199</v>
       </c>
       <c r="C199" t="n">
-        <v>199.5</v>
+        <v>199</v>
       </c>
       <c r="D199" t="n">
-        <v>199.5</v>
+        <v>199</v>
       </c>
       <c r="E199" t="n">
-        <v>199.5</v>
+        <v>199</v>
       </c>
       <c r="F199" t="n">
-        <v>2.6</v>
+        <v>2518.61</v>
       </c>
       <c r="G199" t="n">
-        <v>199.2949999999999</v>
+        <v>199.3466666666665</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7383,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>199</v>
+        <v>199.5</v>
       </c>
       <c r="C200" t="n">
-        <v>198</v>
+        <v>199.5</v>
       </c>
       <c r="D200" t="n">
-        <v>199</v>
+        <v>199.5</v>
       </c>
       <c r="E200" t="n">
-        <v>198</v>
+        <v>199.5</v>
       </c>
       <c r="F200" t="n">
-        <v>10577.543</v>
+        <v>2.6</v>
       </c>
       <c r="G200" t="n">
-        <v>199.2183333333332</v>
+        <v>199.2949999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7418,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>198.1</v>
+        <v>199</v>
       </c>
       <c r="C201" t="n">
-        <v>198.1</v>
+        <v>198</v>
       </c>
       <c r="D201" t="n">
-        <v>198.1</v>
+        <v>199</v>
       </c>
       <c r="E201" t="n">
-        <v>198.1</v>
+        <v>198</v>
       </c>
       <c r="F201" t="n">
-        <v>2841</v>
+        <v>10577.543</v>
       </c>
       <c r="G201" t="n">
-        <v>199.1416666666665</v>
+        <v>199.2183333333332</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7465,10 +7445,10 @@
         <v>198.1</v>
       </c>
       <c r="F202" t="n">
-        <v>554.5017</v>
+        <v>2841</v>
       </c>
       <c r="G202" t="n">
-        <v>199.0649999999999</v>
+        <v>199.1416666666665</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7488,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>199.3</v>
+        <v>198.1</v>
       </c>
       <c r="C203" t="n">
-        <v>199.3</v>
+        <v>198.1</v>
       </c>
       <c r="D203" t="n">
-        <v>199.3</v>
+        <v>198.1</v>
       </c>
       <c r="E203" t="n">
-        <v>199.3</v>
+        <v>198.1</v>
       </c>
       <c r="F203" t="n">
-        <v>57.5749</v>
+        <v>554.5017</v>
       </c>
       <c r="G203" t="n">
-        <v>199.0049999999998</v>
+        <v>199.0649999999999</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7523,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>199.2</v>
+        <v>199.3</v>
       </c>
       <c r="C204" t="n">
-        <v>199.2</v>
+        <v>199.3</v>
       </c>
       <c r="D204" t="n">
-        <v>199.2</v>
+        <v>199.3</v>
       </c>
       <c r="E204" t="n">
-        <v>199.2</v>
+        <v>199.3</v>
       </c>
       <c r="F204" t="n">
-        <v>2000</v>
+        <v>57.5749</v>
       </c>
       <c r="G204" t="n">
-        <v>198.9466666666665</v>
+        <v>199.0049999999998</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7561,19 +7541,19 @@
         <v>199.2</v>
       </c>
       <c r="C205" t="n">
-        <v>199.3</v>
+        <v>199.2</v>
       </c>
       <c r="D205" t="n">
-        <v>200</v>
+        <v>199.2</v>
       </c>
       <c r="E205" t="n">
-        <v>198.1</v>
+        <v>199.2</v>
       </c>
       <c r="F205" t="n">
-        <v>6794.8614</v>
+        <v>2000</v>
       </c>
       <c r="G205" t="n">
-        <v>198.8899999999998</v>
+        <v>198.9466666666665</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7593,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>199.3</v>
+        <v>199.2</v>
       </c>
       <c r="C206" t="n">
         <v>199.3</v>
       </c>
       <c r="D206" t="n">
-        <v>199.3</v>
+        <v>200</v>
       </c>
       <c r="E206" t="n">
-        <v>199.3</v>
+        <v>198.1</v>
       </c>
       <c r="F206" t="n">
-        <v>3270.892</v>
+        <v>6794.8614</v>
       </c>
       <c r="G206" t="n">
-        <v>198.8566666666665</v>
+        <v>198.8899999999998</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7628,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>199.9</v>
+        <v>199.3</v>
       </c>
       <c r="C207" t="n">
-        <v>199.8</v>
+        <v>199.3</v>
       </c>
       <c r="D207" t="n">
-        <v>199.9</v>
+        <v>199.3</v>
       </c>
       <c r="E207" t="n">
-        <v>199.8</v>
+        <v>199.3</v>
       </c>
       <c r="F207" t="n">
-        <v>113.7148</v>
+        <v>3270.892</v>
       </c>
       <c r="G207" t="n">
-        <v>198.8316666666665</v>
+        <v>198.8566666666665</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7663,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>198.3</v>
+        <v>199.9</v>
       </c>
       <c r="C208" t="n">
-        <v>198.1</v>
+        <v>199.8</v>
       </c>
       <c r="D208" t="n">
-        <v>198.3</v>
+        <v>199.9</v>
       </c>
       <c r="E208" t="n">
-        <v>198.1</v>
+        <v>199.8</v>
       </c>
       <c r="F208" t="n">
-        <v>10000</v>
+        <v>113.7148</v>
       </c>
       <c r="G208" t="n">
-        <v>198.7549999999998</v>
+        <v>198.8316666666665</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7698,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>198</v>
+        <v>198.3</v>
       </c>
       <c r="C209" t="n">
-        <v>198</v>
+        <v>198.1</v>
       </c>
       <c r="D209" t="n">
-        <v>198</v>
+        <v>198.3</v>
       </c>
       <c r="E209" t="n">
-        <v>198</v>
+        <v>198.1</v>
       </c>
       <c r="F209" t="n">
-        <v>2952.8031</v>
+        <v>10000</v>
       </c>
       <c r="G209" t="n">
-        <v>198.6716666666665</v>
+        <v>198.7549999999998</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7733,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>198.1</v>
+        <v>198</v>
       </c>
       <c r="C210" t="n">
-        <v>197.7</v>
+        <v>198</v>
       </c>
       <c r="D210" t="n">
-        <v>198.1</v>
+        <v>198</v>
       </c>
       <c r="E210" t="n">
-        <v>197.7</v>
+        <v>198</v>
       </c>
       <c r="F210" t="n">
-        <v>7678.5789</v>
+        <v>2952.8031</v>
       </c>
       <c r="G210" t="n">
-        <v>198.6133333333331</v>
+        <v>198.6716666666665</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7768,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>197.6</v>
+        <v>198.1</v>
       </c>
       <c r="C211" t="n">
-        <v>197.6</v>
+        <v>197.7</v>
       </c>
       <c r="D211" t="n">
-        <v>197.6</v>
+        <v>198.1</v>
       </c>
       <c r="E211" t="n">
-        <v>197.6</v>
+        <v>197.7</v>
       </c>
       <c r="F211" t="n">
-        <v>4375.4529</v>
+        <v>7678.5789</v>
       </c>
       <c r="G211" t="n">
-        <v>198.5633333333331</v>
+        <v>198.6133333333331</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7803,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>199.1</v>
+        <v>197.6</v>
       </c>
       <c r="C212" t="n">
-        <v>199.1</v>
+        <v>197.6</v>
       </c>
       <c r="D212" t="n">
-        <v>199.1</v>
+        <v>197.6</v>
       </c>
       <c r="E212" t="n">
-        <v>199.1</v>
+        <v>197.6</v>
       </c>
       <c r="F212" t="n">
-        <v>2.6</v>
+        <v>4375.4529</v>
       </c>
       <c r="G212" t="n">
-        <v>198.5416666666665</v>
+        <v>198.5633333333331</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7838,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="C213" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="D213" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="E213" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="F213" t="n">
         <v>2.6</v>
       </c>
       <c r="G213" t="n">
-        <v>198.5216666666665</v>
+        <v>198.5416666666665</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7873,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C214" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D214" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E214" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F214" t="n">
-        <v>2020.6186</v>
+        <v>2.6</v>
       </c>
       <c r="G214" t="n">
-        <v>198.4883333333331</v>
+        <v>198.5216666666665</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7920,10 +7900,10 @@
         <v>198</v>
       </c>
       <c r="F215" t="n">
-        <v>3648.9395</v>
+        <v>2020.6186</v>
       </c>
       <c r="G215" t="n">
-        <v>198.4549999999998</v>
+        <v>198.4883333333331</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7943,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>199.2</v>
+        <v>198</v>
       </c>
       <c r="C216" t="n">
-        <v>199.2</v>
+        <v>198</v>
       </c>
       <c r="D216" t="n">
-        <v>199.2</v>
+        <v>198</v>
       </c>
       <c r="E216" t="n">
-        <v>199.2</v>
+        <v>198</v>
       </c>
       <c r="F216" t="n">
-        <v>1001.5060240963</v>
+        <v>3648.9395</v>
       </c>
       <c r="G216" t="n">
-        <v>198.4416666666665</v>
+        <v>198.4549999999998</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7990,10 +7970,10 @@
         <v>199.2</v>
       </c>
       <c r="F217" t="n">
-        <v>3004.5469</v>
+        <v>1001.5060240963</v>
       </c>
       <c r="G217" t="n">
-        <v>198.4283333333332</v>
+        <v>198.4416666666665</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8025,10 +8005,10 @@
         <v>199.2</v>
       </c>
       <c r="F218" t="n">
-        <v>48.4678</v>
+        <v>3004.5469</v>
       </c>
       <c r="G218" t="n">
-        <v>198.4149999999998</v>
+        <v>198.4283333333332</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8048,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>199</v>
+        <v>199.2</v>
       </c>
       <c r="C219" t="n">
-        <v>199</v>
+        <v>199.2</v>
       </c>
       <c r="D219" t="n">
-        <v>199</v>
+        <v>199.2</v>
       </c>
       <c r="E219" t="n">
-        <v>199</v>
+        <v>199.2</v>
       </c>
       <c r="F219" t="n">
-        <v>99.84999999999999</v>
+        <v>48.4678</v>
       </c>
       <c r="G219" t="n">
-        <v>198.4066666666665</v>
+        <v>198.4149999999998</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8083,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>199.1</v>
+        <v>199</v>
       </c>
       <c r="C220" t="n">
-        <v>199.1</v>
+        <v>199</v>
       </c>
       <c r="D220" t="n">
-        <v>199.1</v>
+        <v>199</v>
       </c>
       <c r="E220" t="n">
-        <v>199.1</v>
+        <v>199</v>
       </c>
       <c r="F220" t="n">
-        <v>12.8868</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="G220" t="n">
-        <v>198.4033333333332</v>
+        <v>198.4066666666665</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8118,7 +8098,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="C221" t="n">
         <v>199.1</v>
@@ -8127,10 +8107,10 @@
         <v>199.1</v>
       </c>
       <c r="E221" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="F221" t="n">
-        <v>2018.2085</v>
+        <v>12.8868</v>
       </c>
       <c r="G221" t="n">
         <v>198.4033333333332</v>
@@ -8153,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>199</v>
+      </c>
+      <c r="C222" t="n">
         <v>199.1</v>
       </c>
-      <c r="C222" t="n">
-        <v>199.2</v>
-      </c>
       <c r="D222" t="n">
-        <v>199.2</v>
+        <v>199.1</v>
       </c>
       <c r="E222" t="n">
-        <v>199.1</v>
+        <v>199</v>
       </c>
       <c r="F222" t="n">
-        <v>3077</v>
+        <v>2018.2085</v>
       </c>
       <c r="G222" t="n">
-        <v>198.4099999999999</v>
+        <v>198.4033333333332</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8191,19 +8171,19 @@
         <v>199.1</v>
       </c>
       <c r="C223" t="n">
-        <v>199.1</v>
+        <v>199.2</v>
       </c>
       <c r="D223" t="n">
-        <v>199.1</v>
+        <v>199.2</v>
       </c>
       <c r="E223" t="n">
         <v>199.1</v>
       </c>
       <c r="F223" t="n">
-        <v>2300.1861</v>
+        <v>3077</v>
       </c>
       <c r="G223" t="n">
-        <v>198.4133333333332</v>
+        <v>198.4099999999999</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8235,10 +8215,10 @@
         <v>199.1</v>
       </c>
       <c r="F224" t="n">
-        <v>8.478300000000001</v>
+        <v>2300.1861</v>
       </c>
       <c r="G224" t="n">
-        <v>198.4149999999999</v>
+        <v>198.4133333333332</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8270,10 +8250,10 @@
         <v>199.1</v>
       </c>
       <c r="F225" t="n">
-        <v>4731.9999</v>
+        <v>8.478300000000001</v>
       </c>
       <c r="G225" t="n">
-        <v>198.3899999999999</v>
+        <v>198.4149999999999</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8305,10 +8285,10 @@
         <v>199.1</v>
       </c>
       <c r="F226" t="n">
-        <v>17519.0744</v>
+        <v>4731.9999</v>
       </c>
       <c r="G226" t="n">
-        <v>198.3866666666666</v>
+        <v>198.3899999999999</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8328,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>198.5</v>
+        <v>199.1</v>
       </c>
       <c r="C227" t="n">
-        <v>198.3</v>
+        <v>199.1</v>
       </c>
       <c r="D227" t="n">
-        <v>198.5</v>
+        <v>199.1</v>
       </c>
       <c r="E227" t="n">
-        <v>198.3</v>
+        <v>199.1</v>
       </c>
       <c r="F227" t="n">
-        <v>16479.4902</v>
+        <v>17519.0744</v>
       </c>
       <c r="G227" t="n">
-        <v>198.3449999999999</v>
+        <v>198.3866666666666</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8363,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>199.1</v>
+        <v>198.5</v>
       </c>
       <c r="C228" t="n">
-        <v>199.1</v>
+        <v>198.3</v>
       </c>
       <c r="D228" t="n">
-        <v>199.1</v>
+        <v>198.5</v>
       </c>
       <c r="E228" t="n">
-        <v>199.1</v>
+        <v>198.3</v>
       </c>
       <c r="F228" t="n">
-        <v>15.136</v>
+        <v>16479.4902</v>
       </c>
       <c r="G228" t="n">
-        <v>198.3416666666666</v>
+        <v>198.3449999999999</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8398,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>198.4</v>
+        <v>199.1</v>
       </c>
       <c r="C229" t="n">
-        <v>198.4</v>
+        <v>199.1</v>
       </c>
       <c r="D229" t="n">
-        <v>198.4</v>
+        <v>199.1</v>
       </c>
       <c r="E229" t="n">
-        <v>198.4</v>
+        <v>199.1</v>
       </c>
       <c r="F229" t="n">
-        <v>192.2012</v>
+        <v>15.136</v>
       </c>
       <c r="G229" t="n">
-        <v>198.335</v>
+        <v>198.3416666666666</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8436,19 +8416,19 @@
         <v>198.4</v>
       </c>
       <c r="C230" t="n">
-        <v>198.3</v>
+        <v>198.4</v>
       </c>
       <c r="D230" t="n">
         <v>198.4</v>
       </c>
       <c r="E230" t="n">
-        <v>198.3</v>
+        <v>198.4</v>
       </c>
       <c r="F230" t="n">
-        <v>584.54</v>
+        <v>192.2012</v>
       </c>
       <c r="G230" t="n">
-        <v>198.3283333333333</v>
+        <v>198.335</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8468,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>198.4</v>
+      </c>
+      <c r="C231" t="n">
         <v>198.3</v>
       </c>
-      <c r="C231" t="n">
-        <v>198.2</v>
-      </c>
       <c r="D231" t="n">
+        <v>198.4</v>
+      </c>
+      <c r="E231" t="n">
         <v>198.3</v>
       </c>
-      <c r="E231" t="n">
-        <v>198.2</v>
-      </c>
       <c r="F231" t="n">
-        <v>5000</v>
+        <v>584.54</v>
       </c>
       <c r="G231" t="n">
-        <v>198.3316666666666</v>
+        <v>198.3283333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8506,19 +8486,19 @@
         <v>198.3</v>
       </c>
       <c r="C232" t="n">
-        <v>198.4</v>
+        <v>198.2</v>
       </c>
       <c r="D232" t="n">
-        <v>198.4</v>
+        <v>198.3</v>
       </c>
       <c r="E232" t="n">
-        <v>198.3</v>
+        <v>198.2</v>
       </c>
       <c r="F232" t="n">
-        <v>637.59</v>
+        <v>5000</v>
       </c>
       <c r="G232" t="n">
-        <v>198.3449999999999</v>
+        <v>198.3316666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8538,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>199</v>
+        <v>198.3</v>
       </c>
       <c r="C233" t="n">
-        <v>199.8</v>
+        <v>198.4</v>
       </c>
       <c r="D233" t="n">
-        <v>199.8</v>
+        <v>198.4</v>
       </c>
       <c r="E233" t="n">
-        <v>199</v>
+        <v>198.3</v>
       </c>
       <c r="F233" t="n">
-        <v>17000</v>
+        <v>637.59</v>
       </c>
       <c r="G233" t="n">
-        <v>198.3799999999999</v>
+        <v>198.3449999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8573,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>199.4</v>
+        <v>199</v>
       </c>
       <c r="C234" t="n">
-        <v>199.4</v>
+        <v>199.8</v>
       </c>
       <c r="D234" t="n">
-        <v>199.4</v>
+        <v>199.8</v>
       </c>
       <c r="E234" t="n">
-        <v>199.4</v>
+        <v>199</v>
       </c>
       <c r="F234" t="n">
-        <v>119.3806</v>
+        <v>17000</v>
       </c>
       <c r="G234" t="n">
-        <v>198.4183333333332</v>
+        <v>198.3799999999999</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8608,22 +8588,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>198.5</v>
+        <v>199.4</v>
       </c>
       <c r="C235" t="n">
-        <v>198.5</v>
+        <v>199.4</v>
       </c>
       <c r="D235" t="n">
-        <v>198.5</v>
+        <v>199.4</v>
       </c>
       <c r="E235" t="n">
-        <v>198.5</v>
+        <v>199.4</v>
       </c>
       <c r="F235" t="n">
-        <v>216.6594</v>
+        <v>119.3806</v>
       </c>
       <c r="G235" t="n">
-        <v>198.4416666666665</v>
+        <v>198.4183333333332</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8643,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>199.7</v>
+        <v>198.5</v>
       </c>
       <c r="C236" t="n">
         <v>198.5</v>
       </c>
       <c r="D236" t="n">
-        <v>199.7</v>
+        <v>198.5</v>
       </c>
       <c r="E236" t="n">
         <v>198.5</v>
       </c>
       <c r="F236" t="n">
-        <v>1452.434</v>
+        <v>216.6594</v>
       </c>
       <c r="G236" t="n">
-        <v>198.4666666666666</v>
+        <v>198.4416666666665</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8678,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>199.8</v>
+        <v>199.7</v>
       </c>
       <c r="C237" t="n">
-        <v>199.8</v>
+        <v>198.5</v>
       </c>
       <c r="D237" t="n">
-        <v>199.8</v>
+        <v>199.7</v>
       </c>
       <c r="E237" t="n">
-        <v>199.8</v>
+        <v>198.5</v>
       </c>
       <c r="F237" t="n">
-        <v>4064.771</v>
+        <v>1452.434</v>
       </c>
       <c r="G237" t="n">
-        <v>198.5133333333332</v>
+        <v>198.4666666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8716,19 +8696,19 @@
         <v>199.8</v>
       </c>
       <c r="C238" t="n">
-        <v>199.9</v>
+        <v>199.8</v>
       </c>
       <c r="D238" t="n">
-        <v>199.9</v>
+        <v>199.8</v>
       </c>
       <c r="E238" t="n">
         <v>199.8</v>
       </c>
       <c r="F238" t="n">
-        <v>2181.2565</v>
+        <v>4064.771</v>
       </c>
       <c r="G238" t="n">
-        <v>198.5616666666665</v>
+        <v>198.5133333333332</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8748,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>198.7</v>
+        <v>199.8</v>
       </c>
       <c r="C239" t="n">
-        <v>198.8</v>
+        <v>199.9</v>
       </c>
       <c r="D239" t="n">
-        <v>198.8</v>
+        <v>199.9</v>
       </c>
       <c r="E239" t="n">
-        <v>198.7</v>
+        <v>199.8</v>
       </c>
       <c r="F239" t="n">
-        <v>19.97</v>
+        <v>2181.2565</v>
       </c>
       <c r="G239" t="n">
-        <v>198.5799999999998</v>
+        <v>198.5616666666665</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8783,7 +8763,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>198.8</v>
+        <v>198.7</v>
       </c>
       <c r="C240" t="n">
         <v>198.8</v>
@@ -8792,13 +8772,13 @@
         <v>198.8</v>
       </c>
       <c r="E240" t="n">
-        <v>198.8</v>
+        <v>198.7</v>
       </c>
       <c r="F240" t="n">
-        <v>1373.94</v>
+        <v>19.97</v>
       </c>
       <c r="G240" t="n">
-        <v>198.6049999999998</v>
+        <v>198.5799999999998</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8818,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>199.9</v>
+        <v>198.8</v>
       </c>
       <c r="C241" t="n">
         <v>198.8</v>
       </c>
       <c r="D241" t="n">
-        <v>199.9</v>
+        <v>198.8</v>
       </c>
       <c r="E241" t="n">
         <v>198.8</v>
       </c>
       <c r="F241" t="n">
-        <v>8761.938200000001</v>
+        <v>1373.94</v>
       </c>
       <c r="G241" t="n">
-        <v>198.6266666666665</v>
+        <v>198.6049999999998</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8853,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>201.1</v>
+        <v>199.9</v>
       </c>
       <c r="C242" t="n">
-        <v>201.1</v>
+        <v>198.8</v>
       </c>
       <c r="D242" t="n">
-        <v>201.1</v>
+        <v>199.9</v>
       </c>
       <c r="E242" t="n">
-        <v>201.1</v>
+        <v>198.8</v>
       </c>
       <c r="F242" t="n">
-        <v>3.4266</v>
+        <v>8761.938200000001</v>
       </c>
       <c r="G242" t="n">
-        <v>198.6799999999998</v>
+        <v>198.6266666666665</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8888,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>200</v>
+        <v>201.1</v>
       </c>
       <c r="C243" t="n">
-        <v>198.9</v>
+        <v>201.1</v>
       </c>
       <c r="D243" t="n">
-        <v>200</v>
+        <v>201.1</v>
       </c>
       <c r="E243" t="n">
-        <v>198.9</v>
+        <v>201.1</v>
       </c>
       <c r="F243" t="n">
-        <v>2196.589</v>
+        <v>3.4266</v>
       </c>
       <c r="G243" t="n">
-        <v>198.7049999999998</v>
+        <v>198.6799999999998</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8923,28 +8903,28 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C244" t="n">
-        <v>199</v>
+        <v>198.9</v>
       </c>
       <c r="D244" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E244" t="n">
-        <v>199</v>
+        <v>198.9</v>
       </c>
       <c r="F244" t="n">
-        <v>1969.36</v>
+        <v>2196.589</v>
       </c>
       <c r="G244" t="n">
-        <v>198.7316666666665</v>
+        <v>198.7049999999998</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -8958,22 +8938,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>201.1</v>
+        <v>199</v>
       </c>
       <c r="C245" t="n">
-        <v>201.1</v>
+        <v>199</v>
       </c>
       <c r="D245" t="n">
-        <v>201.1</v>
+        <v>199</v>
       </c>
       <c r="E245" t="n">
-        <v>201.1</v>
+        <v>199</v>
       </c>
       <c r="F245" t="n">
-        <v>68.8235</v>
+        <v>1969.36</v>
       </c>
       <c r="G245" t="n">
-        <v>198.7949999999999</v>
+        <v>198.7316666666665</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8993,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>199.1</v>
+        <v>201.1</v>
       </c>
       <c r="C246" t="n">
-        <v>199.1</v>
+        <v>201.1</v>
       </c>
       <c r="D246" t="n">
-        <v>199.1</v>
+        <v>201.1</v>
       </c>
       <c r="E246" t="n">
-        <v>199.1</v>
+        <v>201.1</v>
       </c>
       <c r="F246" t="n">
-        <v>156.6865</v>
+        <v>68.8235</v>
       </c>
       <c r="G246" t="n">
-        <v>198.8216666666665</v>
+        <v>198.7949999999999</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9040,10 +9020,10 @@
         <v>199.1</v>
       </c>
       <c r="F247" t="n">
-        <v>3261.7185</v>
+        <v>156.6865</v>
       </c>
       <c r="G247" t="n">
-        <v>198.8499999999999</v>
+        <v>198.8216666666665</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9066,25 +9046,25 @@
         <v>199.1</v>
       </c>
       <c r="C248" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="D248" t="n">
         <v>199.1</v>
       </c>
       <c r="E248" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="F248" t="n">
-        <v>3818.5068</v>
+        <v>3261.7185</v>
       </c>
       <c r="G248" t="n">
-        <v>198.8766666666666</v>
+        <v>198.8499999999999</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
@@ -9098,22 +9078,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="C249" t="n">
         <v>199</v>
       </c>
       <c r="D249" t="n">
-        <v>199</v>
+        <v>199.1</v>
       </c>
       <c r="E249" t="n">
         <v>199</v>
       </c>
       <c r="F249" t="n">
-        <v>4.97</v>
+        <v>3818.5068</v>
       </c>
       <c r="G249" t="n">
-        <v>198.8933333333332</v>
+        <v>198.8766666666666</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9145,10 +9125,10 @@
         <v>199</v>
       </c>
       <c r="F250" t="n">
-        <v>1027.5184</v>
+        <v>4.97</v>
       </c>
       <c r="G250" t="n">
-        <v>198.9149999999999</v>
+        <v>198.8933333333332</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9180,10 +9160,10 @@
         <v>199</v>
       </c>
       <c r="F251" t="n">
-        <v>14</v>
+        <v>1027.5184</v>
       </c>
       <c r="G251" t="n">
-        <v>198.9249999999999</v>
+        <v>198.9149999999999</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9215,10 +9195,10 @@
         <v>199</v>
       </c>
       <c r="F252" t="n">
-        <v>244.63</v>
+        <v>14</v>
       </c>
       <c r="G252" t="n">
-        <v>198.9366666666666</v>
+        <v>198.9249999999999</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9238,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>199.2</v>
+        <v>199</v>
       </c>
       <c r="C253" t="n">
-        <v>199.2</v>
+        <v>199</v>
       </c>
       <c r="D253" t="n">
-        <v>199.2</v>
+        <v>199</v>
       </c>
       <c r="E253" t="n">
-        <v>199.2</v>
+        <v>199</v>
       </c>
       <c r="F253" t="n">
-        <v>151.3926</v>
+        <v>244.63</v>
       </c>
       <c r="G253" t="n">
-        <v>198.9516666666666</v>
+        <v>198.9366666666666</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9273,22 +9253,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>199.4</v>
+        <v>199.2</v>
       </c>
       <c r="C254" t="n">
-        <v>199.5</v>
+        <v>199.2</v>
       </c>
       <c r="D254" t="n">
-        <v>199.5</v>
+        <v>199.2</v>
       </c>
       <c r="E254" t="n">
         <v>199.2</v>
       </c>
       <c r="F254" t="n">
-        <v>7158.8863</v>
+        <v>151.3926</v>
       </c>
       <c r="G254" t="n">
-        <v>198.9533333333333</v>
+        <v>198.9516666666666</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9308,10 +9288,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="C255" t="n">
         <v>199.5</v>
-      </c>
-      <c r="C255" t="n">
-        <v>199.2</v>
       </c>
       <c r="D255" t="n">
         <v>199.5</v>
@@ -9320,10 +9300,10 @@
         <v>199.2</v>
       </c>
       <c r="F255" t="n">
-        <v>2279.1522</v>
+        <v>7158.8863</v>
       </c>
       <c r="G255" t="n">
-        <v>198.9583333333333</v>
+        <v>198.9533333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9343,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>200</v>
+        <v>199.5</v>
       </c>
       <c r="C256" t="n">
-        <v>200</v>
+        <v>199.2</v>
       </c>
       <c r="D256" t="n">
-        <v>200</v>
+        <v>199.5</v>
       </c>
       <c r="E256" t="n">
-        <v>200</v>
+        <v>199.2</v>
       </c>
       <c r="F256" t="n">
-        <v>52.66</v>
+        <v>2279.1522</v>
       </c>
       <c r="G256" t="n">
-        <v>198.9766666666666</v>
+        <v>198.9583333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9390,10 +9370,10 @@
         <v>200</v>
       </c>
       <c r="F257" t="n">
-        <v>347.34</v>
+        <v>52.66</v>
       </c>
       <c r="G257" t="n">
-        <v>198.9949999999999</v>
+        <v>198.9766666666666</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9413,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>199.3</v>
+        <v>200</v>
       </c>
       <c r="C258" t="n">
-        <v>199.3</v>
+        <v>200</v>
       </c>
       <c r="D258" t="n">
-        <v>199.3</v>
+        <v>200</v>
       </c>
       <c r="E258" t="n">
-        <v>199.3</v>
+        <v>200</v>
       </c>
       <c r="F258" t="n">
-        <v>426.9999</v>
+        <v>347.34</v>
       </c>
       <c r="G258" t="n">
-        <v>198.9999999999999</v>
+        <v>198.9949999999999</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9460,10 +9440,10 @@
         <v>199.3</v>
       </c>
       <c r="F259" t="n">
-        <v>5587.6718</v>
+        <v>426.9999</v>
       </c>
       <c r="G259" t="n">
-        <v>198.9966666666666</v>
+        <v>198.9999999999999</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9483,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>199.4</v>
+        <v>199.3</v>
       </c>
       <c r="C260" t="n">
-        <v>199</v>
+        <v>199.3</v>
       </c>
       <c r="D260" t="n">
-        <v>199.4</v>
+        <v>199.3</v>
       </c>
       <c r="E260" t="n">
-        <v>199</v>
+        <v>199.3</v>
       </c>
       <c r="F260" t="n">
-        <v>10250</v>
+        <v>5587.6718</v>
       </c>
       <c r="G260" t="n">
-        <v>199.0133333333333</v>
+        <v>198.9966666666666</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9518,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="C261" t="n">
         <v>199</v>
       </c>
-      <c r="C261" t="n">
-        <v>198.9</v>
-      </c>
       <c r="D261" t="n">
-        <v>201.1</v>
+        <v>199.4</v>
       </c>
       <c r="E261" t="n">
-        <v>198.9</v>
+        <v>199</v>
       </c>
       <c r="F261" t="n">
-        <v>3396.4511</v>
+        <v>10250</v>
       </c>
       <c r="G261" t="n">
-        <v>199.0266666666666</v>
+        <v>199.0133333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9553,22 +9533,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>198.9</v>
+        <v>199</v>
       </c>
       <c r="C262" t="n">
         <v>198.9</v>
       </c>
       <c r="D262" t="n">
-        <v>198.9</v>
+        <v>201.1</v>
       </c>
       <c r="E262" t="n">
         <v>198.9</v>
       </c>
       <c r="F262" t="n">
-        <v>3402.03</v>
+        <v>3396.4511</v>
       </c>
       <c r="G262" t="n">
-        <v>199.0399999999999</v>
+        <v>199.0266666666666</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9591,19 +9571,19 @@
         <v>198.9</v>
       </c>
       <c r="C263" t="n">
-        <v>198.3</v>
+        <v>198.9</v>
       </c>
       <c r="D263" t="n">
         <v>198.9</v>
       </c>
       <c r="E263" t="n">
-        <v>198.3</v>
+        <v>198.9</v>
       </c>
       <c r="F263" t="n">
-        <v>10071.89</v>
+        <v>3402.03</v>
       </c>
       <c r="G263" t="n">
-        <v>199.0233333333332</v>
+        <v>199.0399999999999</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9623,22 +9603,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>198.5</v>
+        <v>198.9</v>
       </c>
       <c r="C264" t="n">
-        <v>198.5</v>
+        <v>198.3</v>
       </c>
       <c r="D264" t="n">
-        <v>198.5</v>
+        <v>198.9</v>
       </c>
       <c r="E264" t="n">
-        <v>198.5</v>
+        <v>198.3</v>
       </c>
       <c r="F264" t="n">
-        <v>1027.5185</v>
+        <v>10071.89</v>
       </c>
       <c r="G264" t="n">
-        <v>199.0116666666666</v>
+        <v>199.0233333333332</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9661,19 +9641,19 @@
         <v>198.5</v>
       </c>
       <c r="C265" t="n">
-        <v>201.2</v>
+        <v>198.5</v>
       </c>
       <c r="D265" t="n">
-        <v>201.2</v>
+        <v>198.5</v>
       </c>
       <c r="E265" t="n">
         <v>198.5</v>
       </c>
       <c r="F265" t="n">
-        <v>304.0997</v>
+        <v>1027.5185</v>
       </c>
       <c r="G265" t="n">
-        <v>199.0433333333332</v>
+        <v>199.0116666666666</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9693,7 +9673,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>201.2</v>
+        <v>198.5</v>
       </c>
       <c r="C266" t="n">
         <v>201.2</v>
@@ -9702,13 +9682,13 @@
         <v>201.2</v>
       </c>
       <c r="E266" t="n">
-        <v>201.2</v>
+        <v>198.5</v>
       </c>
       <c r="F266" t="n">
-        <v>64.2689</v>
+        <v>304.0997</v>
       </c>
       <c r="G266" t="n">
-        <v>199.0749999999999</v>
+        <v>199.0433333333332</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9740,10 +9720,10 @@
         <v>201.2</v>
       </c>
       <c r="F267" t="n">
-        <v>43.1152</v>
+        <v>64.2689</v>
       </c>
       <c r="G267" t="n">
-        <v>199.0983333333333</v>
+        <v>199.0749999999999</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9763,22 +9743,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>199</v>
+        <v>201.2</v>
       </c>
       <c r="C268" t="n">
-        <v>199</v>
+        <v>201.2</v>
       </c>
       <c r="D268" t="n">
-        <v>199</v>
+        <v>201.2</v>
       </c>
       <c r="E268" t="n">
-        <v>199</v>
+        <v>201.2</v>
       </c>
       <c r="F268" t="n">
-        <v>7814.9999</v>
+        <v>43.1152</v>
       </c>
       <c r="G268" t="n">
-        <v>199.1133333333333</v>
+        <v>199.0983333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9798,28 +9778,28 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>201.2</v>
+        <v>199</v>
       </c>
       <c r="C269" t="n">
         <v>199</v>
       </c>
       <c r="D269" t="n">
-        <v>201.2</v>
+        <v>199</v>
       </c>
       <c r="E269" t="n">
         <v>199</v>
       </c>
       <c r="F269" t="n">
-        <v>10091.2116</v>
+        <v>7814.9999</v>
       </c>
       <c r="G269" t="n">
-        <v>199.13</v>
+        <v>199.1133333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
@@ -9833,22 +9813,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>201.6</v>
+        <v>201.2</v>
       </c>
       <c r="C270" t="n">
-        <v>201.6</v>
+        <v>199</v>
       </c>
       <c r="D270" t="n">
-        <v>201.6</v>
+        <v>201.2</v>
       </c>
       <c r="E270" t="n">
-        <v>201.6</v>
+        <v>199</v>
       </c>
       <c r="F270" t="n">
-        <v>17.2609</v>
+        <v>10091.2116</v>
       </c>
       <c r="G270" t="n">
-        <v>199.195</v>
+        <v>199.13</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9868,22 +9848,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>200</v>
+        <v>201.6</v>
       </c>
       <c r="C271" t="n">
-        <v>199.2</v>
+        <v>201.6</v>
       </c>
       <c r="D271" t="n">
-        <v>200</v>
+        <v>201.6</v>
       </c>
       <c r="E271" t="n">
-        <v>199.2</v>
+        <v>201.6</v>
       </c>
       <c r="F271" t="n">
-        <v>2107</v>
+        <v>17.2609</v>
       </c>
       <c r="G271" t="n">
-        <v>199.2216666666666</v>
+        <v>199.195</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9903,22 +9883,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>201.6</v>
+        <v>200</v>
       </c>
       <c r="C272" t="n">
-        <v>201.6</v>
+        <v>199.2</v>
       </c>
       <c r="D272" t="n">
-        <v>201.6</v>
+        <v>200</v>
       </c>
       <c r="E272" t="n">
-        <v>201.6</v>
+        <v>199.2</v>
       </c>
       <c r="F272" t="n">
-        <v>15.5391</v>
+        <v>2107</v>
       </c>
       <c r="G272" t="n">
-        <v>199.2633333333333</v>
+        <v>199.2216666666666</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9938,22 +9918,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>201</v>
+        <v>201.6</v>
       </c>
       <c r="C273" t="n">
-        <v>199.2</v>
+        <v>201.6</v>
       </c>
       <c r="D273" t="n">
-        <v>201</v>
+        <v>201.6</v>
       </c>
       <c r="E273" t="n">
-        <v>199.2</v>
+        <v>201.6</v>
       </c>
       <c r="F273" t="n">
-        <v>19305.5024</v>
+        <v>15.5391</v>
       </c>
       <c r="G273" t="n">
-        <v>199.2666666666666</v>
+        <v>199.2633333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9973,22 +9953,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C274" t="n">
-        <v>200</v>
+        <v>199.2</v>
       </c>
       <c r="D274" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E274" t="n">
-        <v>200</v>
+        <v>199.2</v>
       </c>
       <c r="F274" t="n">
-        <v>21.72</v>
+        <v>19305.5024</v>
       </c>
       <c r="G274" t="n">
-        <v>199.3</v>
+        <v>199.2666666666666</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10008,22 +9988,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>199.2</v>
+        <v>200</v>
       </c>
       <c r="C275" t="n">
-        <v>199.2</v>
+        <v>200</v>
       </c>
       <c r="D275" t="n">
-        <v>199.2</v>
+        <v>200</v>
       </c>
       <c r="E275" t="n">
-        <v>199.2</v>
+        <v>200</v>
       </c>
       <c r="F275" t="n">
-        <v>3556.325</v>
+        <v>21.72</v>
       </c>
       <c r="G275" t="n">
-        <v>199.32</v>
+        <v>199.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10046,19 +10026,19 @@
         <v>199.2</v>
       </c>
       <c r="C276" t="n">
-        <v>199</v>
+        <v>199.2</v>
       </c>
       <c r="D276" t="n">
         <v>199.2</v>
       </c>
       <c r="E276" t="n">
-        <v>199</v>
+        <v>199.2</v>
       </c>
       <c r="F276" t="n">
-        <v>325.4185</v>
+        <v>3556.325</v>
       </c>
       <c r="G276" t="n">
-        <v>199.3166666666666</v>
+        <v>199.32</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10078,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C277" t="n">
         <v>199</v>
       </c>
-      <c r="C277" t="n">
-        <v>198.7</v>
-      </c>
       <c r="D277" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="E277" t="n">
         <v>199</v>
       </c>
-      <c r="E277" t="n">
-        <v>198.7</v>
-      </c>
       <c r="F277" t="n">
-        <v>104.56</v>
+        <v>325.4185</v>
       </c>
       <c r="G277" t="n">
-        <v>199.3083333333333</v>
+        <v>199.3166666666666</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10113,22 +10093,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>198.7</v>
+        <v>199</v>
       </c>
       <c r="C278" t="n">
         <v>198.7</v>
       </c>
       <c r="D278" t="n">
-        <v>198.7</v>
+        <v>199</v>
       </c>
       <c r="E278" t="n">
         <v>198.7</v>
       </c>
       <c r="F278" t="n">
-        <v>500</v>
+        <v>104.56</v>
       </c>
       <c r="G278" t="n">
-        <v>199.3</v>
+        <v>199.3083333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10151,19 +10131,19 @@
         <v>198.7</v>
       </c>
       <c r="C279" t="n">
-        <v>198.5</v>
+        <v>198.7</v>
       </c>
       <c r="D279" t="n">
         <v>198.7</v>
       </c>
       <c r="E279" t="n">
-        <v>198.5</v>
+        <v>198.7</v>
       </c>
       <c r="F279" t="n">
-        <v>2657.09</v>
+        <v>500</v>
       </c>
       <c r="G279" t="n">
-        <v>199.2916666666666</v>
+        <v>199.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10183,22 +10163,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>198.5</v>
+        <v>198.7</v>
       </c>
       <c r="C280" t="n">
         <v>198.5</v>
       </c>
       <c r="D280" t="n">
-        <v>198.5</v>
+        <v>198.7</v>
       </c>
       <c r="E280" t="n">
         <v>198.5</v>
       </c>
       <c r="F280" t="n">
-        <v>3976.6154</v>
+        <v>2657.09</v>
       </c>
       <c r="G280" t="n">
-        <v>199.2816666666666</v>
+        <v>199.2916666666666</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10221,19 +10201,19 @@
         <v>198.5</v>
       </c>
       <c r="C281" t="n">
-        <v>198.1</v>
+        <v>198.5</v>
       </c>
       <c r="D281" t="n">
         <v>198.5</v>
       </c>
       <c r="E281" t="n">
-        <v>198.1</v>
+        <v>198.5</v>
       </c>
       <c r="F281" t="n">
-        <v>19627.3513</v>
+        <v>3976.6154</v>
       </c>
       <c r="G281" t="n">
-        <v>199.265</v>
+        <v>199.2816666666666</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10253,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>200.7</v>
+        <v>198.5</v>
       </c>
       <c r="C282" t="n">
-        <v>200.7</v>
+        <v>198.1</v>
       </c>
       <c r="D282" t="n">
-        <v>200.7</v>
+        <v>198.5</v>
       </c>
       <c r="E282" t="n">
-        <v>200.7</v>
+        <v>198.1</v>
       </c>
       <c r="F282" t="n">
-        <v>2.5</v>
+        <v>19627.3513</v>
       </c>
       <c r="G282" t="n">
-        <v>199.29</v>
+        <v>199.265</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10288,22 +10268,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>198.3</v>
+        <v>200.7</v>
       </c>
       <c r="C283" t="n">
-        <v>198.3</v>
+        <v>200.7</v>
       </c>
       <c r="D283" t="n">
-        <v>198.3</v>
+        <v>200.7</v>
       </c>
       <c r="E283" t="n">
-        <v>198.3</v>
+        <v>200.7</v>
       </c>
       <c r="F283" t="n">
-        <v>861.5459</v>
+        <v>2.5</v>
       </c>
       <c r="G283" t="n">
-        <v>199.2766666666666</v>
+        <v>199.29</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10335,10 +10315,10 @@
         <v>198.3</v>
       </c>
       <c r="F284" t="n">
-        <v>6950.9616</v>
+        <v>861.5459</v>
       </c>
       <c r="G284" t="n">
-        <v>199.2633333333333</v>
+        <v>199.2766666666666</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10370,10 +10350,10 @@
         <v>198.3</v>
       </c>
       <c r="F285" t="n">
-        <v>62.91</v>
+        <v>6950.9616</v>
       </c>
       <c r="G285" t="n">
-        <v>199.2499999999999</v>
+        <v>199.2633333333333</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10405,10 +10385,10 @@
         <v>198.3</v>
       </c>
       <c r="F286" t="n">
-        <v>2997.5</v>
+        <v>62.91</v>
       </c>
       <c r="G286" t="n">
-        <v>199.2366666666666</v>
+        <v>199.2499999999999</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10428,22 +10408,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>198.5</v>
+        <v>198.3</v>
       </c>
       <c r="C287" t="n">
-        <v>198.5</v>
+        <v>198.3</v>
       </c>
       <c r="D287" t="n">
-        <v>198.5</v>
+        <v>198.3</v>
       </c>
       <c r="E287" t="n">
-        <v>198.5</v>
+        <v>198.3</v>
       </c>
       <c r="F287" t="n">
-        <v>54.0575</v>
+        <v>2997.5</v>
       </c>
       <c r="G287" t="n">
-        <v>199.2399999999999</v>
+        <v>199.2366666666666</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10463,22 +10443,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>198.6</v>
+        <v>198.5</v>
       </c>
       <c r="C288" t="n">
-        <v>198.6</v>
+        <v>198.5</v>
       </c>
       <c r="D288" t="n">
-        <v>198.6</v>
+        <v>198.5</v>
       </c>
       <c r="E288" t="n">
-        <v>198.6</v>
+        <v>198.5</v>
       </c>
       <c r="F288" t="n">
-        <v>273.59</v>
+        <v>54.0575</v>
       </c>
       <c r="G288" t="n">
-        <v>199.2316666666666</v>
+        <v>199.2399999999999</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10498,31 +10478,35 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>199.9</v>
+        <v>198.6</v>
       </c>
       <c r="C289" t="n">
         <v>198.6</v>
       </c>
       <c r="D289" t="n">
-        <v>199.9</v>
+        <v>198.6</v>
       </c>
       <c r="E289" t="n">
         <v>198.6</v>
       </c>
       <c r="F289" t="n">
-        <v>304.3413</v>
+        <v>273.59</v>
       </c>
       <c r="G289" t="n">
-        <v>199.2349999999999</v>
+        <v>199.2316666666666</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="K289" t="n">
+        <v>198.5</v>
+      </c>
       <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
@@ -10533,22 +10517,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="C290" t="n">
         <v>198.6</v>
       </c>
-      <c r="C290" t="n">
-        <v>198.7</v>
-      </c>
       <c r="D290" t="n">
-        <v>198.7</v>
+        <v>199.9</v>
       </c>
       <c r="E290" t="n">
         <v>198.6</v>
       </c>
       <c r="F290" t="n">
-        <v>2974.36</v>
+        <v>304.3413</v>
       </c>
       <c r="G290" t="n">
-        <v>199.2416666666666</v>
+        <v>199.2349999999999</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10557,8 +10541,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10568,7 +10558,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>198.7</v>
+        <v>198.6</v>
       </c>
       <c r="C291" t="n">
         <v>198.7</v>
@@ -10577,13 +10567,13 @@
         <v>198.7</v>
       </c>
       <c r="E291" t="n">
-        <v>198.7</v>
+        <v>198.6</v>
       </c>
       <c r="F291" t="n">
-        <v>1117.6023</v>
+        <v>2974.36</v>
       </c>
       <c r="G291" t="n">
-        <v>199.2499999999999</v>
+        <v>199.2416666666666</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10592,8 +10582,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10615,10 +10611,10 @@
         <v>198.7</v>
       </c>
       <c r="F292" t="n">
-        <v>918.579</v>
+        <v>1117.6023</v>
       </c>
       <c r="G292" t="n">
-        <v>199.255</v>
+        <v>199.2499999999999</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10650,10 +10646,10 @@
         <v>198.7</v>
       </c>
       <c r="F293" t="n">
-        <v>514.4695</v>
+        <v>918.579</v>
       </c>
       <c r="G293" t="n">
-        <v>199.2366666666667</v>
+        <v>199.255</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10676,19 +10672,19 @@
         <v>198.7</v>
       </c>
       <c r="C294" t="n">
-        <v>199.9</v>
+        <v>198.7</v>
       </c>
       <c r="D294" t="n">
-        <v>199.9</v>
+        <v>198.7</v>
       </c>
       <c r="E294" t="n">
         <v>198.7</v>
       </c>
       <c r="F294" t="n">
-        <v>4901.9999</v>
+        <v>514.4695</v>
       </c>
       <c r="G294" t="n">
-        <v>199.245</v>
+        <v>199.2366666666667</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10708,22 +10704,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="C295" t="n">
         <v>199.9</v>
-      </c>
-      <c r="C295" t="n">
-        <v>199</v>
       </c>
       <c r="D295" t="n">
         <v>199.9</v>
       </c>
       <c r="E295" t="n">
-        <v>199</v>
+        <v>198.7</v>
       </c>
       <c r="F295" t="n">
-        <v>2180.035</v>
+        <v>4901.9999</v>
       </c>
       <c r="G295" t="n">
-        <v>199.2533333333333</v>
+        <v>199.245</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10743,22 +10739,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>199.5</v>
+        <v>199.9</v>
       </c>
       <c r="C296" t="n">
-        <v>199.5</v>
+        <v>199</v>
       </c>
       <c r="D296" t="n">
-        <v>199.5</v>
+        <v>199.9</v>
       </c>
       <c r="E296" t="n">
-        <v>199.5</v>
+        <v>199</v>
       </c>
       <c r="F296" t="n">
-        <v>202.7681</v>
+        <v>2180.035</v>
       </c>
       <c r="G296" t="n">
-        <v>199.27</v>
+        <v>199.2533333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10790,10 +10786,10 @@
         <v>199.5</v>
       </c>
       <c r="F297" t="n">
-        <v>655.1392</v>
+        <v>202.7681</v>
       </c>
       <c r="G297" t="n">
-        <v>199.265</v>
+        <v>199.27</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10813,22 +10809,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>200</v>
+        <v>199.5</v>
       </c>
       <c r="C298" t="n">
-        <v>200</v>
+        <v>199.5</v>
       </c>
       <c r="D298" t="n">
-        <v>200</v>
+        <v>199.5</v>
       </c>
       <c r="E298" t="n">
-        <v>200</v>
+        <v>199.5</v>
       </c>
       <c r="F298" t="n">
-        <v>306.0264</v>
+        <v>655.1392</v>
       </c>
       <c r="G298" t="n">
-        <v>199.2666666666667</v>
+        <v>199.265</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10851,16 +10847,16 @@
         <v>200</v>
       </c>
       <c r="C299" t="n">
-        <v>198.8</v>
+        <v>200</v>
       </c>
       <c r="D299" t="n">
         <v>200</v>
       </c>
       <c r="E299" t="n">
-        <v>198.8</v>
+        <v>200</v>
       </c>
       <c r="F299" t="n">
-        <v>2024.0722</v>
+        <v>306.0264</v>
       </c>
       <c r="G299" t="n">
         <v>199.2666666666667</v>
@@ -10886,19 +10882,19 @@
         <v>200</v>
       </c>
       <c r="C300" t="n">
-        <v>200</v>
+        <v>198.8</v>
       </c>
       <c r="D300" t="n">
         <v>200</v>
       </c>
       <c r="E300" t="n">
-        <v>200</v>
+        <v>198.8</v>
       </c>
       <c r="F300" t="n">
-        <v>98.3398</v>
+        <v>2024.0722</v>
       </c>
       <c r="G300" t="n">
-        <v>199.2866666666667</v>
+        <v>199.2666666666667</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10918,7 +10914,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>199.1</v>
+        <v>200</v>
       </c>
       <c r="C301" t="n">
         <v>200</v>
@@ -10927,13 +10923,13 @@
         <v>200</v>
       </c>
       <c r="E301" t="n">
-        <v>199.1</v>
+        <v>200</v>
       </c>
       <c r="F301" t="n">
-        <v>7749.9682</v>
+        <v>98.3398</v>
       </c>
       <c r="G301" t="n">
-        <v>199.3066666666667</v>
+        <v>199.2866666666667</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10953,22 +10949,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>199.3</v>
+        <v>199.1</v>
       </c>
       <c r="C302" t="n">
-        <v>199.3</v>
+        <v>200</v>
       </c>
       <c r="D302" t="n">
-        <v>199.3</v>
+        <v>200</v>
       </c>
       <c r="E302" t="n">
-        <v>199.3</v>
+        <v>199.1</v>
       </c>
       <c r="F302" t="n">
-        <v>650.5919</v>
+        <v>7749.9682</v>
       </c>
       <c r="G302" t="n">
-        <v>199.2766666666667</v>
+        <v>199.3066666666667</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10994,16 +10990,16 @@
         <v>199.3</v>
       </c>
       <c r="D303" t="n">
-        <v>200.6</v>
+        <v>199.3</v>
       </c>
       <c r="E303" t="n">
         <v>199.3</v>
       </c>
       <c r="F303" t="n">
-        <v>3003</v>
+        <v>650.5919</v>
       </c>
       <c r="G303" t="n">
-        <v>199.2833333333333</v>
+        <v>199.2766666666667</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11023,22 +11019,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>200.6</v>
+        <v>199.3</v>
       </c>
       <c r="C304" t="n">
-        <v>200.6</v>
+        <v>199.3</v>
       </c>
       <c r="D304" t="n">
         <v>200.6</v>
       </c>
       <c r="E304" t="n">
-        <v>200.6</v>
+        <v>199.3</v>
       </c>
       <c r="F304" t="n">
-        <v>3</v>
+        <v>3003</v>
       </c>
       <c r="G304" t="n">
-        <v>199.31</v>
+        <v>199.2833333333333</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11058,22 +11054,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>199.1</v>
+        <v>200.6</v>
       </c>
       <c r="C305" t="n">
-        <v>199.1</v>
+        <v>200.6</v>
       </c>
       <c r="D305" t="n">
-        <v>199.1</v>
+        <v>200.6</v>
       </c>
       <c r="E305" t="n">
-        <v>199.1</v>
+        <v>200.6</v>
       </c>
       <c r="F305" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="G305" t="n">
-        <v>199.2766666666667</v>
+        <v>199.31</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11093,22 +11089,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>200.6</v>
+        <v>199.1</v>
       </c>
       <c r="C306" t="n">
-        <v>200.6</v>
+        <v>199.1</v>
       </c>
       <c r="D306" t="n">
-        <v>200.6</v>
+        <v>199.1</v>
       </c>
       <c r="E306" t="n">
-        <v>200.6</v>
+        <v>199.1</v>
       </c>
       <c r="F306" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G306" t="n">
-        <v>199.3016666666667</v>
+        <v>199.2766666666667</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11128,19 +11124,19 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>199.2</v>
+        <v>200.6</v>
       </c>
       <c r="C307" t="n">
-        <v>199.1</v>
+        <v>200.6</v>
       </c>
       <c r="D307" t="n">
-        <v>199.2</v>
+        <v>200.6</v>
       </c>
       <c r="E307" t="n">
-        <v>199.1</v>
+        <v>200.6</v>
       </c>
       <c r="F307" t="n">
-        <v>5683.0938</v>
+        <v>2.5</v>
       </c>
       <c r="G307" t="n">
         <v>199.3016666666667</v>
@@ -11163,22 +11159,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>200.6</v>
+        <v>199.2</v>
       </c>
       <c r="C308" t="n">
-        <v>200.6</v>
+        <v>199.1</v>
       </c>
       <c r="D308" t="n">
-        <v>200.6</v>
+        <v>199.2</v>
       </c>
       <c r="E308" t="n">
-        <v>200.6</v>
+        <v>199.1</v>
       </c>
       <c r="F308" t="n">
-        <v>2.5</v>
+        <v>5683.0938</v>
       </c>
       <c r="G308" t="n">
-        <v>199.3283333333333</v>
+        <v>199.3016666666667</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11198,22 +11194,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>199.3</v>
+        <v>200.6</v>
       </c>
       <c r="C309" t="n">
-        <v>199.4</v>
+        <v>200.6</v>
       </c>
       <c r="D309" t="n">
-        <v>199.4</v>
+        <v>200.6</v>
       </c>
       <c r="E309" t="n">
-        <v>199.3</v>
+        <v>200.6</v>
       </c>
       <c r="F309" t="n">
-        <v>450.1659</v>
+        <v>2.5</v>
       </c>
       <c r="G309" t="n">
-        <v>199.335</v>
+        <v>199.3283333333333</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11233,7 +11229,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>199.4</v>
+        <v>199.3</v>
       </c>
       <c r="C310" t="n">
         <v>199.4</v>
@@ -11242,13 +11238,13 @@
         <v>199.4</v>
       </c>
       <c r="E310" t="n">
-        <v>199.4</v>
+        <v>199.3</v>
       </c>
       <c r="F310" t="n">
-        <v>453.0022</v>
+        <v>450.1659</v>
       </c>
       <c r="G310" t="n">
-        <v>199.3416666666667</v>
+        <v>199.335</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11268,22 +11264,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>200.6</v>
+        <v>199.4</v>
       </c>
       <c r="C311" t="n">
-        <v>200.6</v>
+        <v>199.4</v>
       </c>
       <c r="D311" t="n">
-        <v>200.6</v>
+        <v>199.4</v>
       </c>
       <c r="E311" t="n">
-        <v>200.6</v>
+        <v>199.4</v>
       </c>
       <c r="F311" t="n">
-        <v>99.98</v>
+        <v>453.0022</v>
       </c>
       <c r="G311" t="n">
-        <v>199.3683333333333</v>
+        <v>199.3416666666667</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11303,22 +11299,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="C312" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="D312" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="E312" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="F312" t="n">
-        <v>50</v>
+        <v>99.98</v>
       </c>
       <c r="G312" t="n">
-        <v>199.3983333333333</v>
+        <v>199.3683333333333</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11338,7 +11334,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>200.6</v>
+        <v>200.8</v>
       </c>
       <c r="C313" t="n">
         <v>200.8</v>
@@ -11347,13 +11343,13 @@
         <v>200.8</v>
       </c>
       <c r="E313" t="n">
-        <v>200.6</v>
+        <v>200.8</v>
       </c>
       <c r="F313" t="n">
-        <v>99.95</v>
+        <v>50</v>
       </c>
       <c r="G313" t="n">
-        <v>199.425</v>
+        <v>199.3983333333333</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11376,19 +11372,19 @@
         <v>200.6</v>
       </c>
       <c r="C314" t="n">
-        <v>200.6</v>
+        <v>200.8</v>
       </c>
       <c r="D314" t="n">
-        <v>200.6</v>
+        <v>200.8</v>
       </c>
       <c r="E314" t="n">
         <v>200.6</v>
       </c>
       <c r="F314" t="n">
-        <v>30.02</v>
+        <v>99.95</v>
       </c>
       <c r="G314" t="n">
-        <v>199.4433333333333</v>
+        <v>199.425</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11408,22 +11404,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="C315" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="D315" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="E315" t="n">
-        <v>200.8</v>
+        <v>200.6</v>
       </c>
       <c r="F315" t="n">
-        <v>10</v>
+        <v>30.02</v>
       </c>
       <c r="G315" t="n">
-        <v>199.4699999999999</v>
+        <v>199.4433333333333</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11443,22 +11439,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>200.6</v>
+        <v>200.8</v>
       </c>
       <c r="C316" t="n">
-        <v>200.5</v>
+        <v>200.8</v>
       </c>
       <c r="D316" t="n">
-        <v>200.6</v>
+        <v>200.8</v>
       </c>
       <c r="E316" t="n">
-        <v>200.5</v>
+        <v>200.8</v>
       </c>
       <c r="F316" t="n">
-        <v>20.05</v>
+        <v>10</v>
       </c>
       <c r="G316" t="n">
-        <v>199.4783333333333</v>
+        <v>199.4699999999999</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11478,22 +11474,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>200.4</v>
+        <v>200.6</v>
       </c>
       <c r="C317" t="n">
-        <v>200.2</v>
+        <v>200.5</v>
       </c>
       <c r="D317" t="n">
-        <v>200.4</v>
+        <v>200.6</v>
       </c>
       <c r="E317" t="n">
-        <v>200.2</v>
+        <v>200.5</v>
       </c>
       <c r="F317" t="n">
-        <v>59.97</v>
+        <v>20.05</v>
       </c>
       <c r="G317" t="n">
-        <v>199.4816666666666</v>
+        <v>199.4783333333333</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11513,22 +11509,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="C318" t="n">
         <v>200.2</v>
       </c>
-      <c r="C318" t="n">
-        <v>200.1</v>
-      </c>
       <c r="D318" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="E318" t="n">
         <v>200.2</v>
       </c>
-      <c r="E318" t="n">
-        <v>200.1</v>
-      </c>
       <c r="F318" t="n">
-        <v>2263.2924</v>
+        <v>59.97</v>
       </c>
       <c r="G318" t="n">
-        <v>199.495</v>
+        <v>199.4816666666666</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11548,22 +11544,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>200</v>
+        <v>200.2</v>
       </c>
       <c r="C319" t="n">
-        <v>200.8</v>
+        <v>200.1</v>
       </c>
       <c r="D319" t="n">
-        <v>200.8</v>
+        <v>200.2</v>
       </c>
       <c r="E319" t="n">
-        <v>200</v>
+        <v>200.1</v>
       </c>
       <c r="F319" t="n">
-        <v>60.7468924302</v>
+        <v>2263.2924</v>
       </c>
       <c r="G319" t="n">
-        <v>199.52</v>
+        <v>199.495</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11586,19 +11582,19 @@
         <v>200</v>
       </c>
       <c r="C320" t="n">
-        <v>200</v>
+        <v>200.8</v>
       </c>
       <c r="D320" t="n">
-        <v>200</v>
+        <v>200.8</v>
       </c>
       <c r="E320" t="n">
         <v>200</v>
       </c>
       <c r="F320" t="n">
-        <v>7480.7557</v>
+        <v>60.7468924302</v>
       </c>
       <c r="G320" t="n">
-        <v>199.5366666666667</v>
+        <v>199.52</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11618,22 +11614,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>200.8</v>
+        <v>200</v>
       </c>
       <c r="C321" t="n">
         <v>200</v>
       </c>
       <c r="D321" t="n">
-        <v>200.8</v>
+        <v>200</v>
       </c>
       <c r="E321" t="n">
         <v>200</v>
       </c>
       <c r="F321" t="n">
-        <v>2168.9999075698</v>
+        <v>7480.7557</v>
       </c>
       <c r="G321" t="n">
-        <v>199.555</v>
+        <v>199.5366666666667</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11653,22 +11649,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>200.2</v>
+        <v>200.8</v>
       </c>
       <c r="C322" t="n">
-        <v>200.2</v>
+        <v>200</v>
       </c>
       <c r="D322" t="n">
-        <v>200.2</v>
+        <v>200.8</v>
       </c>
       <c r="E322" t="n">
-        <v>200.2</v>
+        <v>200</v>
       </c>
       <c r="F322" t="n">
-        <v>3919.1946</v>
+        <v>2168.9999075698</v>
       </c>
       <c r="G322" t="n">
-        <v>199.5766666666667</v>
+        <v>199.555</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11688,22 +11684,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>201</v>
+        <v>200.2</v>
       </c>
       <c r="C323" t="n">
-        <v>201</v>
+        <v>200.2</v>
       </c>
       <c r="D323" t="n">
-        <v>201</v>
+        <v>200.2</v>
       </c>
       <c r="E323" t="n">
-        <v>201</v>
+        <v>200.2</v>
       </c>
       <c r="F323" t="n">
-        <v>67</v>
+        <v>3919.1946</v>
       </c>
       <c r="G323" t="n">
-        <v>199.6216666666667</v>
+        <v>199.5766666666667</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11723,22 +11719,22 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>200.2</v>
+        <v>201</v>
       </c>
       <c r="C324" t="n">
-        <v>200.2</v>
+        <v>201</v>
       </c>
       <c r="D324" t="n">
-        <v>200.2</v>
+        <v>201</v>
       </c>
       <c r="E324" t="n">
-        <v>200.2</v>
+        <v>201</v>
       </c>
       <c r="F324" t="n">
-        <v>3627.9439</v>
+        <v>67</v>
       </c>
       <c r="G324" t="n">
-        <v>199.65</v>
+        <v>199.6216666666667</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11758,22 +11754,22 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>201</v>
+        <v>200.2</v>
       </c>
       <c r="C325" t="n">
-        <v>201.6</v>
+        <v>200.2</v>
       </c>
       <c r="D325" t="n">
-        <v>201.6</v>
+        <v>200.2</v>
       </c>
       <c r="E325" t="n">
-        <v>201</v>
+        <v>200.2</v>
       </c>
       <c r="F325" t="n">
-        <v>954.096</v>
+        <v>3627.9439</v>
       </c>
       <c r="G325" t="n">
-        <v>199.6566666666667</v>
+        <v>199.65</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11793,7 +11789,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>201.6</v>
+        <v>201</v>
       </c>
       <c r="C326" t="n">
         <v>201.6</v>
@@ -11802,13 +11798,13 @@
         <v>201.6</v>
       </c>
       <c r="E326" t="n">
-        <v>201.6</v>
+        <v>201</v>
       </c>
       <c r="F326" t="n">
-        <v>708.6445</v>
+        <v>954.096</v>
       </c>
       <c r="G326" t="n">
-        <v>199.6633333333334</v>
+        <v>199.6566666666667</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11831,19 +11827,19 @@
         <v>201.6</v>
       </c>
       <c r="C327" t="n">
-        <v>201</v>
+        <v>201.6</v>
       </c>
       <c r="D327" t="n">
         <v>201.6</v>
       </c>
       <c r="E327" t="n">
-        <v>201</v>
+        <v>201.6</v>
       </c>
       <c r="F327" t="n">
-        <v>1148.64</v>
+        <v>708.6445</v>
       </c>
       <c r="G327" t="n">
-        <v>199.66</v>
+        <v>199.6633333333334</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -11863,28 +11859,28 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="C328" t="n">
         <v>201</v>
       </c>
-      <c r="C328" t="n">
-        <v>203.3</v>
-      </c>
       <c r="D328" t="n">
-        <v>203.3</v>
+        <v>201.6</v>
       </c>
       <c r="E328" t="n">
-        <v>200.4</v>
+        <v>201</v>
       </c>
       <c r="F328" t="n">
-        <v>1523.5227</v>
+        <v>1148.64</v>
       </c>
       <c r="G328" t="n">
-        <v>199.7316666666667</v>
+        <v>199.66</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
@@ -11898,22 +11894,22 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>200.7</v>
+        <v>201</v>
       </c>
       <c r="C329" t="n">
-        <v>200.6</v>
+        <v>203.3</v>
       </c>
       <c r="D329" t="n">
-        <v>203</v>
+        <v>203.3</v>
       </c>
       <c r="E329" t="n">
-        <v>200.6</v>
+        <v>200.4</v>
       </c>
       <c r="F329" t="n">
-        <v>3193.7613</v>
+        <v>1523.5227</v>
       </c>
       <c r="G329" t="n">
-        <v>199.7583333333333</v>
+        <v>199.7316666666667</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -11933,28 +11929,28 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>200.6</v>
+        <v>200.7</v>
       </c>
       <c r="C330" t="n">
         <v>200.6</v>
       </c>
       <c r="D330" t="n">
-        <v>200.7</v>
+        <v>203</v>
       </c>
       <c r="E330" t="n">
         <v>200.6</v>
       </c>
       <c r="F330" t="n">
-        <v>5725.33</v>
+        <v>3193.7613</v>
       </c>
       <c r="G330" t="n">
-        <v>199.7416666666667</v>
+        <v>199.7583333333333</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
@@ -11968,28 +11964,28 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>203</v>
+        <v>200.6</v>
       </c>
       <c r="C331" t="n">
         <v>200.6</v>
       </c>
       <c r="D331" t="n">
-        <v>203</v>
+        <v>200.7</v>
       </c>
       <c r="E331" t="n">
         <v>200.6</v>
       </c>
       <c r="F331" t="n">
-        <v>895.4975369458</v>
+        <v>5725.33</v>
       </c>
       <c r="G331" t="n">
-        <v>199.765</v>
+        <v>199.7416666666667</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
@@ -12003,22 +11999,22 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>200.6</v>
+        <v>203</v>
       </c>
       <c r="C332" t="n">
         <v>200.6</v>
       </c>
       <c r="D332" t="n">
-        <v>200.6</v>
+        <v>203</v>
       </c>
       <c r="E332" t="n">
         <v>200.6</v>
       </c>
       <c r="F332" t="n">
-        <v>1439.69</v>
+        <v>895.4975369458</v>
       </c>
       <c r="G332" t="n">
-        <v>199.7483333333333</v>
+        <v>199.765</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12044,16 +12040,16 @@
         <v>200.6</v>
       </c>
       <c r="D333" t="n">
-        <v>203.2</v>
+        <v>200.6</v>
       </c>
       <c r="E333" t="n">
         <v>200.6</v>
       </c>
       <c r="F333" t="n">
-        <v>616.8578</v>
+        <v>1439.69</v>
       </c>
       <c r="G333" t="n">
-        <v>199.7716666666666</v>
+        <v>199.7483333333333</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12079,16 +12075,16 @@
         <v>200.6</v>
       </c>
       <c r="D334" t="n">
-        <v>200.6</v>
+        <v>203.2</v>
       </c>
       <c r="E334" t="n">
         <v>200.6</v>
       </c>
       <c r="F334" t="n">
-        <v>9611</v>
+        <v>616.8578</v>
       </c>
       <c r="G334" t="n">
-        <v>199.7816666666667</v>
+        <v>199.7716666666666</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -12108,22 +12104,22 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>201</v>
+        <v>200.6</v>
       </c>
       <c r="C335" t="n">
         <v>200.6</v>
       </c>
       <c r="D335" t="n">
-        <v>201</v>
+        <v>200.6</v>
       </c>
       <c r="E335" t="n">
         <v>200.6</v>
       </c>
       <c r="F335" t="n">
-        <v>180.3627</v>
+        <v>9611</v>
       </c>
       <c r="G335" t="n">
-        <v>199.805</v>
+        <v>199.7816666666667</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12143,22 +12139,22 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
+        <v>201</v>
+      </c>
+      <c r="C336" t="n">
         <v>200.6</v>
       </c>
-      <c r="C336" t="n">
-        <v>200.4</v>
-      </c>
       <c r="D336" t="n">
+        <v>201</v>
+      </c>
+      <c r="E336" t="n">
         <v>200.6</v>
       </c>
-      <c r="E336" t="n">
-        <v>200.4</v>
-      </c>
       <c r="F336" t="n">
-        <v>3902.58</v>
+        <v>180.3627</v>
       </c>
       <c r="G336" t="n">
-        <v>199.8283333333333</v>
+        <v>199.805</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12178,22 +12174,22 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>203</v>
+        <v>200.6</v>
       </c>
       <c r="C337" t="n">
-        <v>203</v>
+        <v>200.4</v>
       </c>
       <c r="D337" t="n">
-        <v>203</v>
+        <v>200.6</v>
       </c>
       <c r="E337" t="n">
-        <v>203</v>
+        <v>200.4</v>
       </c>
       <c r="F337" t="n">
-        <v>3</v>
+        <v>3902.58</v>
       </c>
       <c r="G337" t="n">
-        <v>199.9</v>
+        <v>199.8283333333333</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12213,22 +12209,22 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C338" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D338" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E338" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F338" t="n">
-        <v>708.8894</v>
+        <v>3</v>
       </c>
       <c r="G338" t="n">
-        <v>199.9383333333333</v>
+        <v>199.9</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12248,22 +12244,22 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C339" t="n">
-        <v>199.3</v>
+        <v>201</v>
       </c>
       <c r="D339" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E339" t="n">
-        <v>199.3</v>
+        <v>201</v>
       </c>
       <c r="F339" t="n">
-        <v>6279.3516</v>
+        <v>708.8894</v>
       </c>
       <c r="G339" t="n">
-        <v>199.9516666666666</v>
+        <v>199.9383333333333</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12283,22 +12279,22 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C340" t="n">
-        <v>201</v>
+        <v>199.3</v>
       </c>
       <c r="D340" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E340" t="n">
-        <v>201</v>
+        <v>199.3</v>
       </c>
       <c r="F340" t="n">
-        <v>3</v>
+        <v>6279.3516</v>
       </c>
       <c r="G340" t="n">
-        <v>199.9933333333333</v>
+        <v>199.9516666666666</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12318,22 +12314,22 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>200.7</v>
+        <v>201</v>
       </c>
       <c r="C341" t="n">
-        <v>200.7</v>
+        <v>201</v>
       </c>
       <c r="D341" t="n">
-        <v>200.7</v>
+        <v>201</v>
       </c>
       <c r="E341" t="n">
-        <v>200.7</v>
+        <v>201</v>
       </c>
       <c r="F341" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G341" t="n">
-        <v>200.0366666666666</v>
+        <v>199.9933333333333</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12353,22 +12349,22 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>199.3</v>
+        <v>200.7</v>
       </c>
       <c r="C342" t="n">
-        <v>199.3</v>
+        <v>200.7</v>
       </c>
       <c r="D342" t="n">
-        <v>199.3</v>
+        <v>200.7</v>
       </c>
       <c r="E342" t="n">
-        <v>199.3</v>
+        <v>200.7</v>
       </c>
       <c r="F342" t="n">
-        <v>58.2745</v>
+        <v>10</v>
       </c>
       <c r="G342" t="n">
-        <v>200.0133333333333</v>
+        <v>200.0366666666666</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12388,22 +12384,22 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>200.7</v>
+        <v>199.3</v>
       </c>
       <c r="C343" t="n">
-        <v>200.7</v>
+        <v>199.3</v>
       </c>
       <c r="D343" t="n">
-        <v>200.7</v>
+        <v>199.3</v>
       </c>
       <c r="E343" t="n">
-        <v>200.7</v>
+        <v>199.3</v>
       </c>
       <c r="F343" t="n">
-        <v>3</v>
+        <v>58.2745</v>
       </c>
       <c r="G343" t="n">
-        <v>200.0533333333333</v>
+        <v>200.0133333333333</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12423,22 +12419,22 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>200</v>
+        <v>200.7</v>
       </c>
       <c r="C344" t="n">
-        <v>200</v>
+        <v>200.7</v>
       </c>
       <c r="D344" t="n">
-        <v>200</v>
+        <v>200.7</v>
       </c>
       <c r="E344" t="n">
-        <v>200</v>
+        <v>200.7</v>
       </c>
       <c r="F344" t="n">
-        <v>37.6664</v>
+        <v>3</v>
       </c>
       <c r="G344" t="n">
-        <v>200.0816666666666</v>
+        <v>200.0533333333333</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12470,10 +12466,10 @@
         <v>200</v>
       </c>
       <c r="F345" t="n">
-        <v>894.9631000000001</v>
+        <v>37.6664</v>
       </c>
       <c r="G345" t="n">
-        <v>200.11</v>
+        <v>200.0816666666666</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12493,22 +12489,22 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C346" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D346" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E346" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F346" t="n">
-        <v>3</v>
+        <v>894.9631000000001</v>
       </c>
       <c r="G346" t="n">
-        <v>200.155</v>
+        <v>200.11</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12528,22 +12524,22 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>201.4</v>
+        <v>201</v>
       </c>
       <c r="C347" t="n">
-        <v>201.4</v>
+        <v>201</v>
       </c>
       <c r="D347" t="n">
-        <v>201.4</v>
+        <v>201</v>
       </c>
       <c r="E347" t="n">
-        <v>201.4</v>
+        <v>201</v>
       </c>
       <c r="F347" t="n">
         <v>3</v>
       </c>
       <c r="G347" t="n">
-        <v>200.2033333333333</v>
+        <v>200.155</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12563,22 +12559,22 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>200.8</v>
+        <v>201.4</v>
       </c>
       <c r="C348" t="n">
-        <v>200.8</v>
+        <v>201.4</v>
       </c>
       <c r="D348" t="n">
-        <v>200.8</v>
+        <v>201.4</v>
       </c>
       <c r="E348" t="n">
-        <v>200.8</v>
+        <v>201.4</v>
       </c>
       <c r="F348" t="n">
-        <v>17.97</v>
+        <v>3</v>
       </c>
       <c r="G348" t="n">
-        <v>200.24</v>
+        <v>200.2033333333333</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -12598,22 +12594,22 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="C349" t="n">
         <v>200.8</v>
       </c>
       <c r="D349" t="n">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="E349" t="n">
         <v>200.8</v>
       </c>
       <c r="F349" t="n">
-        <v>3.2118</v>
+        <v>17.97</v>
       </c>
       <c r="G349" t="n">
-        <v>200.2766666666666</v>
+        <v>200.24</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -12636,19 +12632,19 @@
         <v>200.9</v>
       </c>
       <c r="C350" t="n">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="D350" t="n">
         <v>200.9</v>
       </c>
       <c r="E350" t="n">
-        <v>200.9</v>
+        <v>200.8</v>
       </c>
       <c r="F350" t="n">
-        <v>1163.4455</v>
+        <v>3.2118</v>
       </c>
       <c r="G350" t="n">
-        <v>200.3133333333332</v>
+        <v>200.2766666666666</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -12671,19 +12667,19 @@
         <v>200.9</v>
       </c>
       <c r="C351" t="n">
-        <v>201.5</v>
+        <v>200.9</v>
       </c>
       <c r="D351" t="n">
-        <v>201.5</v>
+        <v>200.9</v>
       </c>
       <c r="E351" t="n">
         <v>200.9</v>
       </c>
       <c r="F351" t="n">
-        <v>1364.1785334987</v>
+        <v>1163.4455</v>
       </c>
       <c r="G351" t="n">
-        <v>200.3599999999999</v>
+        <v>200.3133333333332</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -12703,22 +12699,22 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>200.7</v>
+        <v>200.9</v>
       </c>
       <c r="C352" t="n">
-        <v>200.5</v>
+        <v>201.5</v>
       </c>
       <c r="D352" t="n">
-        <v>200.7</v>
+        <v>201.5</v>
       </c>
       <c r="E352" t="n">
-        <v>200.5</v>
+        <v>200.9</v>
       </c>
       <c r="F352" t="n">
-        <v>242</v>
+        <v>1364.1785334987</v>
       </c>
       <c r="G352" t="n">
-        <v>200.3899999999999</v>
+        <v>200.3599999999999</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -12738,22 +12734,22 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
+        <v>200.7</v>
+      </c>
+      <c r="C353" t="n">
         <v>200.5</v>
       </c>
-      <c r="C353" t="n">
-        <v>200.2</v>
-      </c>
       <c r="D353" t="n">
+        <v>200.7</v>
+      </c>
+      <c r="E353" t="n">
         <v>200.5</v>
       </c>
-      <c r="E353" t="n">
-        <v>200.2</v>
-      </c>
       <c r="F353" t="n">
-        <v>2817.97</v>
+        <v>242</v>
       </c>
       <c r="G353" t="n">
-        <v>200.4149999999999</v>
+        <v>200.3899999999999</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -12773,22 +12769,22 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>201</v>
+        <v>200.5</v>
       </c>
       <c r="C354" t="n">
         <v>200.2</v>
       </c>
       <c r="D354" t="n">
-        <v>201</v>
+        <v>200.5</v>
       </c>
       <c r="E354" t="n">
         <v>200.2</v>
       </c>
       <c r="F354" t="n">
-        <v>6250</v>
+        <v>2817.97</v>
       </c>
       <c r="G354" t="n">
-        <v>200.4199999999999</v>
+        <v>200.4149999999999</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -12808,7 +12804,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>200.3</v>
+        <v>201</v>
       </c>
       <c r="C355" t="n">
         <v>200.2</v>
@@ -12820,10 +12816,10 @@
         <v>200.2</v>
       </c>
       <c r="F355" t="n">
-        <v>1922.97</v>
+        <v>6250</v>
       </c>
       <c r="G355" t="n">
-        <v>200.4399999999999</v>
+        <v>200.4199999999999</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -12843,22 +12839,22 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>200.2</v>
+        <v>200.3</v>
       </c>
       <c r="C356" t="n">
         <v>200.2</v>
       </c>
       <c r="D356" t="n">
-        <v>200.2</v>
+        <v>201</v>
       </c>
       <c r="E356" t="n">
         <v>200.2</v>
       </c>
       <c r="F356" t="n">
-        <v>2250</v>
+        <v>1922.97</v>
       </c>
       <c r="G356" t="n">
-        <v>200.4516666666666</v>
+        <v>200.4399999999999</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -12873,6 +12869,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="C357" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="D357" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="E357" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="F357" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G357" t="n">
+        <v>200.4516666666666</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest INS.xlsx
+++ b/BackTest/2020-01-19 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-50702.434827494</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-88398.41472749399</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-96237.57652749399</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-83695.41472749399</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-92873.08772749398</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-65765.68642749399</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-221951.2366047983</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-221951.2366047983</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-237445.9843047983</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-255799.8499056864</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-246702.7118056864</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-248259.7118056864</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-248259.7118056864</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-248861.5118056863</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-244861.5118056863</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-244856.5118056863</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-245027.2301056864</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-244846.2301056864</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-244410.0956056864</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-244410.0956056864</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-246410.0956056864</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-254407.9682056864</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-372441.4315056865</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-372156.5319056865</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-354087.7269056865</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-365221.5724056866</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-364702.5724056866</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-405352.7905056865</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8272,10 +8272,14 @@
         <v>-645278.1258056865</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="J239" t="n">
+        <v>197.7</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
@@ -8305,11 +8309,19 @@
         <v>-645268.2258056864</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>197.3</v>
+      </c>
+      <c r="J240" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8350,19 @@
         <v>-644558.8065056865</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="J241" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,10 +8391,14 @@
         <v>-644626.2063056865</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>197.9</v>
+      </c>
+      <c r="J242" t="n">
+        <v>197.9</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
@@ -8404,11 +8428,19 @@
         <v>-644626.2063056865</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="J243" t="n">
+        <v>197.9</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8469,19 @@
         <v>-648889.4525056866</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="J244" t="n">
+        <v>197.9</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8543,17 @@
         <v>-653686.2628056866</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>197.5</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8582,17 @@
         <v>-653686.2628056866</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>197.4</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,11 +8621,17 @@
         <v>-653683.7226056865</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>197.4</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8660,17 @@
         <v>-657041.8692056865</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>198</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8699,17 @@
         <v>-647003.0303056865</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>197.7</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8742,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8775,17 @@
         <v>-652040.2503056865</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>198.3</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +8818,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8855,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +8892,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +8929,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +8966,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9003,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9036,17 @@
         <v>-660677.8144056865</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>199.5</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9079,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9116,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9149,17 @@
         <v>-657779.2395056864</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>198.1</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9188,17 @@
         <v>-659779.2395056864</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>199.3</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9231,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9264,17 @@
         <v>-652984.3781056864</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>199.3</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9307,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9344,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9381,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9414,17 @@
         <v>-673502.0453056864</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>198</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9453,17 @@
         <v>-677877.4982056865</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>197.7</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,15 +9492,17 @@
         <v>-677874.8982056865</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>197.6</v>
       </c>
-      <c r="J271" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,17 +9531,15 @@
         <v>-677877.4982056865</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>199.1</v>
       </c>
-      <c r="J272" t="n">
-        <v>197.6</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9406,17 +9570,15 @@
         <v>-679898.1168056865</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>199</v>
       </c>
-      <c r="J273" t="n">
-        <v>197.6</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9447,15 +9609,17 @@
         <v>-679898.1168056865</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>198</v>
       </c>
-      <c r="J274" t="n">
-        <v>198</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9484,15 +9648,15 @@
         <v>-678896.6107815902</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
         <v>198</v>
       </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9523,17 +9687,15 @@
         <v>-678896.6107815902</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>199.2</v>
       </c>
-      <c r="J276" t="n">
-        <v>198</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9564,11 +9726,17 @@
         <v>-678896.6107815902</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>199.2</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9601,7 +9769,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9634,7 +9806,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9667,7 +9843,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9700,7 +9880,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +9917,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9766,7 +9954,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9799,7 +9991,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9828,11 +10024,17 @@
         <v>-678206.7600815903</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9861,11 +10063,17 @@
         <v>-694686.2502815903</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +10102,17 @@
         <v>-694671.1142815902</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>198.3</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9927,15 +10141,17 @@
         <v>-694863.3154815902</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>199.1</v>
       </c>
-      <c r="J288" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9964,17 +10180,15 @@
         <v>-695447.8554815903</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>198.4</v>
       </c>
-      <c r="J289" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L289" t="n">
@@ -10005,14 +10219,12 @@
         <v>-700447.8554815903</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>198.3</v>
       </c>
-      <c r="J290" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10046,14 +10258,12 @@
         <v>-699810.2654815903</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>198.2</v>
       </c>
-      <c r="J291" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10087,14 +10297,12 @@
         <v>-682810.2654815903</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>198.4</v>
       </c>
-      <c r="J292" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10128,14 +10336,12 @@
         <v>-682929.6460815903</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>199.8</v>
       </c>
-      <c r="J293" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10169,14 +10375,12 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>199.4</v>
       </c>
-      <c r="J294" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10210,14 +10414,12 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>198.5</v>
       </c>
-      <c r="J295" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10251,14 +10453,12 @@
         <v>-679081.5344815904</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>198.5</v>
       </c>
-      <c r="J296" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10292,12 +10492,12 @@
         <v>-676900.2779815904</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10331,14 +10531,12 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>199.9</v>
       </c>
-      <c r="J298" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10372,14 +10570,12 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>198.8</v>
       </c>
-      <c r="J299" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10413,14 +10609,12 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>198.8</v>
       </c>
-      <c r="J300" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10454,12 +10648,12 @@
         <v>-676916.8213815903</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10496,9 +10690,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10535,9 +10727,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10574,9 +10764,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10613,9 +10801,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10652,9 +10838,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10691,9 +10875,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10727,12 +10909,12 @@
         <v>-681050.4201815902</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>199</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10766,14 +10948,10 @@
         <v>-681050.4201815902</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>199</v>
-      </c>
-      <c r="J309" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10807,12 +10985,12 @@
         <v>-681050.4201815902</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>199</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,14 +11024,12 @@
         <v>-681050.4201815902</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>199</v>
       </c>
-      <c r="J311" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10887,12 +11063,12 @@
         <v>-680899.0275815902</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>199</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10926,14 +11102,12 @@
         <v>-673740.1412815902</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>199.2</v>
       </c>
-      <c r="J313" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10967,12 +11141,12 @@
         <v>-676019.2934815902</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11006,14 +11180,12 @@
         <v>-675966.6334815902</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>199.2</v>
       </c>
-      <c r="J315" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11047,14 +11219,12 @@
         <v>-675966.6334815902</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>200</v>
       </c>
-      <c r="J316" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11091,9 +11261,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11127,14 +11295,10 @@
         <v>-676393.6333815902</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="J318" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11171,9 +11335,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11207,12 +11369,12 @@
         <v>-690040.0844815902</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>199</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11246,14 +11408,12 @@
         <v>-690040.0844815902</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>198.9</v>
       </c>
-      <c r="J321" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11290,9 +11450,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11326,12 +11484,12 @@
         <v>-699084.4559815902</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11365,14 +11523,12 @@
         <v>-698780.3562815902</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>198.5</v>
       </c>
-      <c r="J324" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11409,9 +11565,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11448,9 +11602,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11487,9 +11639,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11526,9 +11676,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11565,9 +11713,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11604,9 +11750,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11643,9 +11787,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11682,9 +11824,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11721,9 +11861,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11760,9 +11898,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11799,9 +11935,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11838,9 +11972,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11874,12 +12006,12 @@
         <v>-731939.6420815903</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11913,14 +12045,12 @@
         <v>-734596.7320815902</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>198.7</v>
       </c>
-      <c r="J338" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11954,14 +12084,12 @@
         <v>-734596.7320815902</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>198.5</v>
       </c>
-      <c r="J339" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11995,14 +12123,12 @@
         <v>-754224.0833815902</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>198.5</v>
       </c>
-      <c r="J340" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12036,12 +12162,12 @@
         <v>-754221.5833815902</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12078,9 +12204,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12117,9 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12156,9 +12278,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12192,12 +12312,12 @@
         <v>-755083.1292815902</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12231,12 +12351,12 @@
         <v>-755029.0717815902</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12270,14 +12390,12 @@
         <v>-754755.4817815903</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>198.5</v>
       </c>
-      <c r="J347" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12311,12 +12429,12 @@
         <v>-754755.4817815903</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>198.6</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12350,12 +12468,12 @@
         <v>-751781.1217815903</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>198.6</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12389,12 +12507,12 @@
         <v>-751781.1217815903</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12428,12 +12546,12 @@
         <v>-751781.1217815903</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12467,12 +12585,12 @@
         <v>-751781.1217815903</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12506,12 +12624,12 @@
         <v>-746879.1218815902</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12548,9 +12666,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12587,9 +12703,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12626,9 +12740,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12665,9 +12777,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12704,9 +12814,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12740,12 +12848,12 @@
         <v>-750476.0947815904</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>198.8</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12782,9 +12890,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12818,12 +12924,12 @@
         <v>-751126.6866815904</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>200</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12857,12 +12963,12 @@
         <v>-751126.6866815904</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12896,12 +13002,12 @@
         <v>-751123.6866815904</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12938,9 +13044,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,9 +13081,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13016,9 +13118,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13055,9 +13155,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13094,9 +13192,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13133,9 +13229,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13169,12 +13263,12 @@
         <v>-757154.4863815905</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13211,9 +13305,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13250,9 +13342,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13289,9 +13379,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13328,9 +13416,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13367,9 +13453,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13406,9 +13490,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13445,9 +13527,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13484,9 +13564,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13523,9 +13601,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13562,9 +13638,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13601,9 +13675,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13640,9 +13712,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13679,9 +13749,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13718,9 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13754,14 +13820,10 @@
         <v>-765575.4808891602</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>201.6</v>
-      </c>
-      <c r="J385" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13798,9 +13860,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13834,14 +13894,10 @@
         <v>-765200.5981891602</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>201</v>
-      </c>
-      <c r="J387" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13878,9 +13934,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13914,14 +13968,10 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>200.6</v>
-      </c>
-      <c r="J389" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13955,14 +14005,10 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>200.6</v>
-      </c>
-      <c r="J390" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13996,14 +14042,10 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>200.6</v>
-      </c>
-      <c r="J391" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14037,14 +14079,10 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>200.6</v>
-      </c>
-      <c r="J392" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14078,14 +14116,10 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>200.6</v>
-      </c>
-      <c r="J393" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14122,9 +14156,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14158,14 +14190,10 @@
         <v>-772296.9394891602</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>200.6</v>
-      </c>
-      <c r="J395" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14199,14 +14227,12 @@
         <v>-772293.9394891602</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>200.4</v>
       </c>
-      <c r="J396" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14240,14 +14266,10 @@
         <v>-773002.8288891602</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>203</v>
-      </c>
-      <c r="J397" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14284,9 +14306,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14320,14 +14340,10 @@
         <v>-779279.1804891602</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="J399" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14364,9 +14380,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14400,14 +14414,10 @@
         <v>-779347.4549891603</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>200.7</v>
-      </c>
-      <c r="J401" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14441,14 +14451,12 @@
         <v>-779344.4549891603</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>199.3</v>
       </c>
-      <c r="J402" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14482,14 +14490,12 @@
         <v>-779382.1213891603</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>200.7</v>
       </c>
-      <c r="J403" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14523,12 +14529,12 @@
         <v>-779382.1213891603</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>200</v>
+      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14562,14 +14568,12 @@
         <v>-779379.1213891603</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>200</v>
       </c>
-      <c r="J405" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14603,14 +14607,12 @@
         <v>-779376.1213891603</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>201</v>
       </c>
-      <c r="J406" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14647,9 +14649,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14686,9 +14686,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14725,9 +14723,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14764,9 +14760,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14803,9 +14797,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14842,9 +14834,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14878,12 +14868,12 @@
         <v>-779926.4373556615</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>199.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14920,9 +14910,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14959,9 +14947,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14998,9 +14984,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15037,9 +15021,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15076,9 +15058,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15115,9 +15095,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15154,9 +15132,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15193,9 +15169,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15229,14 +15203,10 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>201</v>
-      </c>
-      <c r="J422" t="n">
-        <v>199.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15273,9 +15243,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15312,9 +15280,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15351,9 +15317,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>199.1</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15365,6 +15329,6 @@
       <c r="M425" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest INS.xlsx
+++ b/BackTest/2020-01-19 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-50702.434827494</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-88398.41472749399</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-96237.57652749399</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-83695.41472749399</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-244976.7319047983</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-245559.9557056864</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-254407.9682056864</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-258062.7238056864</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-260722.8838056864</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-269038.2529056864</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-275962.2077056864</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-351654.7493056864</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-387069.8134056864</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-376481.3553056864</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-375646.5003056864</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-391080.4191056865</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -8272,14 +8272,10 @@
         <v>-645278.1258056865</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="J239" t="n">
-        <v>197.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
@@ -8309,19 +8305,11 @@
         <v>-645268.2258056864</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>197.3</v>
-      </c>
-      <c r="J240" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8350,19 +8338,11 @@
         <v>-644558.8065056865</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="J241" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8391,14 +8371,10 @@
         <v>-644626.2063056865</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>197.9</v>
-      </c>
-      <c r="J242" t="n">
-        <v>197.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
@@ -8434,13 +8410,9 @@
         <v>197.4</v>
       </c>
       <c r="J243" t="n">
-        <v>197.9</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>197.4</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8475,7 +8447,7 @@
         <v>197.4</v>
       </c>
       <c r="J244" t="n">
-        <v>197.9</v>
+        <v>197.4</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8510,11 +8482,19 @@
         <v>-642786.2628056866</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>197.3</v>
+      </c>
+      <c r="J245" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8548,10 +8528,12 @@
       <c r="I246" t="n">
         <v>197.5</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -8587,7 +8569,9 @@
       <c r="I247" t="n">
         <v>197.4</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,7 +8610,9 @@
       <c r="I248" t="n">
         <v>197.4</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8665,7 +8651,9 @@
       <c r="I249" t="n">
         <v>198</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8704,7 +8692,9 @@
       <c r="I250" t="n">
         <v>197.7</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8741,7 +8731,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8775,12 +8767,12 @@
         <v>-652040.2503056865</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8817,7 +8809,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8854,7 +8848,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8891,7 +8887,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,7 +8926,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8965,7 +8965,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9002,7 +9004,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9036,12 +9040,12 @@
         <v>-660677.8144056865</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,7 +9082,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9115,7 +9121,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9149,12 +9157,12 @@
         <v>-657779.2395056864</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9188,12 +9196,12 @@
         <v>-659779.2395056864</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9230,7 +9238,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,12 +9274,12 @@
         <v>-652984.3781056864</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9306,7 +9316,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9343,7 +9355,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9380,7 +9394,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,12 +9430,12 @@
         <v>-673502.0453056864</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>198</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9453,12 +9469,12 @@
         <v>-677877.4982056865</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9492,12 +9508,12 @@
         <v>-677874.8982056865</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9531,12 +9547,12 @@
         <v>-677877.4982056865</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9570,12 +9586,12 @@
         <v>-679898.1168056865</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>199</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9609,12 +9625,12 @@
         <v>-679898.1168056865</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>198</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9648,12 +9664,12 @@
         <v>-678896.6107815902</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>198</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9687,12 +9703,12 @@
         <v>-678896.6107815902</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9726,12 +9742,12 @@
         <v>-678896.6107815902</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9768,7 +9784,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9805,7 +9823,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9842,7 +9862,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9879,7 +9901,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9916,7 +9940,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9953,7 +9979,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9990,7 +10018,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10024,12 +10054,12 @@
         <v>-678206.7600815903</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10063,12 +10093,12 @@
         <v>-694686.2502815903</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10102,12 +10132,12 @@
         <v>-694671.1142815902</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10141,12 +10171,12 @@
         <v>-694863.3154815902</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,12 +10210,12 @@
         <v>-695447.8554815903</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>198.4</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10219,12 +10249,12 @@
         <v>-700447.8554815903</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10258,12 +10288,12 @@
         <v>-699810.2654815903</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>198.2</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10297,12 +10327,12 @@
         <v>-682810.2654815903</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>198.4</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10336,12 +10366,12 @@
         <v>-682929.6460815903</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>199.8</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10375,12 +10405,12 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>199.4</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10414,12 +10444,12 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>198.5</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10453,12 +10483,12 @@
         <v>-679081.5344815904</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>198.5</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10492,12 +10522,12 @@
         <v>-676900.2779815904</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>199.8</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10531,12 +10561,12 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10570,12 +10600,12 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10609,12 +10639,12 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,12 +10678,12 @@
         <v>-676916.8213815903</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>198.8</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10690,7 +10720,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10727,7 +10759,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10764,7 +10798,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10801,7 +10837,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10838,7 +10876,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10875,7 +10915,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10909,12 +10951,12 @@
         <v>-681050.4201815902</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>199</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10951,7 +10993,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,12 +11029,12 @@
         <v>-681050.4201815902</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>199</v>
-      </c>
-      <c r="J310" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11024,12 +11068,12 @@
         <v>-681050.4201815902</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>199</v>
-      </c>
-      <c r="J311" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11063,12 +11107,12 @@
         <v>-680899.0275815902</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>199</v>
-      </c>
-      <c r="J312" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,12 +11146,12 @@
         <v>-673740.1412815902</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="J313" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11141,12 +11185,12 @@
         <v>-676019.2934815902</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="J314" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11180,12 +11224,12 @@
         <v>-675966.6334815902</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11219,12 +11263,12 @@
         <v>-675966.6334815902</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>200</v>
-      </c>
-      <c r="J316" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11261,7 +11305,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11298,7 +11344,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11335,7 +11383,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11369,12 +11419,12 @@
         <v>-690040.0844815902</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>199</v>
-      </c>
-      <c r="J320" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11408,12 +11458,12 @@
         <v>-690040.0844815902</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11450,7 +11500,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11484,12 +11536,12 @@
         <v>-699084.4559815902</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11523,12 +11575,12 @@
         <v>-698780.3562815902</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>198.5</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11565,7 +11617,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11599,17 +11653,19 @@
         <v>-698780.3562815902</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>197.4</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L326" t="n">
-        <v>1</v>
+        <v>1.014250253292807</v>
       </c>
       <c r="M326" t="inlineStr"/>
     </row>
@@ -11636,15 +11692,11 @@
         <v>-706595.3561815902</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11677,11 +11729,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +11762,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11747,15 +11791,11 @@
         <v>-708685.0952815902</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11788,11 +11828,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11825,11 +11861,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11862,11 +11894,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11899,11 +11927,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11936,11 +11960,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11973,11 +11993,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12006,17 +12022,11 @@
         <v>-731939.6420815903</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>198.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12045,17 +12055,11 @@
         <v>-734596.7320815902</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>198.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12084,17 +12088,11 @@
         <v>-734596.7320815902</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12123,17 +12121,11 @@
         <v>-754224.0833815902</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12162,17 +12154,11 @@
         <v>-754221.5833815902</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>198.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12205,11 +12191,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12242,11 +12224,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12279,11 +12257,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12312,17 +12286,11 @@
         <v>-755083.1292815902</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>198.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12351,17 +12319,11 @@
         <v>-755029.0717815902</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>198.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12390,17 +12352,11 @@
         <v>-754755.4817815903</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>198.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12429,17 +12385,11 @@
         <v>-754755.4817815903</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>198.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12468,17 +12418,11 @@
         <v>-751781.1217815903</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>198.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12507,17 +12451,11 @@
         <v>-751781.1217815903</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>198.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12546,17 +12484,11 @@
         <v>-751781.1217815903</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>198.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12585,17 +12517,11 @@
         <v>-751781.1217815903</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>198.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12624,17 +12550,11 @@
         <v>-746879.1218815902</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>198.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12667,11 +12587,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12704,11 +12620,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12741,11 +12653,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12778,11 +12686,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12815,11 +12719,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12848,17 +12748,11 @@
         <v>-750476.0947815904</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>198.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12891,11 +12785,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12924,17 +12814,11 @@
         <v>-751126.6866815904</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12963,17 +12847,11 @@
         <v>-751126.6866815904</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>199.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13002,17 +12880,11 @@
         <v>-751123.6866815904</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>199.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13045,11 +12917,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13082,11 +12950,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13119,11 +12983,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13016,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13193,11 +13049,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13230,11 +13082,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13263,17 +13111,11 @@
         <v>-757154.4863815905</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>199.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13306,11 +13148,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13343,11 +13181,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13380,11 +13214,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13417,11 +13247,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13454,11 +13280,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13491,11 +13313,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13528,11 +13346,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13565,11 +13379,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13602,11 +13412,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13639,11 +13445,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13676,11 +13478,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13713,11 +13511,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13544,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13787,11 +13577,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13824,11 +13610,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13857,15 +13639,11 @@
         <v>-766724.1208891602</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13898,11 +13676,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13931,15 +13705,11 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13968,15 +13738,11 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14009,11 +13775,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14042,15 +13804,11 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14079,15 +13837,11 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14116,15 +13870,11 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14153,15 +13903,11 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14190,15 +13936,11 @@
         <v>-772296.9394891602</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14227,17 +13969,11 @@
         <v>-772293.9394891602</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>200.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14266,15 +14002,11 @@
         <v>-773002.8288891602</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14303,15 +14035,11 @@
         <v>-779282.1804891602</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14340,15 +14068,11 @@
         <v>-779279.1804891602</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14377,15 +14101,11 @@
         <v>-779289.1804891602</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14418,11 +14138,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14451,17 +14167,11 @@
         <v>-779344.4549891603</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>199.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14490,17 +14200,11 @@
         <v>-779382.1213891603</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>200.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14529,17 +14233,11 @@
         <v>-779382.1213891603</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14568,17 +14266,11 @@
         <v>-779379.1213891603</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14607,17 +14299,11 @@
         <v>-779376.1213891603</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14650,11 +14336,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14687,11 +14369,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14724,11 +14402,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14761,11 +14435,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14794,15 +14464,11 @@
         <v>-777108.4673556616</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14835,11 +14501,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14868,17 +14530,11 @@
         <v>-779926.4373556615</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>200.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14911,11 +14567,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14944,15 +14596,15 @@
         <v>-779926.4373556615</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="J415" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14984,10 +14636,12 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L416" t="n">
@@ -15021,10 +14675,12 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L417" t="n">
@@ -15058,7 +14714,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15092,10 +14750,12 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15129,10 +14789,12 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15166,10 +14828,12 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15203,10 +14867,12 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15243,7 +14909,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15277,10 +14945,12 @@
         <v>-793076.6653648741</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15314,10 +14984,12 @@
         <v>-793073.6653648741</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>200.2</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15329,6 +15001,6 @@
       <c r="M425" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest INS.xlsx
+++ b/BackTest/2020-01-19 BackTest INS.xlsx
@@ -451,7 +451,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-44942.414627494</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-50702.434827494</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-88921.23862749399</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-88398.41472749399</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-96237.57652749399</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-83695.41472749399</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-65769.21522749399</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-49885.70572749399</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-53173.22132749399</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-244976.7319047983</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-245559.9557056864</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-254407.9682056864</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-258062.7238056864</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-260722.8838056864</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-269038.2529056864</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-275962.2077056864</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-351654.7493056864</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-387069.8134056864</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-376481.3553056864</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-375646.5003056864</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-391080.4191056865</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-354087.7269056865</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-353402.3544056866</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-355402.3544056866</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-355402.3544056866</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-355402.3544056866</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-355402.3544056866</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-365973.1759056866</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-364581.1225056866</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-365221.5724056866</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-365221.5724056866</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-364702.5724056866</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-369386.6393056866</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-369494.3193056866</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-397637.3193056866</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-397637.3193056866</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-397637.3193056866</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-398557.9876056865</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-399557.9876056865</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-408091.9876056865</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-401969.5590056865</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-402592.6421056865</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-402592.6421056865</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-434357.0075056865</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8404,14 +8404,10 @@
         <v>-644626.2063056865</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="J243" t="n">
-        <v>197.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
@@ -8441,19 +8437,11 @@
         <v>-648889.4525056866</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="J244" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8482,1628 +8470,1376 @@
         <v>-642786.2628056866</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>197.3</v>
-      </c>
-      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="C246" t="n">
         <v>197.4</v>
       </c>
-      <c r="K245" t="inlineStr">
+      <c r="D246" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="E246" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="F246" t="n">
+        <v>10900</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-653686.2628056866</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C247" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="D247" t="n">
+        <v>198</v>
+      </c>
+      <c r="E247" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="F247" t="n">
+        <v>515.36</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-653686.2628056866</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>198</v>
+      </c>
+      <c r="C248" t="n">
+        <v>198</v>
+      </c>
+      <c r="D248" t="n">
+        <v>198</v>
+      </c>
+      <c r="E248" t="n">
+        <v>198</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2.5402</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-653683.7226056865</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="C249" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="D249" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="E249" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3358.1466</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-657041.8692056865</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>199</v>
+      </c>
+      <c r="C250" t="n">
+        <v>198.4</v>
+      </c>
+      <c r="D250" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="E250" t="n">
+        <v>198.4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>10038.8389</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-647003.0303056865</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="C251" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="D251" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="E251" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="F251" t="n">
+        <v>5037.22</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-652040.2503056865</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="C252" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="D252" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="E252" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2518.61</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-652040.2503056865</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="C253" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="D253" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="E253" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="F253" t="n">
+        <v>13.2316</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-652027.0187056864</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="C254" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="D254" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="E254" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="F254" t="n">
+        <v>594.4627</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-652621.4814056865</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="C255" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="D255" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="E255" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2052.3833</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-652621.4814056865</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="C256" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="D256" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="E256" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="F256" t="n">
+        <v>537.22</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-652621.4814056865</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>199</v>
+      </c>
+      <c r="C257" t="n">
+        <v>199</v>
+      </c>
+      <c r="D257" t="n">
+        <v>199</v>
+      </c>
+      <c r="E257" t="n">
+        <v>199</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2518.61</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-650102.8714056865</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="C258" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="D258" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="E258" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-650100.2714056865</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>199</v>
+      </c>
+      <c r="C259" t="n">
+        <v>198</v>
+      </c>
+      <c r="D259" t="n">
+        <v>199</v>
+      </c>
+      <c r="E259" t="n">
+        <v>198</v>
+      </c>
+      <c r="F259" t="n">
+        <v>10577.543</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-660677.8144056865</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="E260" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2841</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-657836.8144056865</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="E261" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>554.5017</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-657836.8144056865</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="C262" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="D262" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="E262" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="F262" t="n">
+        <v>57.5749</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-657779.2395056864</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C263" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="E263" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-659779.2395056864</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C264" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="D264" t="n">
+        <v>200</v>
+      </c>
+      <c r="E264" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="F264" t="n">
+        <v>6794.8614</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-652984.3781056864</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="C265" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="E265" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3270.892</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-652984.3781056864</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="C266" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="D266" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="E266" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="F266" t="n">
+        <v>113.7148</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-652870.6633056864</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="C267" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="E267" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-662870.6633056864</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>198</v>
+      </c>
+      <c r="C268" t="n">
+        <v>198</v>
+      </c>
+      <c r="D268" t="n">
+        <v>198</v>
+      </c>
+      <c r="E268" t="n">
+        <v>198</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2952.8031</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-665823.4664056865</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="D269" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="F269" t="n">
+        <v>7678.5789</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-673502.0453056864</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="C270" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="E270" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="F270" t="n">
+        <v>4375.4529</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-677877.4982056865</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="E271" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-677874.8982056865</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>199</v>
+      </c>
+      <c r="C272" t="n">
+        <v>199</v>
+      </c>
+      <c r="D272" t="n">
+        <v>199</v>
+      </c>
+      <c r="E272" t="n">
+        <v>199</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-677877.4982056865</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>198</v>
+      </c>
+      <c r="C273" t="n">
+        <v>198</v>
+      </c>
+      <c r="D273" t="n">
+        <v>198</v>
+      </c>
+      <c r="E273" t="n">
+        <v>198</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2020.6186</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-679898.1168056865</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>198</v>
+      </c>
+      <c r="C274" t="n">
+        <v>198</v>
+      </c>
+      <c r="D274" t="n">
+        <v>198</v>
+      </c>
+      <c r="E274" t="n">
+        <v>198</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3648.9395</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-679898.1168056865</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C275" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="D275" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="E275" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1001.5060240963</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-678896.6107815902</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C276" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="E276" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3004.5469</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-678896.6107815902</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C277" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="D277" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="E277" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="F277" t="n">
+        <v>48.4678</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-678896.6107815902</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>199</v>
+      </c>
+      <c r="C278" t="n">
+        <v>199</v>
+      </c>
+      <c r="D278" t="n">
+        <v>199</v>
+      </c>
+      <c r="E278" t="n">
+        <v>199</v>
+      </c>
+      <c r="F278" t="n">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-678996.4607815902</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="F279" t="n">
+        <v>12.8868</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-678983.5739815902</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>199</v>
+      </c>
+      <c r="C280" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>199</v>
+      </c>
+      <c r="F280" t="n">
+        <v>2018.2085</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-678983.5739815902</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="D281" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="E281" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3077</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-675906.5739815902</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="E282" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2300.1861</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-678206.7600815903</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="E283" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="F283" t="n">
+        <v>8.478300000000001</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-678206.7600815903</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="C284" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="E284" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="F284" t="n">
+        <v>4731.9999</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-678206.7600815903</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="C285" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="E285" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="F285" t="n">
+        <v>17519.0744</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-678206.7600815903</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="C286" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="D286" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="E286" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="F286" t="n">
+        <v>16479.4902</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-694686.2502815903</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="C246" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="D246" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="E246" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="F246" t="n">
-        <v>10900</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-653686.2628056866</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="J246" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>197.5</v>
-      </c>
-      <c r="C247" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="D247" t="n">
-        <v>198</v>
-      </c>
-      <c r="E247" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="F247" t="n">
-        <v>515.36</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-653686.2628056866</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="J247" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>198</v>
-      </c>
-      <c r="C248" t="n">
-        <v>198</v>
-      </c>
-      <c r="D248" t="n">
-        <v>198</v>
-      </c>
-      <c r="E248" t="n">
-        <v>198</v>
-      </c>
-      <c r="F248" t="n">
-        <v>2.5402</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-653683.7226056865</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="J248" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="C249" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="D249" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="E249" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="F249" t="n">
-        <v>3358.1466</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-657041.8692056865</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>198</v>
-      </c>
-      <c r="J249" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>199</v>
-      </c>
-      <c r="C250" t="n">
-        <v>198.4</v>
-      </c>
-      <c r="D250" t="n">
-        <v>200.1</v>
-      </c>
-      <c r="E250" t="n">
-        <v>198.4</v>
-      </c>
-      <c r="F250" t="n">
-        <v>10038.8389</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-647003.0303056865</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="J250" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="C251" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="D251" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="E251" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="F251" t="n">
-        <v>5037.22</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-652040.2503056865</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="C252" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="D252" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="E252" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="F252" t="n">
-        <v>2518.61</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-652040.2503056865</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>199.4</v>
-      </c>
-      <c r="C253" t="n">
-        <v>199.4</v>
-      </c>
-      <c r="D253" t="n">
-        <v>199.4</v>
-      </c>
-      <c r="E253" t="n">
-        <v>199.4</v>
-      </c>
-      <c r="F253" t="n">
-        <v>13.2316</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-652027.0187056864</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="C254" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="D254" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="E254" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="F254" t="n">
-        <v>594.4627</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-652621.4814056865</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="C255" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="D255" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="E255" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="F255" t="n">
-        <v>2052.3833</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-652621.4814056865</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="C256" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="D256" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="E256" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="F256" t="n">
-        <v>537.22</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-652621.4814056865</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>199</v>
-      </c>
-      <c r="C257" t="n">
-        <v>199</v>
-      </c>
-      <c r="D257" t="n">
-        <v>199</v>
-      </c>
-      <c r="E257" t="n">
-        <v>199</v>
-      </c>
-      <c r="F257" t="n">
-        <v>2518.61</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-650102.8714056865</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="C258" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="D258" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="E258" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-650100.2714056865</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>199</v>
-      </c>
-      <c r="C259" t="n">
-        <v>198</v>
-      </c>
-      <c r="D259" t="n">
-        <v>199</v>
-      </c>
-      <c r="E259" t="n">
-        <v>198</v>
-      </c>
-      <c r="F259" t="n">
-        <v>10577.543</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-660677.8144056865</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="C260" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="D260" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="E260" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="F260" t="n">
-        <v>2841</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-657836.8144056865</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="C261" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="D261" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="E261" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="F261" t="n">
-        <v>554.5017</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-657836.8144056865</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="C262" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="D262" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="E262" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="F262" t="n">
-        <v>57.5749</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-657779.2395056864</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="C263" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="D263" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="E263" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="F263" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-659779.2395056864</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="C264" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="D264" t="n">
-        <v>200</v>
-      </c>
-      <c r="E264" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="F264" t="n">
-        <v>6794.8614</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-652984.3781056864</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="C265" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="D265" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="E265" t="n">
-        <v>199.3</v>
-      </c>
-      <c r="F265" t="n">
-        <v>3270.892</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-652984.3781056864</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="C266" t="n">
-        <v>199.8</v>
-      </c>
-      <c r="D266" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="E266" t="n">
-        <v>199.8</v>
-      </c>
-      <c r="F266" t="n">
-        <v>113.7148</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-652870.6633056864</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="C267" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="E267" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="F267" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-662870.6633056864</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>198</v>
-      </c>
-      <c r="C268" t="n">
-        <v>198</v>
-      </c>
-      <c r="D268" t="n">
-        <v>198</v>
-      </c>
-      <c r="E268" t="n">
-        <v>198</v>
-      </c>
-      <c r="F268" t="n">
-        <v>2952.8031</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-665823.4664056865</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="C269" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="D269" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="E269" t="n">
-        <v>197.7</v>
-      </c>
-      <c r="F269" t="n">
-        <v>7678.5789</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-673502.0453056864</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="C270" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="D270" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="E270" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="F270" t="n">
-        <v>4375.4529</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-677877.4982056865</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="C271" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="D271" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="E271" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="F271" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-677874.8982056865</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>199</v>
-      </c>
-      <c r="C272" t="n">
-        <v>199</v>
-      </c>
-      <c r="D272" t="n">
-        <v>199</v>
-      </c>
-      <c r="E272" t="n">
-        <v>199</v>
-      </c>
-      <c r="F272" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-677877.4982056865</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>198</v>
-      </c>
-      <c r="C273" t="n">
-        <v>198</v>
-      </c>
-      <c r="D273" t="n">
-        <v>198</v>
-      </c>
-      <c r="E273" t="n">
-        <v>198</v>
-      </c>
-      <c r="F273" t="n">
-        <v>2020.6186</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-679898.1168056865</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>198</v>
-      </c>
-      <c r="C274" t="n">
-        <v>198</v>
-      </c>
-      <c r="D274" t="n">
-        <v>198</v>
-      </c>
-      <c r="E274" t="n">
-        <v>198</v>
-      </c>
-      <c r="F274" t="n">
-        <v>3648.9395</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-679898.1168056865</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="C275" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="D275" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="E275" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="F275" t="n">
-        <v>1001.5060240963</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-678896.6107815902</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="C276" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="D276" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="E276" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="F276" t="n">
-        <v>3004.5469</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-678896.6107815902</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="C277" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="D277" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="E277" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="F277" t="n">
-        <v>48.4678</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-678896.6107815902</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>199</v>
-      </c>
-      <c r="C278" t="n">
-        <v>199</v>
-      </c>
-      <c r="D278" t="n">
-        <v>199</v>
-      </c>
-      <c r="E278" t="n">
-        <v>199</v>
-      </c>
-      <c r="F278" t="n">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-678996.4607815902</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="C279" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="D279" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="E279" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="F279" t="n">
-        <v>12.8868</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-678983.5739815902</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>199</v>
-      </c>
-      <c r="C280" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="D280" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="E280" t="n">
-        <v>199</v>
-      </c>
-      <c r="F280" t="n">
-        <v>2018.2085</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-678983.5739815902</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="C281" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="D281" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="E281" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="F281" t="n">
-        <v>3077</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-675906.5739815902</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="C282" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="D282" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="E282" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="F282" t="n">
-        <v>2300.1861</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-678206.7600815903</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="C283" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="D283" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="E283" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="F283" t="n">
-        <v>8.478300000000001</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-678206.7600815903</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="C284" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="D284" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="E284" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="F284" t="n">
-        <v>4731.9999</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-678206.7600815903</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="C285" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="D285" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="E285" t="n">
-        <v>199.1</v>
-      </c>
-      <c r="F285" t="n">
-        <v>17519.0744</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-678206.7600815903</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>198.5</v>
-      </c>
-      <c r="C286" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="D286" t="n">
-        <v>198.5</v>
-      </c>
-      <c r="E286" t="n">
-        <v>198.3</v>
-      </c>
-      <c r="F286" t="n">
-        <v>16479.4902</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-694686.2502815903</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10132,11 +9868,13 @@
         <v>-694671.1142815902</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>198.3</v>
+      </c>
       <c r="J287" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10171,11 +9909,13 @@
         <v>-694863.3154815902</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>199.1</v>
+      </c>
       <c r="J288" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10210,11 +9950,13 @@
         <v>-695447.8554815903</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>198.4</v>
+      </c>
       <c r="J289" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10249,11 +9991,13 @@
         <v>-700447.8554815903</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>198.3</v>
+      </c>
       <c r="J290" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10288,11 +10032,13 @@
         <v>-699810.2654815903</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>198.2</v>
+      </c>
       <c r="J291" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10327,11 +10073,13 @@
         <v>-682810.2654815903</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>198.4</v>
+      </c>
       <c r="J292" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10366,11 +10114,13 @@
         <v>-682929.6460815903</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>199.8</v>
+      </c>
       <c r="J293" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10405,11 +10155,13 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>199.4</v>
+      </c>
       <c r="J294" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10444,11 +10196,13 @@
         <v>-683146.3054815903</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>198.5</v>
+      </c>
       <c r="J295" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10483,11 +10237,13 @@
         <v>-679081.5344815904</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>198.5</v>
+      </c>
       <c r="J296" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10522,11 +10278,13 @@
         <v>-676900.2779815904</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>199.8</v>
+      </c>
       <c r="J297" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10565,7 +10323,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10600,11 +10358,13 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>198.8</v>
+      </c>
       <c r="J299" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10639,11 +10399,13 @@
         <v>-676920.2479815903</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>198.8</v>
+      </c>
       <c r="J300" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10682,7 +10444,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10721,7 +10483,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10760,7 +10522,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10799,7 +10561,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10838,7 +10600,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10877,7 +10639,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10916,7 +10678,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10955,7 +10717,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10994,7 +10756,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11033,7 +10795,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11072,7 +10834,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11111,7 +10873,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11150,7 +10912,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11189,7 +10951,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11228,7 +10990,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11267,7 +11029,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11306,7 +11068,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11345,7 +11107,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11384,7 +11146,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11423,7 +11185,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11462,7 +11224,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11501,7 +11263,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11540,7 +11302,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11575,11 +11337,13 @@
         <v>-698780.3562815902</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>198.5</v>
+      </c>
       <c r="J324" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11618,7 +11382,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11653,19 +11417,19 @@
         <v>-698780.3562815902</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>197.4</v>
+        <v>199.1</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L326" t="n">
-        <v>1.014250253292807</v>
+        <v>1</v>
       </c>
       <c r="M326" t="inlineStr"/>
     </row>
@@ -11692,11 +11456,17 @@
         <v>-706595.3561815902</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11728,8 +11498,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11761,8 +11537,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11791,11 +11573,17 @@
         <v>-708685.0952815902</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11827,8 +11615,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11860,8 +11654,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11893,8 +11693,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11926,8 +11732,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11959,8 +11771,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11992,8 +11810,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12025,8 +11849,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12058,8 +11888,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12091,8 +11927,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12124,8 +11966,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12157,8 +12005,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12190,8 +12044,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12223,8 +12083,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12256,8 +12122,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12289,8 +12161,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12322,8 +12200,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12355,8 +12239,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12388,8 +12278,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12421,8 +12317,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12454,8 +12356,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12487,8 +12395,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12520,8 +12434,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12553,8 +12473,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12586,8 +12512,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12619,8 +12551,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12652,8 +12590,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12685,8 +12629,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12718,8 +12668,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12751,8 +12707,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12784,8 +12746,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12817,8 +12785,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12847,11 +12821,19 @@
         <v>-751126.6866815904</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="J362" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12883,8 +12865,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12916,8 +12904,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12949,8 +12943,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12982,8 +12982,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13015,8 +13021,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13048,8 +13060,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13081,8 +13099,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13114,8 +13138,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13147,8 +13177,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13180,8 +13216,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13213,8 +13255,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13246,8 +13294,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13279,8 +13333,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13312,8 +13372,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13345,8 +13411,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13378,8 +13450,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13411,8 +13489,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13444,8 +13528,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13477,8 +13567,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13510,8 +13606,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13543,8 +13645,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13576,8 +13684,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13609,8 +13723,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13639,11 +13759,17 @@
         <v>-766724.1208891602</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13675,8 +13801,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13705,11 +13837,17 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13738,11 +13876,17 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13774,8 +13918,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13804,11 +13954,17 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13837,11 +13993,17 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13870,11 +14032,17 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13903,11 +14071,17 @@
         <v>-768394.3594891602</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13936,11 +14110,17 @@
         <v>-772296.9394891602</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13969,11 +14149,17 @@
         <v>-772293.9394891602</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14002,11 +14188,17 @@
         <v>-773002.8288891602</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14035,11 +14227,17 @@
         <v>-779282.1804891602</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14068,11 +14266,17 @@
         <v>-779279.1804891602</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14101,11 +14305,17 @@
         <v>-779289.1804891602</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14137,8 +14347,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14170,8 +14386,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14203,8 +14425,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14236,8 +14464,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14269,8 +14503,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14302,8 +14542,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14335,8 +14581,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14368,8 +14620,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14401,8 +14659,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14434,8 +14698,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14464,11 +14734,17 @@
         <v>-777108.4673556616</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14500,8 +14776,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14533,8 +14815,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14566,8 +14854,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14596,15 +14890,17 @@
         <v>-779926.4373556615</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>200.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>200.2</v>
-      </c>
-      <c r="K415" t="inlineStr"/>
+        <v>199.1</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14637,11 +14933,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L416" t="n">
@@ -14676,11 +14972,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L417" t="n">
@@ -14715,7 +15011,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14750,11 +15046,11 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14789,11 +15085,11 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14828,11 +15124,11 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14867,11 +15163,11 @@
         <v>-795276.6213556615</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14910,7 +15206,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14945,11 +15241,11 @@
         <v>-793076.6653648741</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14984,11 +15280,11 @@
         <v>-793073.6653648741</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>200.2</v>
+        <v>199.1</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
